--- a/Semestres/Other/Proyectos de Inversión/Casos Finales/Casos.xlsx
+++ b/Semestres/Other/Proyectos de Inversión/Casos Finales/Casos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scago\Documents\GitHub\IA_School\Semestres\Other\Proyectos de Inversión\Casos Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5362BAF2-65DC-4555-A875-39FDB4D0E3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA5523D-8767-4A8D-9AED-C9B1AD2A51E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" activeTab="5" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Fresadora" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author>Sara Carolina Gómez Delgado</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{10AF3BAF-BE37-40A9-A906-A3874DCCD99E}">
+    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{10AF3BAF-BE37-40A9-A906-A3874DCCD99E}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
     <author>Sara Carolina Gómez Delgado</author>
   </authors>
   <commentList>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{D4D2A116-A551-438F-B111-240064D576AD}">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{D4D2A116-A551-438F-B111-240064D576AD}">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="119">
   <si>
     <t xml:space="preserve">Reemplazo vieja maquinaria fresadora </t>
   </si>
@@ -477,6 +477,18 @@
       <t xml:space="preserve"> a la antigua a pesar de que se tenga que cambiar cada 4 años, que comprar el mismo modelo que ya se tenía anteriormente.</t>
     </r>
   </si>
+  <si>
+    <t>Compañía "TVEO"</t>
+  </si>
+  <si>
+    <t>Cementera</t>
+  </si>
+  <si>
+    <t>Mina</t>
+  </si>
+  <si>
+    <t>Camión de Volteo</t>
+  </si>
 </sst>
 </file>
 
@@ -490,7 +502,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.0_-;\-&quot;$&quot;* #,##0.0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,8 +554,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,8 +605,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -701,13 +726,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -750,9 +788,6 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,40 +811,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,6 +852,42 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1175,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F780256-FAFA-45AD-BD21-220A3A64CB91}">
   <dimension ref="B2:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1201,7 +1241,7 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="8">
@@ -1446,7 +1486,7 @@
         <f t="shared" si="0"/>
         <v>258000</v>
       </c>
-      <c r="P12" s="47" t="s">
+      <c r="P12" s="45" t="s">
         <v>9</v>
       </c>
       <c r="Q12" s="9">
@@ -1455,7 +1495,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="P13" s="47" t="s">
+      <c r="P13" s="45" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="9">
@@ -1464,14 +1504,14 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="9">
         <f>NPV(C4,K7:K12)</f>
         <v>1123657.260461254</v>
       </c>
-      <c r="P14" s="47" t="s">
+      <c r="P14" s="45" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="9">
@@ -1483,7 +1523,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="45" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="9">
@@ -1492,7 +1532,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J16" s="47" t="s">
+      <c r="J16" s="45" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="9">
@@ -1505,13 +1545,13 @@
     </row>
     <row r="17" spans="3:10" ht="7.55" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="3:10" ht="155.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
       <c r="J19" s="25"/>
@@ -1530,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5ECF15-6822-4EE2-B3BE-6B316A49C0F5}">
-  <dimension ref="B2:M33"/>
+  <dimension ref="B1:M37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1552,791 +1592,800 @@
     <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="2:13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" customFormat="1" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" s="1" customFormat="1" ht="12.55" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="21" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G4" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12">
+    <row r="5" spans="2:13" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C5" s="59">
         <v>20000</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F5" s="16">
         <v>-2000000</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G5" s="57">
         <v>-1200000</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="72">
+      <c r="J5" s="60">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12">
+    <row r="6" spans="2:13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C6" s="59">
         <v>30000</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F6" s="16">
         <v>-30</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G6" s="57">
         <v>-31</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J6" s="61">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12">
+    <row r="7" spans="2:13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C7" s="59">
         <v>50000</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F7" s="16">
         <v>40000</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G7" s="57">
         <v>0</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
+    <row r="8" spans="2:13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C8" s="59">
         <v>80000</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G8" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="73">
+      <c r="J8" s="61">
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12">
+    <row r="9" spans="2:13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C9" s="59">
         <v>80000</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F9" s="56">
         <v>-2500000</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G9" s="57">
         <v>-1200000</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
+    <row r="10" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C10" s="59">
         <v>80000</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G10" s="58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+    <row r="11" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="20" t="s">
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="25">
-        <f>NPV(J6,K12:K17)</f>
+      <c r="M12" s="25">
+        <f>NPV(J8,K14:K19)</f>
         <v>3541362.2682061666</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="12">
+    <row r="13" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="12">
         <v>0</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="24">
-        <f>F7</f>
+      <c r="C13" s="2"/>
+      <c r="D13" s="24">
+        <f>F9</f>
         <v>-2500000</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="15">
-        <f>SUM(C11:G11)</f>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="15">
+        <f>SUM(C13:G13)</f>
         <v>-2500000</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15">
-        <f>I11+J11</f>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15">
+        <f>I13+J13</f>
         <v>-2500000</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L13" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="25">
-        <f>M10+K11</f>
+      <c r="M13" s="25">
+        <f>M12+K13</f>
         <v>1041362.2682061666</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="12">
+    <row r="14" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
         <v>1</v>
       </c>
-      <c r="C12" s="24">
-        <f>$F$3</f>
-        <v>-2000000</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="24">
-        <f>$F$4*H12</f>
-        <v>-600000</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="18">
-        <f>H12*$J$3</f>
-        <v>1800000</v>
-      </c>
-      <c r="H12" s="14">
-        <f>C3</f>
-        <v>20000</v>
-      </c>
-      <c r="I12" s="15">
-        <f>SUM(C12:G12)</f>
-        <v>-800000</v>
-      </c>
-      <c r="J12" s="15">
-        <f>MIN(0,I12*$J$4*-1)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="15">
-        <f>I12+J12</f>
-        <v>-800000</v>
-      </c>
-      <c r="L12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="34">
-        <f>IRR(K11:K17)</f>
-        <v>0.19140574831816526</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="12">
-        <v>2</v>
-      </c>
-      <c r="C13" s="24">
-        <f t="shared" ref="C13:C17" si="0">$F$3</f>
-        <v>-2000000</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="24">
-        <f>$F$4*H13</f>
-        <v>-900000</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="18">
-        <f t="shared" ref="G13:G16" si="1">H13*$J$3</f>
-        <v>2700000</v>
-      </c>
-      <c r="H13" s="14">
-        <f>C4</f>
-        <v>30000</v>
-      </c>
-      <c r="I13" s="15">
-        <f t="shared" ref="I13:I17" si="2">SUM(C13:G13)</f>
-        <v>-200000</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" ref="J13:J16" si="3">MIN(0,I13*$J$4*-1)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <f t="shared" ref="K13:K15" si="4">I13+J13</f>
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="12">
-        <v>3</v>
-      </c>
       <c r="C14" s="24">
-        <f t="shared" si="0"/>
+        <f>$F$5</f>
         <v>-2000000</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="24">
-        <f>$F$4*H14</f>
-        <v>-1500000</v>
+        <f>$F$6*H14</f>
+        <v>-600000</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="18">
-        <f t="shared" si="1"/>
-        <v>4500000</v>
+        <f>H14*$J$5</f>
+        <v>1800000</v>
       </c>
       <c r="H14" s="14">
-        <f>C5</f>
-        <v>50000</v>
+        <f t="shared" ref="H14:H19" si="0">C5</f>
+        <v>20000</v>
       </c>
       <c r="I14" s="15">
-        <f t="shared" si="2"/>
-        <v>1000000</v>
+        <f>SUM(C14:G14)</f>
+        <v>-800000</v>
       </c>
       <c r="J14" s="15">
-        <f t="shared" si="3"/>
-        <v>-200000</v>
+        <f>MIN(0,I14*$J$6*-1)</f>
+        <v>0</v>
       </c>
       <c r="K14" s="15">
-        <f t="shared" si="4"/>
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+        <f>I14+J14</f>
+        <v>-800000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="33">
+        <f>IRR(K13:K19)</f>
+        <v>0.19140574831816526</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C15:C19" si="1">$F$5</f>
         <v>-2000000</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="24">
-        <f>$F$4*H15</f>
-        <v>-2400000</v>
+        <f>$F$6*H15</f>
+        <v>-900000</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="18">
-        <f t="shared" si="1"/>
-        <v>7200000</v>
+        <f t="shared" ref="G15:G18" si="2">H15*$J$5</f>
+        <v>2700000</v>
       </c>
       <c r="H15" s="14">
-        <f>C6</f>
-        <v>80000</v>
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="I15" s="15">
-        <f t="shared" si="2"/>
-        <v>2800000</v>
+        <f t="shared" ref="I15:I19" si="3">SUM(C15:G15)</f>
+        <v>-200000</v>
       </c>
       <c r="J15" s="15">
-        <f t="shared" si="3"/>
-        <v>-560000</v>
+        <f t="shared" ref="J15:J18" si="4">MIN(0,I15*$J$6*-1)</f>
+        <v>0</v>
       </c>
       <c r="K15" s="15">
-        <f t="shared" si="4"/>
-        <v>2240000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K15:K17" si="5">I15+J15</f>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2000000</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="24">
-        <f t="shared" ref="E16" si="5">$F$4*H16</f>
-        <v>-2400000</v>
+        <f>$F$6*H16</f>
+        <v>-1500000</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="18">
-        <f t="shared" si="1"/>
-        <v>7200000</v>
+        <f t="shared" si="2"/>
+        <v>4500000</v>
       </c>
       <c r="H16" s="14">
-        <f>C7</f>
-        <v>80000</v>
+        <f t="shared" si="0"/>
+        <v>50000</v>
       </c>
       <c r="I16" s="15">
-        <f t="shared" si="2"/>
-        <v>2800000</v>
+        <f t="shared" si="3"/>
+        <v>1000000</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" si="3"/>
-        <v>-560000</v>
+        <f t="shared" si="4"/>
+        <v>-200000</v>
       </c>
       <c r="K16" s="15">
-        <f>I16+J16</f>
-        <v>2240000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2000000</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="24">
-        <f>$F$4*H17</f>
+        <f>$F$6*H17</f>
         <v>-2400000</v>
       </c>
-      <c r="F17" s="24">
-        <f>F5</f>
+      <c r="F17" s="2"/>
+      <c r="G17" s="18">
+        <f t="shared" si="2"/>
+        <v>7200000</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="3"/>
+        <v>2800000</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="4"/>
+        <v>-560000</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="5"/>
+        <v>2240000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="12">
+        <v>5</v>
+      </c>
+      <c r="C18" s="24">
+        <f t="shared" si="1"/>
+        <v>-2000000</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="24">
+        <f t="shared" ref="E18" si="6">$F$6*H18</f>
+        <v>-2400000</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="18">
+        <f t="shared" si="2"/>
+        <v>7200000</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="3"/>
+        <v>2800000</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="4"/>
+        <v>-560000</v>
+      </c>
+      <c r="K18" s="15">
+        <f>I18+J18</f>
+        <v>2240000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="12">
+        <v>6</v>
+      </c>
+      <c r="C19" s="24">
+        <f t="shared" si="1"/>
+        <v>-2000000</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="24">
+        <f>$F$6*H19</f>
+        <v>-2400000</v>
+      </c>
+      <c r="F19" s="24">
+        <f>F7</f>
         <v>40000</v>
       </c>
-      <c r="G17" s="18">
-        <f>H17*$J$3</f>
+      <c r="G19" s="18">
+        <f>H19*$J$5</f>
         <v>7200000</v>
       </c>
-      <c r="H17" s="14">
-        <f>C8</f>
+      <c r="H19" s="14">
+        <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="I17" s="15">
-        <f t="shared" si="2"/>
+      <c r="I19" s="15">
+        <f t="shared" si="3"/>
         <v>2840000</v>
       </c>
-      <c r="J17" s="15">
-        <f>MIN(0,I17*$J$4*-1)</f>
+      <c r="J19" s="15">
+        <f>MIN(0,I19*$J$6*-1)</f>
         <v>-568000</v>
       </c>
-      <c r="K17" s="15">
-        <f>I17+J17</f>
+      <c r="K19" s="15">
+        <f>I19+J19</f>
         <v>2272000</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+    <row r="20" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="20" t="s">
+    <row r="21" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F21" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K21" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="25">
-        <f>NPV(J6,K21:K26)</f>
+      <c r="M21" s="25">
+        <f>NPV(J8,K23:K28)</f>
         <v>3055979.2628655988</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="12">
+    <row r="22" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="12">
         <v>0</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="24">
+      <c r="C22" s="2"/>
+      <c r="D22" s="24">
+        <f>$G$9</f>
+        <v>-1200000</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="15">
+        <f>SUM(C22:G22)</f>
+        <v>-1200000</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15">
+        <f>I22</f>
+        <v>-1200000</v>
+      </c>
+      <c r="L22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="25">
+        <f>M21+K22</f>
+        <v>1855979.2628655988</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B23" s="12">
+        <v>1</v>
+      </c>
+      <c r="C23" s="24">
+        <f>$G$5</f>
+        <v>-1200000</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="24">
+        <f>$G$6*H23</f>
+        <v>-620000</v>
+      </c>
+      <c r="F23" s="24">
         <f>$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
+        <f>H23*$J$5</f>
+        <v>1800000</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" ref="H23:H28" si="7">C5</f>
+        <v>20000</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" ref="I23:I28" si="8">SUM(C23:G23)</f>
+        <v>-20000</v>
+      </c>
+      <c r="J23" s="15">
+        <f>MIN(0,I23*$J$6*-1)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <f>J23+I23</f>
+        <v>-20000</v>
+      </c>
+      <c r="L23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="33">
+        <f>IRR(K22:K28)</f>
+        <v>0.36199008491108953</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="12">
+        <v>2</v>
+      </c>
+      <c r="C24" s="24">
+        <f t="shared" ref="C24:C25" si="9">$G$5</f>
         <v>-1200000</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="15">
-        <f>SUM(C20:G20)</f>
+      <c r="D24" s="2"/>
+      <c r="E24" s="24">
+        <f t="shared" ref="E24:E25" si="10">$G$6*H24</f>
+        <v>-930000</v>
+      </c>
+      <c r="F24" s="24">
+        <f t="shared" ref="F24:F28" si="11">$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" ref="G24:G27" si="12">H24*$J$5</f>
+        <v>2700000</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="7"/>
+        <v>30000</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="8"/>
+        <v>570000</v>
+      </c>
+      <c r="J24" s="15">
+        <f>MIN(0,I24*$J$6*-1)</f>
+        <v>-114000</v>
+      </c>
+      <c r="K24" s="15">
+        <f>J24+I24</f>
+        <v>456000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
+        <v>3</v>
+      </c>
+      <c r="C25" s="24">
+        <f t="shared" si="9"/>
         <v>-1200000</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15">
-        <f>I20</f>
-        <v>-1200000</v>
-      </c>
-      <c r="L20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="25">
-        <f>M19+K20</f>
-        <v>1855979.2628655988</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="12">
-        <v>1</v>
-      </c>
-      <c r="C21" s="24">
-        <f>$G$3</f>
-        <v>-1200000</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="24">
-        <f>$G$4*H21</f>
-        <v>-620000</v>
-      </c>
-      <c r="F21" s="24">
-        <f>$G$5</f>
+      <c r="D25" s="24">
+        <f>$G$9*2</f>
+        <v>-2400000</v>
+      </c>
+      <c r="E25" s="24">
+        <f t="shared" si="10"/>
+        <v>-1550000</v>
+      </c>
+      <c r="F25" s="24">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G21" s="18">
-        <f>H21*$J$3</f>
-        <v>1800000</v>
-      </c>
-      <c r="H21" s="14">
-        <f>C3</f>
-        <v>20000</v>
-      </c>
-      <c r="I21" s="15">
-        <f t="shared" ref="I21:I26" si="6">SUM(C21:G21)</f>
-        <v>-20000</v>
-      </c>
-      <c r="J21" s="15">
-        <f>MIN(0,I21*$J$4*-1)</f>
+      <c r="G25" s="18">
+        <f t="shared" si="12"/>
+        <v>4500000</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="7"/>
+        <v>50000</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="8"/>
+        <v>-650000</v>
+      </c>
+      <c r="J25" s="15">
+        <f>MIN(0,I25*$J$6*-1)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="15">
-        <f>J21+I21</f>
-        <v>-20000</v>
-      </c>
-      <c r="L21" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="34">
-        <f>IRR(K20:K26)</f>
-        <v>0.36199008491108953</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="12">
-        <v>2</v>
-      </c>
-      <c r="C22" s="24">
-        <f t="shared" ref="C22:C23" si="7">$G$3</f>
-        <v>-1200000</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="24">
-        <f t="shared" ref="E22:E23" si="8">$G$4*H22</f>
-        <v>-930000</v>
-      </c>
-      <c r="F22" s="24">
-        <f t="shared" ref="F22:F26" si="9">$G$5</f>
+      <c r="K25" s="15">
+        <f t="shared" ref="K25:K28" si="13">J25+I25</f>
+        <v>-650000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="12">
+        <v>4</v>
+      </c>
+      <c r="C26" s="24">
+        <f>$G$5*2</f>
+        <v>-2400000</v>
+      </c>
+      <c r="E26" s="24">
+        <f>$G$6*H26</f>
+        <v>-2480000</v>
+      </c>
+      <c r="F26" s="24">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G22" s="18">
-        <f t="shared" ref="G22:G25" si="10">H22*$J$3</f>
-        <v>2700000</v>
-      </c>
-      <c r="H22" s="14">
-        <f>C4</f>
-        <v>30000</v>
-      </c>
-      <c r="I22" s="15">
-        <f t="shared" si="6"/>
-        <v>570000</v>
-      </c>
-      <c r="J22" s="15">
-        <f>MIN(0,I22*$J$4*-1)</f>
-        <v>-114000</v>
-      </c>
-      <c r="K22" s="15">
-        <f>J22+I22</f>
-        <v>456000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="12">
-        <v>3</v>
-      </c>
-      <c r="C23" s="24">
+      <c r="G26" s="18">
+        <f t="shared" si="12"/>
+        <v>7200000</v>
+      </c>
+      <c r="H26" s="14">
         <f t="shared" si="7"/>
-        <v>-1200000</v>
-      </c>
-      <c r="D23" s="24">
-        <f>$G$7*2</f>
+        <v>80000</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="8"/>
+        <v>2320000</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" ref="J26:J28" si="14">MIN(0,I26*$J$6*-1)</f>
+        <v>-464000</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="13"/>
+        <v>1856000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B27" s="12">
+        <v>5</v>
+      </c>
+      <c r="C27" s="24">
+        <f t="shared" ref="C27:C28" si="15">$G$5*2</f>
         <v>-2400000</v>
       </c>
-      <c r="E23" s="24">
+      <c r="D27" s="2"/>
+      <c r="E27" s="24">
+        <f>$G$6*H27</f>
+        <v>-2480000</v>
+      </c>
+      <c r="F27" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="12"/>
+        <v>7200000</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="7"/>
+        <v>80000</v>
+      </c>
+      <c r="I27" s="15">
         <f t="shared" si="8"/>
-        <v>-1550000</v>
-      </c>
-      <c r="F23" s="24">
-        <f t="shared" si="9"/>
+        <v>2320000</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="14"/>
+        <v>-464000</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="13"/>
+        <v>1856000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B28" s="12">
+        <v>6</v>
+      </c>
+      <c r="C28" s="24">
+        <f t="shared" si="15"/>
+        <v>-2400000</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="24">
+        <f>$G$6*H28</f>
+        <v>-2480000</v>
+      </c>
+      <c r="F28" s="24">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G23" s="18">
-        <f t="shared" si="10"/>
-        <v>4500000</v>
-      </c>
-      <c r="H23" s="14">
-        <f>C5</f>
-        <v>50000</v>
-      </c>
-      <c r="I23" s="15">
-        <f t="shared" si="6"/>
-        <v>-650000</v>
-      </c>
-      <c r="J23" s="15">
-        <f>MIN(0,I23*$J$4*-1)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" ref="K23:K26" si="11">J23+I23</f>
-        <v>-650000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="12">
-        <v>4</v>
-      </c>
-      <c r="C24" s="24">
-        <f>$G$3*2</f>
-        <v>-2400000</v>
-      </c>
-      <c r="E24" s="24">
-        <f>$G$4*H24</f>
-        <v>-2480000</v>
-      </c>
-      <c r="F24" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="18">
-        <f t="shared" si="10"/>
+      <c r="G28" s="18">
+        <f>H28*$J$5</f>
         <v>7200000</v>
       </c>
-      <c r="H24" s="14">
-        <f>C6</f>
+      <c r="H28" s="14">
+        <f t="shared" si="7"/>
         <v>80000</v>
       </c>
-      <c r="I24" s="15">
-        <f t="shared" si="6"/>
+      <c r="I28" s="15">
+        <f t="shared" si="8"/>
         <v>2320000</v>
       </c>
-      <c r="J24" s="15">
-        <f t="shared" ref="J24:J26" si="12">MIN(0,I24*$J$4*-1)</f>
+      <c r="J28" s="15">
+        <f t="shared" si="14"/>
         <v>-464000</v>
       </c>
-      <c r="K24" s="15">
-        <f t="shared" si="11"/>
+      <c r="K28" s="15">
+        <f t="shared" si="13"/>
         <v>1856000</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="12">
-        <v>5</v>
-      </c>
-      <c r="C25" s="24">
-        <f t="shared" ref="C25:C26" si="13">$G$3*2</f>
-        <v>-2400000</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="24">
-        <f>$G$4*H25</f>
-        <v>-2480000</v>
-      </c>
-      <c r="F25" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
-        <f t="shared" si="10"/>
-        <v>7200000</v>
-      </c>
-      <c r="H25" s="14">
-        <f>C7</f>
-        <v>80000</v>
-      </c>
-      <c r="I25" s="15">
-        <f t="shared" si="6"/>
-        <v>2320000</v>
-      </c>
-      <c r="J25" s="15">
-        <f t="shared" si="12"/>
-        <v>-464000</v>
-      </c>
-      <c r="K25" s="15">
-        <f t="shared" si="11"/>
-        <v>1856000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="12">
-        <v>6</v>
-      </c>
-      <c r="C26" s="24">
-        <f t="shared" si="13"/>
-        <v>-2400000</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="24">
-        <f>$G$4*H26</f>
-        <v>-2480000</v>
-      </c>
-      <c r="F26" s="24">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="18">
-        <f>H26*$J$3</f>
-        <v>7200000</v>
-      </c>
-      <c r="H26" s="14">
-        <f>C8</f>
-        <v>80000</v>
-      </c>
-      <c r="I26" s="15">
-        <f t="shared" si="6"/>
-        <v>2320000</v>
-      </c>
-      <c r="J26" s="15">
-        <f t="shared" si="12"/>
-        <v>-464000</v>
-      </c>
-      <c r="K26" s="15">
-        <f t="shared" si="11"/>
-        <v>1856000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="8.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C28" s="49" t="s">
+    <row r="29" spans="2:13" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-    </row>
-    <row r="33" spans="3:6" ht="61.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="55"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
-    </row>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
+    </row>
+    <row r="31" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
+    </row>
+    <row r="32" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
+    </row>
+    <row r="33" spans="3:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
+    </row>
+    <row r="34" spans="3:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68"/>
+    </row>
+    <row r="35" spans="3:6" customFormat="1" ht="61.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="69"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="71"/>
+    </row>
+    <row r="36" spans="3:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="3:6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C28:F33"/>
+    <mergeCell ref="C30:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2345,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB1DD7-39B3-4B02-8727-4912941BB3F7}">
-  <dimension ref="B2:N30"/>
+  <dimension ref="B2:N33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -2364,285 +2413,211 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="15">
-        <v>-12000</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="27">
-        <v>-550</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="15">
-        <v>-20000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="27">
-        <v>-800</v>
-      </c>
-      <c r="F4" s="11">
-        <v>6</v>
-      </c>
-      <c r="G4" s="11">
-        <v>10</v>
+    <row r="2" spans="2:11" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="B2" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="15">
-        <v>-450</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="27">
-        <v>-1500</v>
-      </c>
-      <c r="F5" s="11">
-        <v>11</v>
-      </c>
-      <c r="G5" s="11">
-        <v>15</v>
+        <v>-12000</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="27">
-        <v>-2500</v>
+        <v>39</v>
+      </c>
+      <c r="E6" s="26">
+        <v>-550</v>
       </c>
       <c r="F6" s="11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G6" s="11">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="15">
+        <v>-20000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="26">
+        <v>-800</v>
+      </c>
+      <c r="F7" s="11">
+        <v>6</v>
+      </c>
+      <c r="G7" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="15">
+        <v>-450</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="26">
+        <v>-1500</v>
+      </c>
+      <c r="F8" s="11">
+        <v>11</v>
+      </c>
+      <c r="G8" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="26">
+        <v>-2500</v>
+      </c>
+      <c r="F9" s="11">
+        <v>16</v>
+      </c>
+      <c r="G9" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="24">
-        <f>C2</f>
-        <v>-12000</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="24">
-        <f>SUM(C10:F10)</f>
-        <v>-12000</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="24">
-        <f>$C$4</f>
-        <v>-20000</v>
-      </c>
-      <c r="E11" s="24">
-        <f>$C$5</f>
-        <v>-450</v>
-      </c>
-      <c r="F11" s="24">
-        <f>$E$3</f>
-        <v>-550</v>
-      </c>
-      <c r="G11" s="24">
-        <f t="shared" ref="G11:G30" si="0">SUM(C11:F11)</f>
-        <v>-21000</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="9">
-        <f>NPV(C6,G11:G15)</f>
-        <v>-86104.146154899456</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="24">
-        <f t="shared" ref="D12:D30" si="1">$C$4</f>
-        <v>-20000</v>
-      </c>
-      <c r="E12" s="24">
-        <f t="shared" ref="E12:E30" si="2">$C$5</f>
-        <v>-450</v>
-      </c>
-      <c r="F12" s="24">
-        <f t="shared" ref="F12:F15" si="3">$E$3</f>
-        <v>-550</v>
-      </c>
-      <c r="G12" s="24">
-        <f t="shared" si="0"/>
-        <v>-21000</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="9">
-        <f>J11+G10</f>
-        <v>-98104.146154899456</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="24">
-        <f t="shared" si="1"/>
-        <v>-20000</v>
-      </c>
-      <c r="E13" s="24">
-        <f t="shared" si="2"/>
-        <v>-450</v>
-      </c>
-      <c r="F13" s="24">
-        <f t="shared" si="3"/>
-        <v>-550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C13" s="24">
+        <f>C5</f>
+        <v>-12000</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="24">
-        <f t="shared" si="0"/>
-        <v>-21000</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="9">
-        <f>-PMT(C6,B15,J12)</f>
-        <v>-23926.68833329649</v>
-      </c>
-      <c r="K13" t="s">
-        <v>12</v>
+        <f>SUM(C13:F13)</f>
+        <v>-12000</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="24">
-        <f t="shared" si="1"/>
+        <f>$C$7</f>
         <v>-20000</v>
       </c>
       <c r="E14" s="24">
-        <f t="shared" si="2"/>
+        <f>$C$8</f>
         <v>-450</v>
       </c>
       <c r="F14" s="24">
-        <f t="shared" si="3"/>
+        <f>$E$6</f>
         <v>-550</v>
       </c>
       <c r="G14" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G14:G33" si="0">SUM(C14:F14)</f>
         <v>-21000</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="9">
+        <f>NPV(C9,G14:G18)</f>
+        <v>-86104.146154899456</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="24">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D15:D33" si="1">$C$7</f>
         <v>-20000</v>
       </c>
       <c r="E15" s="24">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E15:E33" si="2">$C$8</f>
         <v>-450</v>
       </c>
       <c r="F15" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F15:F18" si="3">$E$6</f>
         <v>-550</v>
       </c>
       <c r="G15" s="24">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>47</v>
+      <c r="I15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="9">
+        <f>J14+G13</f>
+        <v>-98104.146154899456</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="24">
@@ -2654,24 +2629,27 @@
         <v>-450</v>
       </c>
       <c r="F16" s="24">
-        <f>$E$4</f>
-        <v>-800</v>
+        <f t="shared" si="3"/>
+        <v>-550</v>
       </c>
       <c r="G16" s="24">
         <f t="shared" si="0"/>
-        <v>-21250</v>
+        <v>-21000</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J16" s="9">
-        <f>NPV(C6,G11:G20)</f>
-        <v>-148226.05838583087</v>
+        <f>-PMT(C9,B18,J15)</f>
+        <v>-23926.68833329649</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="24">
@@ -2683,24 +2661,17 @@
         <v>-450</v>
       </c>
       <c r="F17" s="24">
-        <f t="shared" ref="F17:F20" si="4">$E$4</f>
-        <v>-800</v>
+        <f t="shared" si="3"/>
+        <v>-550</v>
       </c>
       <c r="G17" s="24">
         <f t="shared" si="0"/>
-        <v>-21250</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="9">
-        <f>J16+G10</f>
-        <v>-160226.05838583087</v>
+        <v>-21000</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="24">
@@ -2712,344 +2683,427 @@
         <v>-450</v>
       </c>
       <c r="F18" s="24">
+        <f t="shared" si="3"/>
+        <v>-550</v>
+      </c>
+      <c r="G18" s="24">
+        <f t="shared" si="0"/>
+        <v>-21000</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="24">
+        <f t="shared" si="1"/>
+        <v>-20000</v>
+      </c>
+      <c r="E19" s="24">
+        <f t="shared" si="2"/>
+        <v>-450</v>
+      </c>
+      <c r="F19" s="24">
+        <f>$E$7</f>
+        <v>-800</v>
+      </c>
+      <c r="G19" s="24">
+        <f t="shared" si="0"/>
+        <v>-21250</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="9">
+        <f>NPV(C9,G14:G23)</f>
+        <v>-148226.05838583087</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="24">
+        <f t="shared" si="1"/>
+        <v>-20000</v>
+      </c>
+      <c r="E20" s="24">
+        <f t="shared" si="2"/>
+        <v>-450</v>
+      </c>
+      <c r="F20" s="24">
+        <f t="shared" ref="F20:F23" si="4">$E$7</f>
+        <v>-800</v>
+      </c>
+      <c r="G20" s="24">
+        <f t="shared" si="0"/>
+        <v>-21250</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="9">
+        <f>J19+G13</f>
+        <v>-160226.05838583087</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="24">
+        <f t="shared" si="1"/>
+        <v>-20000</v>
+      </c>
+      <c r="E21" s="24">
+        <f t="shared" si="2"/>
+        <v>-450</v>
+      </c>
+      <c r="F21" s="24">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G21" s="24">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="9">
-        <f>-PMT(C6,B20,J17)</f>
+      <c r="J21" s="9">
+        <f>-PMT(C9,B23,J20)</f>
         <v>-22812.586064823532</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
         <v>9</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="24">
+      <c r="C22" s="2"/>
+      <c r="D22" s="24">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E22" s="24">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F22" s="24">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G22" s="24">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M22" t="s">
         <v>60</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
         <v>10</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="24">
+      <c r="C23" s="2"/>
+      <c r="D23" s="24">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E23" s="24">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F23" s="24">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G23" s="24">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
         <v>11</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="24">
+      <c r="C24" s="2"/>
+      <c r="D24" s="24">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E24" s="24">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F21" s="24">
-        <f>$E$5</f>
+      <c r="F24" s="24">
+        <f>$E$8</f>
         <v>-1500</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G24" s="24">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="9">
-        <f>NPV(C6,G11:G25)</f>
+      <c r="J24" s="9">
+        <f>NPV(C9,G14:G28)</f>
         <v>-193977.15597450593</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
         <v>12</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="24">
+      <c r="C25" s="2"/>
+      <c r="D25" s="24">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E25" s="24">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F22" s="24">
-        <f t="shared" ref="F22:F25" si="5">$E$5</f>
+      <c r="F25" s="24">
+        <f t="shared" ref="F25:F28" si="5">$E$8</f>
         <v>-1500</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G25" s="24">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="9">
-        <f>J21+G10</f>
+      <c r="J25" s="9">
+        <f>J24+G13</f>
         <v>-205977.15597450593</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
         <v>13</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="24">
+      <c r="C26" s="2"/>
+      <c r="D26" s="24">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E26" s="24">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F26" s="24">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G26" s="24">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="9">
-        <f>-PMT(C6,B25,J22)</f>
+      <c r="J26" s="9">
+        <f>-PMT(C9,B28,J25)</f>
         <v>-22615.184537201567</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
         <v>14</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="24">
+      <c r="C27" s="2"/>
+      <c r="D27" s="24">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E27" s="24">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F27" s="24">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G27" s="24">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
         <v>15</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="24">
+      <c r="C28" s="2"/>
+      <c r="D28" s="24">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E28" s="24">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F28" s="24">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G28" s="24">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
         <v>16</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="24">
+      <c r="C29" s="2"/>
+      <c r="D29" s="24">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E29" s="24">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F26" s="24">
-        <f>$E$6</f>
+      <c r="F29" s="24">
+        <f>$E$9</f>
         <v>-2500</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G29" s="24">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="9">
-        <f>NPV(C6,G11:G30)</f>
+      <c r="J29" s="9">
+        <f>NPV(C9,G14:G33)</f>
         <v>-228083.15649184689</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
         <v>17</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="24">
+      <c r="C30" s="2"/>
+      <c r="D30" s="24">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E30" s="24">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F27" s="24">
-        <f t="shared" ref="F27:F30" si="6">$E$6</f>
+      <c r="F30" s="24">
+        <f t="shared" ref="F30:F33" si="6">$E$9</f>
         <v>-2500</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G30" s="24">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="9">
-        <f>J26+G10</f>
+      <c r="J30" s="9">
+        <f>J29+G13</f>
         <v>-240083.15649184689</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
         <v>18</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="24">
+      <c r="C31" s="2"/>
+      <c r="D31" s="24">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E31" s="24">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F31" s="24">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G31" s="24">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="9">
-        <f>-PMT(C6,B30,J27)</f>
+      <c r="J31" s="9">
+        <f>-PMT(C9,B33,J30)</f>
         <v>-22662.151562941341</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
         <v>19</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="24">
+      <c r="C32" s="2"/>
+      <c r="D32" s="24">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E32" s="24">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F32" s="24">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G32" s="24">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
         <v>20</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="24">
+      <c r="C33" s="2"/>
+      <c r="D33" s="24">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E33" s="24">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F33" s="24">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G33" s="24">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
@@ -3062,10 +3116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3719ECC-99D3-421D-96A2-DB3C0A57A488}">
-  <dimension ref="B2:Q50"/>
+  <dimension ref="B2:R50"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:Q5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -3073,401 +3127,416 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:18" ht="28.2" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>125000</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="I5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="K5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="L5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="M5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="N5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="O5" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="P5" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="Q5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="R5" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H6" s="2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J6" s="9">
         <f>SUM(C15:C18)</f>
         <v>-565000</v>
       </c>
-      <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="9">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9">
         <v>300000</v>
       </c>
-      <c r="O6" s="9">
+      <c r="P6" s="9">
         <f>C36</f>
         <v>15000</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9">
-        <f>SUM(I6:P6)</f>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9">
+        <f>SUM(J6:Q6)</f>
         <v>-250000</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="2">
+      <c r="E7" s="76"/>
+      <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="9">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9">
         <f>D9*C25*365</f>
         <v>-131400</v>
       </c>
-      <c r="L7" s="9">
+      <c r="M7" s="9">
         <f>$C$23</f>
         <v>-20000</v>
       </c>
-      <c r="M7" s="9">
-        <f>D9*F9*365</f>
+      <c r="N7" s="9">
+        <f>D9*G9*365</f>
         <v>328500</v>
       </c>
-      <c r="N7" s="9">
-        <f>PMT($C$34,$H$11,$N$6)</f>
+      <c r="O7" s="9">
+        <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9">
         <f>C46</f>
         <v>-3108</v>
       </c>
-      <c r="Q7" s="9">
-        <f t="shared" ref="Q7:Q11" si="0">SUM(I7:P7)</f>
+      <c r="R7" s="9">
+        <f t="shared" ref="R7:R11" si="0">SUM(J7:Q7)</f>
         <v>78058.647461563945</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="76"/>
+      <c r="F8" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="G8" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>2</v>
       </c>
-      <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="9">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9">
         <f>D9*C26*365</f>
         <v>-131400</v>
       </c>
-      <c r="L8" s="9">
-        <f t="shared" ref="L8:L11" si="1">$C$23</f>
+      <c r="M8" s="9">
+        <f t="shared" ref="M8:M11" si="1">$C$23</f>
         <v>-20000</v>
       </c>
-      <c r="M8" s="9">
-        <f>F9*D9*365</f>
+      <c r="N8" s="9">
+        <f>G9*D9*365</f>
         <v>328500</v>
       </c>
-      <c r="N8" s="9">
-        <f t="shared" ref="N8:N11" si="2">PMT($C$34,$H$11,$N$6)</f>
+      <c r="O8" s="9">
+        <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9">
-        <f t="shared" ref="P8:P11" si="3">C47</f>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9">
+        <f t="shared" ref="Q8:Q11" si="2">C47</f>
         <v>-4014</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="R8" s="9">
         <f t="shared" si="0"/>
         <v>77152.647461563945</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="41">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="75">
         <v>30</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="77"/>
+      <c r="F9" s="72">
         <v>2</v>
       </c>
-      <c r="F9" s="15">
+      <c r="G9" s="73">
         <v>30</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>3</v>
       </c>
-      <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="9">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9">
         <f>D10*C27*365</f>
         <v>-109500</v>
       </c>
-      <c r="L9" s="9">
+      <c r="M9" s="9">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="M9" s="9">
-        <f>D10*F10*365</f>
+      <c r="N9" s="9">
+        <f>D10*G10*365</f>
         <v>456250</v>
       </c>
-      <c r="N9" s="9">
-        <f t="shared" si="2"/>
+      <c r="O9" s="9">
+        <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9">
-        <f t="shared" si="3"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9">
+        <f t="shared" si="2"/>
         <v>-23041</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="R9" s="9">
         <f t="shared" si="0"/>
         <v>207775.64746156393</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="75">
         <v>25</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="77"/>
+      <c r="F10" s="72">
         <v>2</v>
       </c>
-      <c r="F10" s="15">
+      <c r="G10" s="73">
         <v>50</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>4</v>
       </c>
-      <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9">
         <f>D10*C28*365</f>
         <v>-91250</v>
       </c>
-      <c r="L10" s="9">
+      <c r="M10" s="9">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="M10" s="9">
-        <f>D10*F10*365</f>
+      <c r="N10" s="9">
+        <f>D10*G10*365</f>
         <v>456250</v>
       </c>
-      <c r="N10" s="9">
-        <f t="shared" si="2"/>
+      <c r="O10" s="9">
+        <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9">
-        <f t="shared" si="3"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9">
+        <f t="shared" si="2"/>
         <v>-26492</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="R10" s="9">
         <f t="shared" si="0"/>
         <v>222574.64746156393</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="75">
         <v>35</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="77"/>
+      <c r="F11" s="72">
         <v>1</v>
       </c>
-      <c r="F11" s="15">
+      <c r="G11" s="73">
         <v>20</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>5</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9">
         <f>-0.1*(C15+C17+C18)</f>
         <v>54000</v>
       </c>
-      <c r="K11" s="9">
+      <c r="L11" s="9">
         <f>D11*C29*365</f>
         <v>-102200</v>
       </c>
-      <c r="L11" s="9">
+      <c r="M11" s="9">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="M11" s="9">
-        <f>D11*F11*365</f>
+      <c r="N11" s="9">
+        <f>D11*G11*365</f>
         <v>255500</v>
       </c>
-      <c r="N11" s="9">
-        <f t="shared" si="2"/>
+      <c r="O11" s="9">
+        <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="O11" s="9">
+      <c r="P11" s="9">
         <f>-C36</f>
         <v>-15000</v>
       </c>
-      <c r="P11" s="9">
-        <f t="shared" si="3"/>
+      <c r="Q11" s="9">
+        <f t="shared" si="2"/>
         <v>-2577</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="R11" s="9">
         <f t="shared" si="0"/>
         <v>73789.647461563945</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="P13" t="s">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E12" s="76"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E13" s="76"/>
+      <c r="Q13" t="s">
         <v>9</v>
       </c>
-      <c r="Q13" s="25">
-        <f>NPV(C41,Q7:Q11)</f>
+      <c r="R13" s="25">
+        <f>NPV(C41,R7:R11)</f>
         <v>426775.70454910013</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="P14" t="s">
+      <c r="E14" s="76"/>
+      <c r="Q14" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="25">
-        <f>Q13+Q6</f>
+      <c r="R14" s="25">
+        <f>R13+R6</f>
         <v>176775.70454910013</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <v>-300000</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E15" s="76"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="37">
         <v>-25000</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>57</v>
       </c>
-      <c r="Q16" s="34">
-        <f>IRR(Q6:Q11)</f>
+      <c r="R16" s="33">
+        <f>IRR(R6:R11)</f>
         <v>0.38450784697364293</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="38">
         <f>-45000*2</f>
         <v>-90000</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="38">
         <v>-150000</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="40">
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C21" s="39"/>
-    </row>
-    <row r="22" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="38"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="39"/>
-    </row>
-    <row r="23" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="38">
         <v>-20000</v>
       </c>
       <c r="D23" t="s">
@@ -3478,47 +3547,47 @@
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="42">
         <v>-12</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="42">
         <v>-12</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="42">
         <v>-12</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="42">
         <v>-10</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>5</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="42">
         <v>-8</v>
       </c>
     </row>
@@ -3531,7 +3600,7 @@
       <c r="B33" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="37">
         <v>300000</v>
       </c>
     </row>
@@ -3539,7 +3608,7 @@
       <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="39">
         <v>0.18</v>
       </c>
     </row>
@@ -3547,7 +3616,7 @@
       <c r="B36" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="37">
         <v>15000</v>
       </c>
       <c r="D36" t="s">
@@ -3558,7 +3627,7 @@
       <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3571,7 +3640,7 @@
       <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="39">
         <v>0.15</v>
       </c>
     </row>
@@ -3635,179 +3704,185 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192610D1-0A17-4CF5-883E-744262988952}">
-  <dimension ref="B3:K11"/>
+  <dimension ref="B2:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="2" spans="2:12" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="B2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="D4" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E4" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="I4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="K4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="13">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="19">
         <v>0</v>
       </c>
-      <c r="C4" s="59">
+      <c r="D5" s="47">
         <v>-1100000</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6">
+      <c r="E5" s="48"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6">
         <v>600000</v>
       </c>
-      <c r="H4" s="61">
-        <f>SUM(C4:G4)</f>
+      <c r="I5" s="49">
+        <f>SUM(D5:H5)</f>
         <v>-500000</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="61">
-        <f>H4+I4</f>
+      <c r="J5" s="4"/>
+      <c r="K5" s="49">
+        <f>I5+J5</f>
         <v>-500000</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="13">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="19">
         <v>1</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="6">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="6">
         <v>-60000</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G6" s="6">
         <v>950000</v>
       </c>
-      <c r="G5" s="62">
-        <f>G9</f>
+      <c r="H6" s="50">
+        <f>H10</f>
         <v>-369069.76744186052</v>
       </c>
-      <c r="H5" s="61">
-        <f t="shared" ref="H5" si="0">SUM(C5:G5)</f>
+      <c r="I6" s="49">
+        <f t="shared" ref="I6" si="0">SUM(D6:H6)</f>
         <v>520930.23255813948</v>
       </c>
-      <c r="I5" s="6">
-        <f>MIN(0,I8*H5*-1)</f>
+      <c r="J6" s="6">
+        <f>MIN(0,J9*I6*-1)</f>
         <v>-130232.55813953487</v>
       </c>
-      <c r="J5" s="61">
-        <f>I5+H5</f>
+      <c r="K6" s="49">
+        <f>J6+I6</f>
         <v>390697.67441860458</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="13">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="19">
         <v>2</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="59">
+      <c r="D7" s="48"/>
+      <c r="E7" s="47">
         <v>350000</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F7" s="6">
         <v>-80000</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G7" s="6">
         <v>950000</v>
       </c>
-      <c r="G6" s="62">
-        <f>G9</f>
+      <c r="H7" s="50">
+        <f>H10</f>
         <v>-369069.76744186052</v>
       </c>
-      <c r="H6" s="61">
-        <f>SUM(C6:G6)</f>
+      <c r="I7" s="49">
+        <f>SUM(D7:H7)</f>
         <v>850930.23255813948</v>
       </c>
-      <c r="I6" s="6">
-        <f>MIN(0,I8*H6*-1)</f>
+      <c r="J7" s="6">
+        <f>MIN(0,J9*I7*-1)</f>
         <v>-212732.55813953487</v>
       </c>
-      <c r="J6" s="61">
-        <f>I6+H6</f>
+      <c r="K7" s="49">
+        <f>J7+I7</f>
         <v>638197.67441860458</v>
       </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F8" s="47" t="s">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G9" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="63">
+      <c r="H9" s="51">
         <v>0.15</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="I9" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="63">
+      <c r="J9" s="51">
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F9" s="47" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G10" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="64">
-        <f>PMT(G8,B6,G4)</f>
+      <c r="H10" s="52">
+        <f>PMT(H9,C7,H5)</f>
         <v>-369069.76744186052</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="66"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="F11" s="47" t="s">
+      <c r="I10" s="45"/>
+      <c r="J10" s="54"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G12" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="67">
-        <f>IRR(J4:J6)</f>
+      <c r="H12" s="55">
+        <f>IRR(K5:K7)</f>
         <v>0.5861222942225115</v>
       </c>
     </row>
@@ -3821,12 +3896,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33222DB8-DDDF-4338-8B69-318A6255ED1A}">
   <dimension ref="B2:N83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.5546875" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -3840,15 +3916,15 @@
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="C2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="C4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="10" t="s">
         <v>104</v>
       </c>
@@ -3926,7 +4002,7 @@
       <c r="B7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="D7" t="s">
@@ -3966,7 +4042,7 @@
       <c r="B8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>8.9899999999999994E-2</v>
       </c>
       <c r="D8" t="s">
@@ -3991,8 +4067,8 @@
         <f t="shared" si="3"/>
         <v>-12780.262354727172</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30" t="s">
+      <c r="K8" s="29"/>
+      <c r="L8" s="29" t="s">
         <v>111</v>
       </c>
       <c r="M8" s="25">
@@ -4029,15 +4105,15 @@
         <f t="shared" si="3"/>
         <v>-12771.732510534672</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="37"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="36"/>
     </row>
     <row r="10" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="34">
         <f>C8/C9</f>
         <v>7.4916666666666664E-3</v>
       </c>
@@ -4060,18 +4136,18 @@
         <f t="shared" si="3"/>
         <v>-12763.13876359276</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="37"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="44">
         <v>0.16</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="43"/>
       <c r="F11">
         <v>6</v>
       </c>
@@ -4091,9 +4167,9 @@
         <f t="shared" si="3"/>
         <v>-12754.480635163342</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="37"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
@@ -4102,7 +4178,7 @@
       <c r="C12" s="2">
         <v>72</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="25"/>
       <c r="F12">
         <v>7</v>
@@ -4123,13 +4199,13 @@
         <f t="shared" si="3"/>
         <v>-12745.757642921775</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="37"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="36"/>
     </row>
     <row r="13" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="25"/>
       <c r="F13">
         <v>8</v>
@@ -4150,13 +4226,13 @@
         <f t="shared" si="3"/>
         <v>-12736.969300929999</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="37"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="25"/>
       <c r="F14">
         <v>9</v>
@@ -4177,13 +4253,13 @@
         <f t="shared" si="3"/>
         <v>-12728.115119609465</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="37"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="25"/>
       <c r="F15">
         <v>10</v>
@@ -4204,13 +4280,13 @@
         <f t="shared" si="3"/>
         <v>-12719.194605713874</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="37"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="25"/>
       <c r="F16">
         <v>11</v>
@@ -4231,13 +4307,13 @@
         <f t="shared" si="3"/>
         <v>-12710.207262301679</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="37"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="25"/>
       <c r="F17">
         <v>12</v>
@@ -4258,13 +4334,13 @@
         <f t="shared" si="3"/>
         <v>-12701.152588708423</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="37"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="25"/>
       <c r="F18">
         <v>13</v>
@@ -4285,13 +4361,13 @@
         <f t="shared" si="3"/>
         <v>-12692.030080518831</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="37"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="25"/>
       <c r="F19">
         <v>14</v>
@@ -4312,13 +4388,13 @@
         <f t="shared" si="3"/>
         <v>-12682.839229538717</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="37"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="25"/>
       <c r="F20">
         <v>15</v>
@@ -4339,13 +4415,13 @@
         <f t="shared" si="3"/>
         <v>-12673.579523766677</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="37"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="36"/>
     </row>
     <row r="21" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="25"/>
       <c r="F21">
         <v>16</v>
@@ -4366,13 +4442,13 @@
         <f t="shared" si="3"/>
         <v>-12664.250447365561</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="37"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="36"/>
     </row>
     <row r="22" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="25"/>
       <c r="F22">
         <v>17</v>
@@ -4393,13 +4469,13 @@
         <f t="shared" si="3"/>
         <v>-12654.851480633744</v>
       </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="37"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="36"/>
     </row>
     <row r="23" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="25"/>
       <c r="F23">
         <v>18</v>
@@ -4420,13 +4496,13 @@
         <f t="shared" si="3"/>
         <v>-12645.382099976156</v>
       </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="37"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="36"/>
     </row>
     <row r="24" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="25"/>
       <c r="F24">
         <v>19</v>
@@ -4447,13 +4523,13 @@
         <f t="shared" si="3"/>
         <v>-12635.841777875146</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="37"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="36"/>
     </row>
     <row r="25" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="25"/>
       <c r="F25">
         <v>20</v>
@@ -4474,13 +4550,13 @@
         <f t="shared" si="3"/>
         <v>-12626.229982861059</v>
       </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="37"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="36"/>
     </row>
     <row r="26" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="25"/>
       <c r="F26">
         <v>21</v>
@@ -4501,13 +4577,13 @@
         <f t="shared" si="3"/>
         <v>-12616.546179482659</v>
       </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="37"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="25"/>
       <c r="F27">
         <v>22</v>
@@ -4528,13 +4604,13 @@
         <f t="shared" si="3"/>
         <v>-12606.789828277286</v>
       </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="37"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="36"/>
     </row>
     <row r="28" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="25"/>
       <c r="F28">
         <v>23</v>
@@ -4555,13 +4631,13 @@
         <f t="shared" si="3"/>
         <v>-12596.960385740796</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="37"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="36"/>
     </row>
     <row r="29" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="25"/>
       <c r="F29">
         <v>24</v>
@@ -4582,13 +4658,13 @@
         <f t="shared" si="3"/>
         <v>-12587.057304297305</v>
       </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="37"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="36"/>
     </row>
     <row r="30" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="25"/>
       <c r="F30">
         <v>25</v>
@@ -4609,13 +4685,13 @@
         <f t="shared" si="3"/>
         <v>-12577.080032268666</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="37"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="36"/>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="25"/>
       <c r="F31">
         <v>26</v>
@@ -4636,13 +4712,13 @@
         <f t="shared" si="3"/>
         <v>-12567.028013843745</v>
       </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="37"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="36"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="25"/>
       <c r="F32">
         <v>27</v>
@@ -4663,13 +4739,13 @@
         <f t="shared" si="3"/>
         <v>-12556.900689047457</v>
       </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="37"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="36"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
       <c r="E33" s="25"/>
       <c r="F33">
         <v>28</v>
@@ -4690,13 +4766,13 @@
         <f t="shared" si="3"/>
         <v>-12546.697493709571</v>
       </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="37"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="36"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="25"/>
       <c r="F34">
         <v>29</v>
@@ -4717,13 +4793,13 @@
         <f t="shared" si="3"/>
         <v>-12536.417859433277</v>
       </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="37"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="36"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="25"/>
       <c r="F35">
         <v>30</v>
@@ -4744,13 +4820,13 @@
         <f t="shared" si="3"/>
         <v>-12526.061213563533</v>
       </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="37"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="36"/>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="25"/>
       <c r="F36">
         <v>31</v>
@@ -4771,13 +4847,13 @@
         <f t="shared" si="3"/>
         <v>-12515.626979155148</v>
       </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="37"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="36"/>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="25"/>
       <c r="F37">
         <v>32</v>
@@ -4798,13 +4874,13 @@
         <f t="shared" si="3"/>
         <v>-12505.11457494065</v>
       </c>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="37"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="36"/>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="25"/>
       <c r="F38">
         <v>33</v>
@@ -4825,13 +4901,13 @@
         <f t="shared" si="3"/>
         <v>-12494.523415297914</v>
       </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="37"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="36"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="25"/>
       <c r="F39">
         <v>34</v>
@@ -4852,13 +4928,13 @@
         <f t="shared" si="3"/>
         <v>-12483.852910217522</v>
       </c>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="37"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="36"/>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="25"/>
       <c r="F40">
         <v>35</v>
@@ -4879,13 +4955,13 @@
         <f t="shared" si="3"/>
         <v>-12473.1024652699</v>
       </c>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="37"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="36"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="25"/>
       <c r="F41">
         <v>36</v>
@@ -4906,13 +4982,13 @@
         <f t="shared" si="3"/>
         <v>-12462.271481572216</v>
       </c>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="37"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="36"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="25"/>
       <c r="F42">
         <v>37</v>
@@ -4933,13 +5009,13 @@
         <f t="shared" si="3"/>
         <v>-12451.359355754992</v>
       </c>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="37"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="36"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="25"/>
       <c r="F43">
         <v>38</v>
@@ -4960,13 +5036,13 @@
         <f t="shared" si="3"/>
         <v>-12440.365479928521</v>
       </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="37"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="36"/>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="25"/>
       <c r="F44">
         <v>39</v>
@@ -4987,13 +5063,13 @@
         <f t="shared" si="3"/>
         <v>-12429.289241648987</v>
       </c>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="37"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="36"/>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="25"/>
       <c r="F45">
         <v>40</v>
@@ -5014,13 +5090,13 @@
         <f t="shared" si="3"/>
         <v>-12418.130023884341</v>
       </c>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="37"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="36"/>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="25"/>
       <c r="F46">
         <v>41</v>
@@ -5041,13 +5117,13 @@
         <f t="shared" si="3"/>
         <v>-12406.887204979941</v>
       </c>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="37"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="36"/>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
       <c r="E47" s="25"/>
       <c r="F47">
         <v>42</v>
@@ -5068,13 +5144,13 @@
         <f t="shared" si="3"/>
         <v>-12395.560158623917</v>
       </c>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="37"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="36"/>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="25"/>
       <c r="F48">
         <v>43</v>
@@ -5095,13 +5171,13 @@
         <f t="shared" si="3"/>
         <v>-12384.148253812275</v>
       </c>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="37"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="36"/>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="25"/>
       <c r="F49">
         <v>44</v>
@@ -5122,13 +5198,13 @@
         <f t="shared" si="3"/>
         <v>-12372.650854813752</v>
       </c>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="37"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="36"/>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="25"/>
       <c r="F50">
         <v>45</v>
@@ -5149,13 +5225,13 @@
         <f t="shared" si="3"/>
         <v>-12361.067321134398</v>
       </c>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="37"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="36"/>
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
       <c r="E51" s="25"/>
       <c r="F51">
         <v>46</v>
@@ -5176,13 +5252,13 @@
         <f t="shared" si="3"/>
         <v>-12349.397007481895</v>
       </c>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="37"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="36"/>
     </row>
     <row r="52" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
       <c r="E52" s="25"/>
       <c r="F52">
         <v>47</v>
@@ -5203,13 +5279,13 @@
         <f t="shared" si="3"/>
         <v>-12337.639263729616</v>
       </c>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="37"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
       <c r="E53" s="25"/>
       <c r="F53">
         <v>48</v>
@@ -5230,13 +5306,13 @@
         <f t="shared" si="3"/>
         <v>-12325.79343488039</v>
       </c>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="37"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="36"/>
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
       <c r="E54" s="25"/>
       <c r="F54">
         <v>49</v>
@@ -5257,13 +5333,13 @@
         <f t="shared" si="3"/>
         <v>-12313.858861030036</v>
       </c>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="37"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
       <c r="E55" s="25"/>
       <c r="F55">
         <v>50</v>
@@ -5284,13 +5360,13 @@
         <f t="shared" si="3"/>
         <v>-12301.834877330584</v>
       </c>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="37"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="36"/>
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
       <c r="E56" s="25"/>
       <c r="F56">
         <v>51</v>
@@ -5311,13 +5387,13 @@
         <f t="shared" si="3"/>
         <v>-12289.720813953252</v>
       </c>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="37"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="36"/>
     </row>
     <row r="57" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="25"/>
       <c r="F57">
         <v>52</v>
@@ -5338,13 +5414,13 @@
         <f t="shared" si="3"/>
         <v>-12277.515996051119</v>
       </c>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="37"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="36"/>
     </row>
     <row r="58" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
       <c r="E58" s="25"/>
       <c r="F58">
         <v>53</v>
@@ -5365,13 +5441,13 @@
         <f t="shared" si="3"/>
         <v>-12265.219743721536</v>
       </c>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="37"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="36"/>
     </row>
     <row r="59" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
       <c r="E59" s="25"/>
       <c r="F59">
         <v>54</v>
@@ -5392,13 +5468,13 @@
         <f t="shared" si="3"/>
         <v>-12252.831371968248</v>
       </c>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="37"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="36"/>
     </row>
     <row r="60" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
       <c r="E60" s="25"/>
       <c r="F60">
         <v>55</v>
@@ -5419,13 +5495,13 @@
         <f t="shared" si="3"/>
         <v>-12240.350190663245</v>
       </c>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="37"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="36"/>
     </row>
     <row r="61" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="25"/>
       <c r="F61">
         <v>56</v>
@@ -5446,13 +5522,13 @@
         <f t="shared" si="3"/>
         <v>-12227.775504508299</v>
       </c>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="37"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="36"/>
     </row>
     <row r="62" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
       <c r="E62" s="25"/>
       <c r="F62">
         <v>57</v>
@@ -5473,13 +5549,13 @@
         <f t="shared" si="3"/>
         <v>-12215.10661299624</v>
       </c>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="37"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="36"/>
     </row>
     <row r="63" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
       <c r="E63" s="25"/>
       <c r="F63">
         <v>58</v>
@@ -5500,13 +5576,13 @@
         <f t="shared" si="3"/>
         <v>-12202.342810371936</v>
       </c>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="37"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="36"/>
     </row>
     <row r="64" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
       <c r="E64" s="25"/>
       <c r="F64">
         <v>59</v>
@@ -5527,13 +5603,13 @@
         <f t="shared" si="3"/>
         <v>-12189.483385592972</v>
       </c>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="37"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="36"/>
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
       <c r="E65" s="25"/>
       <c r="F65">
         <v>60</v>
@@ -5554,13 +5630,13 @@
         <f t="shared" si="3"/>
         <v>-12176.527622290041</v>
       </c>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="37"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="36"/>
     </row>
     <row r="66" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
       <c r="E66" s="25"/>
       <c r="F66">
         <v>61</v>
@@ -5581,13 +5657,13 @@
         <f t="shared" si="3"/>
         <v>-12163.474798727028</v>
       </c>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="37"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="36"/>
     </row>
     <row r="67" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
       <c r="E67" s="25"/>
       <c r="F67">
         <v>62</v>
@@ -5608,13 +5684,13 @@
         <f t="shared" si="3"/>
         <v>-12150.324187760825</v>
       </c>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="37"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="36"/>
     </row>
     <row r="68" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
       <c r="E68" s="25"/>
       <c r="F68">
         <v>63</v>
@@ -5635,13 +5711,13 @@
         <f t="shared" si="3"/>
         <v>-12137.075056800801</v>
       </c>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="37"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="36"/>
     </row>
     <row r="69" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
       <c r="E69" s="25"/>
       <c r="F69">
         <v>64</v>
@@ -5662,13 +5738,13 @@
         <f t="shared" si="3"/>
         <v>-12123.726667768</v>
       </c>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="37"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="36"/>
     </row>
     <row r="70" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
       <c r="E70" s="25"/>
       <c r="F70">
         <v>65</v>
@@ -5689,13 +5765,13 @@
         <f t="shared" si="3"/>
         <v>-12110.278277054027</v>
       </c>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="37"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="36"/>
     </row>
     <row r="71" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
       <c r="E71" s="25"/>
       <c r="F71">
         <v>66</v>
@@ -5716,13 +5792,13 @@
         <f t="shared" ref="J71:J77" si="7">H71+1.16*I71</f>
         <v>-12096.729135479623</v>
       </c>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="37"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="36"/>
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
       <c r="E72" s="25"/>
       <c r="F72">
         <v>67</v>
@@ -5743,13 +5819,13 @@
         <f t="shared" si="7"/>
         <v>-12083.078488252926</v>
       </c>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="37"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="36"/>
     </row>
     <row r="73" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
       <c r="E73" s="25"/>
       <c r="F73">
         <v>68</v>
@@ -5770,13 +5846,13 @@
         <f t="shared" si="7"/>
         <v>-12069.325574927421</v>
       </c>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="37"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="36"/>
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="25"/>
       <c r="F74">
         <v>69</v>
@@ -5797,13 +5873,13 @@
         <f t="shared" si="7"/>
         <v>-12055.469629359586</v>
       </c>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="37"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="36"/>
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
       <c r="E75" s="25"/>
       <c r="F75">
         <v>70</v>
@@ -5824,13 +5900,13 @@
         <f t="shared" si="7"/>
         <v>-12041.509879666204</v>
       </c>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="37"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="36"/>
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
       <c r="E76" s="25"/>
       <c r="F76">
         <v>71</v>
@@ -5851,13 +5927,13 @@
         <f t="shared" si="7"/>
         <v>-12027.445548181369</v>
       </c>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="37"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="36"/>
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="25"/>
       <c r="F77">
         <v>72</v>
@@ -5878,54 +5954,54 @@
         <f t="shared" si="7"/>
         <v>-12013.275851413162</v>
       </c>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="37"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="36"/>
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
       <c r="E78" s="25"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="30"/>
-      <c r="M78" s="37"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="36"/>
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="37"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="36"/>
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="37"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="36"/>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
     </row>

--- a/Semestres/Other/Proyectos de Inversión/Casos Finales/Casos.xlsx
+++ b/Semestres/Other/Proyectos de Inversión/Casos Finales/Casos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scago\Documents\GitHub\IA_School\Semestres\Other\Proyectos de Inversión\Casos Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA5523D-8767-4A8D-9AED-C9B1AD2A51E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAB281F-3E06-45DA-9D62-FF45A5224897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" activeTab="5" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <author>Sara Carolina Gómez Delgado</author>
   </authors>
   <commentList>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{D4D2A116-A551-438F-B111-240064D576AD}">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{D4D2A116-A551-438F-B111-240064D576AD}">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="122">
   <si>
     <t xml:space="preserve">Reemplazo vieja maquinaria fresadora </t>
   </si>
@@ -447,9 +447,6 @@
   </si>
   <si>
     <t>Valor total de los intereses</t>
-  </si>
-  <si>
-    <t>Basado en el VNA Total, se puede apreciar que utilizar máquinas pequeñas genera un ingreso mayor. La diferencia en tasa de rendimiento es significativamente mayor, incluso compensa el trabajo de añadir y comprar nuevas máquinas eventualmente. Cabe mencionar que irse por las máquinas pequeñas, representa un riesgo, debido a que se presume que habrá fondos suficientes para comprar máquinas extras dentro de 3 años. Sin embargo, el rendiemiento esperado soporta el riesgo</t>
   </si>
   <si>
     <r>
@@ -489,6 +486,41 @@
   <si>
     <t>Camión de Volteo</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Basado en el VNA Total, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se puede apreciar que utilizar máquinas pequeñas genera un ingreso mayor.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> La diferencia en tasa de rendimiento es significativamente mayor, incluso compensa el trabajo de añadir y comprar nuevas máquinas eventualmente. Cabe mencionar que irse por las máquinas pequeñas, representa un riesgo, debido a que se presume que habrá fondos suficientes para comprar máquinas extras dentro de 3 años. Sin embargo, el rendiemiento esperado soporta el riesgo.</t>
+    </r>
+  </si>
+  <si>
+    <t>some text</t>
+  </si>
+  <si>
+    <t>Inv. Inicial</t>
+  </si>
+  <si>
+    <t>Interés</t>
+  </si>
 </sst>
 </file>
 
@@ -502,7 +534,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.0_-;\-&quot;$&quot;* #,##0.0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,8 +593,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,12 +653,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF863F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFA3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAD2F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1FBFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CE8F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -633,17 +733,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -745,7 +834,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -766,15 +855,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,27 +866,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -812,7 +886,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -834,25 +907,13 @@
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -864,10 +925,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -879,15 +940,87 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -898,6 +1031,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9CE8F2"/>
+      <color rgb="FFE1FBFA"/>
+      <color rgb="FFB8F6F3"/>
+      <color rgb="FF9CF2EE"/>
+      <color rgb="FFFAD2F6"/>
+      <color rgb="FFEFA3F3"/>
+      <color rgb="FFEF863F"/>
       <color rgb="FFFFF9E7"/>
     </mruColors>
   </colors>
@@ -1213,17 +1353,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F780256-FAFA-45AD-BD21-220A3A64CB91}">
-  <dimension ref="B2:R20"/>
+  <dimension ref="B2:R19"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
     <col min="3" max="3" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
@@ -1241,7 +1381,7 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="8">
@@ -1486,7 +1626,7 @@
         <f t="shared" si="0"/>
         <v>258000</v>
       </c>
-      <c r="P12" s="45" t="s">
+      <c r="P12" s="35" t="s">
         <v>9</v>
       </c>
       <c r="Q12" s="9">
@@ -1495,7 +1635,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="P13" s="45" t="s">
+      <c r="P13" s="35" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="9">
@@ -1504,14 +1644,14 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="35" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="9">
         <f>NPV(C4,K7:K12)</f>
         <v>1123657.260461254</v>
       </c>
-      <c r="P14" s="45" t="s">
+      <c r="P14" s="35" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="9">
@@ -1523,7 +1663,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="35" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="9">
@@ -1531,8 +1671,8 @@
         <v>1075657.260461254</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J16" s="45" t="s">
+    <row r="16" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="35" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="9">
@@ -1543,25 +1683,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="7.55" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="3:10" ht="155.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
+    <row r="17" spans="3:10" ht="155.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H20" s="25"/>
+      <c r="H19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1570,15 +1709,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5ECF15-6822-4EE2-B3BE-6B316A49C0F5}">
-  <dimension ref="B1:M37"/>
+  <dimension ref="B2:M35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C30" sqref="C30:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="5.5546875" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
@@ -1587,802 +1726,800 @@
     <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.21875" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" customFormat="1" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:13" ht="28.2" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="12.55" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="82" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:13" customFormat="1" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12">
+    <row r="5" spans="2:13" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="89">
         <v>1</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="91">
         <v>20000</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="83">
         <v>-2000000</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="84">
         <v>-1200000</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="60">
+      <c r="J5" s="86">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
+    <row r="6" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="89">
         <v>2</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="91">
         <v>30000</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="83">
         <v>-30</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="84">
         <v>-31</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="61">
+      <c r="J6" s="87">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12">
+    <row r="7" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="89">
         <v>3</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="91">
         <v>50000</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="83">
         <v>40000</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="84">
         <v>0</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="64" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
+    <row r="8" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="89">
         <v>4</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="91">
         <v>80000</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8" s="87">
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="2:13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12">
+    <row r="9" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="89">
         <v>5</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="91">
         <v>80000</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="83">
         <v>-2500000</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="84">
         <v>-1200000</v>
       </c>
     </row>
-    <row r="10" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="89">
         <v>6</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="91">
         <v>80000</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="85" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="42">
         <f>NPV(J8,K14:K19)</f>
         <v>3541362.2682061666</v>
       </c>
     </row>
-    <row r="13" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="12">
+    <row r="13" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
         <v>0</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="24">
+      <c r="C13" s="73"/>
+      <c r="D13" s="74">
         <f>F9</f>
         <v>-2500000</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="15">
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="75">
         <f>SUM(C13:G13)</f>
         <v>-2500000</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15">
+      <c r="J13" s="75"/>
+      <c r="K13" s="75">
         <f>I13+J13</f>
         <v>-2500000</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="42">
         <f>M12+K13</f>
         <v>1041362.2682061666</v>
       </c>
     </row>
-    <row r="14" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="12">
+    <row r="14" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
         <v>1</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="74">
         <f>$F$5</f>
         <v>-2000000</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="24">
+      <c r="D14" s="73"/>
+      <c r="E14" s="74">
         <f>$F$6*H14</f>
         <v>-600000</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="18">
+      <c r="F14" s="73"/>
+      <c r="G14" s="76">
         <f>H14*$J$5</f>
         <v>1800000</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="77">
         <f t="shared" ref="H14:H19" si="0">C5</f>
         <v>20000</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="75">
         <f>SUM(C14:G14)</f>
         <v>-800000</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="75">
         <f>MIN(0,I14*$J$6*-1)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="75">
         <f>I14+J14</f>
         <v>-800000</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="81">
         <f>IRR(K13:K19)</f>
         <v>0.19140574831816526</v>
       </c>
     </row>
-    <row r="15" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="12">
+    <row r="15" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="16">
         <v>2</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="74">
         <f t="shared" ref="C15:C19" si="1">$F$5</f>
         <v>-2000000</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="24">
+      <c r="D15" s="73"/>
+      <c r="E15" s="74">
         <f>$F$6*H15</f>
         <v>-900000</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="18">
+      <c r="F15" s="73"/>
+      <c r="G15" s="76">
         <f t="shared" ref="G15:G18" si="2">H15*$J$5</f>
         <v>2700000</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="77">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="75">
         <f t="shared" ref="I15:I19" si="3">SUM(C15:G15)</f>
         <v>-200000</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="75">
         <f t="shared" ref="J15:J18" si="4">MIN(0,I15*$J$6*-1)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="75">
         <f t="shared" ref="K15:K17" si="5">I15+J15</f>
         <v>-200000</v>
       </c>
     </row>
-    <row r="16" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="12">
+    <row r="16" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="16">
         <v>3</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="74">
         <f t="shared" si="1"/>
         <v>-2000000</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="24">
+      <c r="D16" s="73"/>
+      <c r="E16" s="74">
         <f>$F$6*H16</f>
         <v>-1500000</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="18">
+      <c r="F16" s="73"/>
+      <c r="G16" s="76">
         <f t="shared" si="2"/>
         <v>4500000</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="77">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="75">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="75">
         <f t="shared" si="4"/>
         <v>-200000</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="75">
         <f t="shared" si="5"/>
         <v>800000</v>
       </c>
     </row>
-    <row r="17" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="12">
+    <row r="17" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="16">
         <v>4</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="74">
         <f t="shared" si="1"/>
         <v>-2000000</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="24">
+      <c r="D17" s="73"/>
+      <c r="E17" s="74">
         <f>$F$6*H17</f>
         <v>-2400000</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="18">
+      <c r="F17" s="73"/>
+      <c r="G17" s="76">
         <f t="shared" si="2"/>
         <v>7200000</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="77">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="75">
         <f t="shared" si="3"/>
         <v>2800000</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="75">
         <f t="shared" si="4"/>
         <v>-560000</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="75">
         <f t="shared" si="5"/>
         <v>2240000</v>
       </c>
     </row>
-    <row r="18" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="12">
+    <row r="18" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
         <v>5</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="74">
         <f t="shared" si="1"/>
         <v>-2000000</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="24">
+      <c r="D18" s="73"/>
+      <c r="E18" s="74">
         <f t="shared" ref="E18" si="6">$F$6*H18</f>
         <v>-2400000</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="18">
+      <c r="F18" s="73"/>
+      <c r="G18" s="76">
         <f t="shared" si="2"/>
         <v>7200000</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="77">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="75">
         <f t="shared" si="3"/>
         <v>2800000</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="75">
         <f t="shared" si="4"/>
         <v>-560000</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="75">
         <f>I18+J18</f>
         <v>2240000</v>
       </c>
     </row>
-    <row r="19" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="16">
         <v>6</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="74">
         <f t="shared" si="1"/>
         <v>-2000000</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="24">
+      <c r="D19" s="73"/>
+      <c r="E19" s="74">
         <f>$F$6*H19</f>
         <v>-2400000</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="74">
         <f>F7</f>
         <v>40000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="76">
         <f>H19*$J$5</f>
         <v>7200000</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="77">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="75">
         <f t="shared" si="3"/>
         <v>2840000</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="75">
         <f>MIN(0,I19*$J$6*-1)</f>
         <v>-568000</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="75">
         <f>I19+J19</f>
         <v>2272000</v>
       </c>
     </row>
-    <row r="20" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="42">
         <f>NPV(J8,K23:K28)</f>
         <v>3055979.2628655988</v>
       </c>
     </row>
-    <row r="22" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="12">
+    <row r="22" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="16">
         <v>0</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="24">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74">
         <f>$G$9</f>
         <v>-1200000</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="15">
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="75">
         <f>SUM(C22:G22)</f>
         <v>-1200000</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15">
+      <c r="J22" s="75"/>
+      <c r="K22" s="75">
         <f>I22</f>
         <v>-1200000</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="42">
         <f>M21+K22</f>
         <v>1855979.2628655988</v>
       </c>
     </row>
-    <row r="23" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="12">
+    <row r="23" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B23" s="16">
         <v>1</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="74">
         <f>$G$5</f>
         <v>-1200000</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="24">
+      <c r="D23" s="73"/>
+      <c r="E23" s="74">
         <f>$G$6*H23</f>
         <v>-620000</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="74">
         <f>$G$7</f>
         <v>0</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="76">
         <f>H23*$J$5</f>
         <v>1800000</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="77">
         <f t="shared" ref="H23:H28" si="7">C5</f>
         <v>20000</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="75">
         <f t="shared" ref="I23:I28" si="8">SUM(C23:G23)</f>
         <v>-20000</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="75">
         <f>MIN(0,I23*$J$6*-1)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="75">
         <f>J23+I23</f>
         <v>-20000</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="81">
         <f>IRR(K22:K28)</f>
         <v>0.36199008491108953</v>
       </c>
     </row>
-    <row r="24" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="12">
+    <row r="24" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="16">
         <v>2</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="74">
         <f t="shared" ref="C24:C25" si="9">$G$5</f>
         <v>-1200000</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="24">
+      <c r="D24" s="73"/>
+      <c r="E24" s="74">
         <f t="shared" ref="E24:E25" si="10">$G$6*H24</f>
         <v>-930000</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="74">
         <f t="shared" ref="F24:F28" si="11">$G$7</f>
         <v>0</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="76">
         <f t="shared" ref="G24:G27" si="12">H24*$J$5</f>
         <v>2700000</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="77">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="75">
         <f t="shared" si="8"/>
         <v>570000</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="75">
         <f>MIN(0,I24*$J$6*-1)</f>
         <v>-114000</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="75">
         <f>J24+I24</f>
         <v>456000</v>
       </c>
     </row>
-    <row r="25" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="12">
+    <row r="25" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="16">
         <v>3</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="74">
         <f t="shared" si="9"/>
         <v>-1200000</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="74">
         <f>$G$9*2</f>
         <v>-2400000</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="74">
         <f t="shared" si="10"/>
         <v>-1550000</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="74">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="76">
         <f t="shared" si="12"/>
         <v>4500000</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="77">
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="75">
         <f t="shared" si="8"/>
         <v>-650000</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="75">
         <f>MIN(0,I25*$J$6*-1)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="75">
         <f t="shared" ref="K25:K28" si="13">J25+I25</f>
         <v>-650000</v>
       </c>
     </row>
-    <row r="26" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="12">
+    <row r="26" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="16">
         <v>4</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="74">
         <f>$G$5*2</f>
         <v>-2400000</v>
       </c>
-      <c r="E26" s="24">
+      <c r="D26" s="78"/>
+      <c r="E26" s="74">
         <f>$G$6*H26</f>
         <v>-2480000</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="74">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="76">
         <f t="shared" si="12"/>
         <v>7200000</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="77">
         <f t="shared" si="7"/>
         <v>80000</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="75">
         <f t="shared" si="8"/>
         <v>2320000</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="75">
         <f t="shared" ref="J26:J28" si="14">MIN(0,I26*$J$6*-1)</f>
         <v>-464000</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="75">
         <f t="shared" si="13"/>
         <v>1856000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="12">
+    <row r="27" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B27" s="16">
         <v>5</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="74">
         <f t="shared" ref="C27:C28" si="15">$G$5*2</f>
         <v>-2400000</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="24">
+      <c r="D27" s="73"/>
+      <c r="E27" s="74">
         <f>$G$6*H27</f>
         <v>-2480000</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="74">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="76">
         <f t="shared" si="12"/>
         <v>7200000</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="77">
         <f t="shared" si="7"/>
         <v>80000</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="75">
         <f t="shared" si="8"/>
         <v>2320000</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="75">
         <f t="shared" si="14"/>
         <v>-464000</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="75">
         <f t="shared" si="13"/>
         <v>1856000</v>
       </c>
     </row>
-    <row r="28" spans="2:13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B28" s="12">
+    <row r="28" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B28" s="16">
         <v>6</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="74">
         <f t="shared" si="15"/>
         <v>-2400000</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="24">
+      <c r="D28" s="73"/>
+      <c r="E28" s="74">
         <f>$G$6*H28</f>
         <v>-2480000</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="74">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="76">
         <f>H28*$J$5</f>
         <v>7200000</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="77">
         <f t="shared" si="7"/>
         <v>80000</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="75">
         <f t="shared" si="8"/>
         <v>2320000</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="75">
         <f t="shared" si="14"/>
         <v>-464000</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="75">
         <f t="shared" si="13"/>
         <v>1856000</v>
       </c>
     </row>
-    <row r="29" spans="2:13" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="65"/>
-    </row>
-    <row r="31" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-    </row>
-    <row r="32" spans="2:13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
-    </row>
-    <row r="33" spans="3:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
-    </row>
-    <row r="34" spans="3:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="68"/>
-    </row>
-    <row r="35" spans="3:6" customFormat="1" ht="61.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="69"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="71"/>
-    </row>
-    <row r="36" spans="3:6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="3:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:13" ht="8.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="55"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="55"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="55"/>
+    </row>
+    <row r="35" spans="3:6" ht="61.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="56"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C30:F35"/>
@@ -2394,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB1DD7-39B3-4B02-8727-4912941BB3F7}">
-  <dimension ref="B2:N33"/>
+  <dimension ref="B2:P33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M4" sqref="M4:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -2413,233 +2550,272 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:16" ht="28.2" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+    </row>
+    <row r="5" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="61">
         <v>-12000</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="60" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+    </row>
+    <row r="6" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="62">
         <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="68">
         <v>-550</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="64">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="64">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+    </row>
+    <row r="7" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="61">
         <v>-20000</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="68">
         <v>-800</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="64">
         <v>6</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="64">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+    </row>
+    <row r="8" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="61">
         <v>-450</v>
       </c>
       <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="68">
         <v>-1500</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="64">
         <v>11</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="64">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+    </row>
+    <row r="9" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="63">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="68">
         <v>-2500</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="64">
         <v>16</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="64">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="4" t="s">
+      <c r="C10" s="62"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="59"/>
+      <c r="C12" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="59" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="59">
         <v>0</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="65">
         <f>C5</f>
         <v>-12000</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="24">
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="65">
         <f>SUM(C13:F13)</f>
         <v>-12000</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="70" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="59">
         <v>1</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="24">
+      <c r="C14" s="67"/>
+      <c r="D14" s="65">
         <f>$C$7</f>
         <v>-20000</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="65">
         <f>$C$8</f>
         <v>-450</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="65">
         <f>$E$6</f>
         <v>-550</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="65">
         <f t="shared" ref="G14:G33" si="0">SUM(C14:F14)</f>
         <v>-21000</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="69">
         <f>NPV(C9,G14:G18)</f>
         <v>-86104.146154899456</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="59">
         <v>2</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="24">
+      <c r="C15" s="67"/>
+      <c r="D15" s="65">
         <f t="shared" ref="D15:D33" si="1">$C$7</f>
         <v>-20000</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="65">
         <f t="shared" ref="E15:E33" si="2">$C$8</f>
         <v>-450</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="65">
         <f t="shared" ref="F15:F18" si="3">$E$6</f>
         <v>-550</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="65">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="69">
         <f>J14+G13</f>
         <v>-98104.146154899456</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="59">
         <v>3</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="24">
+      <c r="C16" s="67"/>
+      <c r="D16" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="65">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="65">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="69">
         <f>-PMT(C9,B18,J15)</f>
         <v>-23926.68833329649</v>
       </c>
@@ -2648,135 +2824,135 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
+      <c r="B17" s="59">
         <v>4</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="24">
+      <c r="C17" s="67"/>
+      <c r="D17" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="65">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="65">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
+      <c r="B18" s="59">
         <v>5</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="24">
+      <c r="C18" s="67"/>
+      <c r="D18" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="65">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="65">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="71" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
+      <c r="B19" s="59">
         <v>6</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="24">
+      <c r="C19" s="67"/>
+      <c r="D19" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="65">
         <f>$E$7</f>
         <v>-800</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="65">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="69">
         <f>NPV(C9,G14:G23)</f>
         <v>-148226.05838583087</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
+      <c r="B20" s="59">
         <v>7</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="24">
+      <c r="C20" s="67"/>
+      <c r="D20" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="65">
         <f t="shared" ref="F20:F23" si="4">$E$7</f>
         <v>-800</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="65">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="69">
         <f>J19+G13</f>
         <v>-160226.05838583087</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
+      <c r="B21" s="59">
         <v>8</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="24">
+      <c r="C21" s="67"/>
+      <c r="D21" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="65">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="65">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="69">
         <f>-PMT(C9,B23,J20)</f>
         <v>-22812.586064823532</v>
       </c>
@@ -2785,23 +2961,23 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
+      <c r="B22" s="59">
         <v>9</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="24">
+      <c r="C22" s="67"/>
+      <c r="D22" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="65">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="65">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
@@ -2813,113 +2989,113 @@
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
+      <c r="B23" s="59">
         <v>10</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="24">
+      <c r="C23" s="67"/>
+      <c r="D23" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="65">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="65">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="71" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
+      <c r="B24" s="59">
         <v>11</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="24">
+      <c r="C24" s="67"/>
+      <c r="D24" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="65">
         <f>$E$8</f>
         <v>-1500</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="65">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="69">
         <f>NPV(C9,G14:G28)</f>
         <v>-193977.15597450593</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
+      <c r="B25" s="59">
         <v>12</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="24">
+      <c r="C25" s="67"/>
+      <c r="D25" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="65">
         <f t="shared" ref="F25:F28" si="5">$E$8</f>
         <v>-1500</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="65">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="69">
         <f>J24+G13</f>
         <v>-205977.15597450593</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
+      <c r="B26" s="59">
         <v>13</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="24">
+      <c r="C26" s="67"/>
+      <c r="D26" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="65">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="65">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="69">
         <f>-PMT(C9,B28,J25)</f>
         <v>-22615.184537201567</v>
       </c>
@@ -2928,135 +3104,135 @@
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
+      <c r="B27" s="59">
         <v>14</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="24">
+      <c r="C27" s="67"/>
+      <c r="D27" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="65">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="65">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
+      <c r="B28" s="59">
         <v>15</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="24">
+      <c r="C28" s="67"/>
+      <c r="D28" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="65">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="65">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="71" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
+      <c r="B29" s="59">
         <v>16</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="24">
+      <c r="C29" s="67"/>
+      <c r="D29" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="65">
         <f>$E$9</f>
         <v>-2500</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="65">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="69">
         <f>NPV(C9,G14:G33)</f>
         <v>-228083.15649184689</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
+      <c r="B30" s="59">
         <v>17</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="24">
+      <c r="C30" s="67"/>
+      <c r="D30" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="65">
         <f t="shared" ref="F30:F33" si="6">$E$9</f>
         <v>-2500</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="65">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="69">
         <f>J29+G13</f>
         <v>-240083.15649184689</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
+      <c r="B31" s="59">
         <v>18</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="24">
+      <c r="C31" s="67"/>
+      <c r="D31" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="65">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="65">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="69">
         <f>-PMT(C9,B33,J30)</f>
         <v>-22662.151562941341</v>
       </c>
@@ -3065,52 +3241,56 @@
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
+      <c r="B32" s="59">
         <v>19</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="24">
+      <c r="C32" s="67"/>
+      <c r="D32" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="65">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="65">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
+      <c r="B33" s="59">
         <v>20</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="24">
+      <c r="C33" s="67"/>
+      <c r="D33" s="65">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="65">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="65">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="65">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M4:P11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3119,7 +3299,7 @@
   <dimension ref="B2:R50"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F15" sqref="F15:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -3128,13 +3308,18 @@
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="28.2" x14ac:dyDescent="0.5">
@@ -3142,7 +3327,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
@@ -3157,61 +3342,73 @@
       <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="28">
         <v>125000</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="F5" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I6" s="2">
+      <c r="F6" s="93">
+        <v>2</v>
+      </c>
+      <c r="G6" s="94">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="72">
         <f>SUM(C15:C18)</f>
         <v>-565000</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9">
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72">
         <v>300000</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="72">
         <f>C36</f>
         <v>15000</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9">
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72">
         <f>SUM(J6:Q6)</f>
         <v>-250000</v>
       </c>
@@ -3220,243 +3417,225 @@
       <c r="B7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="I7" s="2">
+      <c r="F7" s="93">
+        <v>2</v>
+      </c>
+      <c r="G7" s="94">
+        <v>50</v>
+      </c>
+      <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9">
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72">
         <f>D9*C25*365</f>
         <v>-131400</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="72">
         <f>$C$23</f>
         <v>-20000</v>
       </c>
-      <c r="N7" s="9">
-        <f>D9*G9*365</f>
+      <c r="N7" s="72">
+        <f>D9*G6*365</f>
         <v>328500</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="72">
         <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9">
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72">
         <f>C46</f>
         <v>-3108</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="72">
         <f t="shared" ref="R7:R11" si="0">SUM(J7:Q7)</f>
         <v>78058.647461563945</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="F8" s="93">
+        <v>1</v>
+      </c>
+      <c r="G8" s="94">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9">
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72">
         <f>D9*C26*365</f>
         <v>-131400</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="72">
         <f t="shared" ref="M8:M11" si="1">$C$23</f>
         <v>-20000</v>
       </c>
-      <c r="N8" s="9">
-        <f>G9*D9*365</f>
+      <c r="N8" s="72">
+        <f>G6*D9*365</f>
         <v>328500</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="72">
         <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9">
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72">
         <f t="shared" ref="Q8:Q11" si="2">C47</f>
         <v>-4014</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="72">
         <f t="shared" si="0"/>
         <v>77152.647461563945</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="32">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="47">
         <v>30</v>
       </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="72">
-        <v>2</v>
-      </c>
-      <c r="G9" s="73">
-        <v>30</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="E9" s="48"/>
+      <c r="I9" s="4">
         <v>3</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9">
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72">
         <f>D10*C27*365</f>
         <v>-109500</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="72">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="N9" s="9">
-        <f>D10*G10*365</f>
+      <c r="N9" s="72">
+        <f>D10*G7*365</f>
         <v>456250</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="72">
         <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9">
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72">
         <f t="shared" si="2"/>
         <v>-23041</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="72">
         <f t="shared" si="0"/>
         <v>207775.64746156393</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="32">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="47">
         <v>25</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="72">
-        <v>2</v>
-      </c>
-      <c r="G10" s="73">
-        <v>50</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="E10" s="48"/>
+      <c r="I10" s="4">
         <v>4</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9">
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72">
         <f>D10*C28*365</f>
         <v>-91250</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="72">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="N10" s="9">
-        <f>D10*G10*365</f>
+      <c r="N10" s="72">
+        <f>D10*G7*365</f>
         <v>456250</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="72">
         <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9">
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72">
         <f t="shared" si="2"/>
         <v>-26492</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="72">
         <f t="shared" si="0"/>
         <v>222574.64746156393</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="32">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D11" s="75">
+      <c r="D11" s="47">
         <v>35</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="72">
-        <v>1</v>
-      </c>
-      <c r="G11" s="73">
-        <v>20</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="E11" s="48"/>
+      <c r="I11" s="4">
         <v>5</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9">
+      <c r="J11" s="72"/>
+      <c r="K11" s="72">
         <f>-0.1*(C15+C17+C18)</f>
         <v>54000</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="72">
         <f>D11*C29*365</f>
         <v>-102200</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="72">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="N11" s="9">
-        <f>D11*G11*365</f>
+      <c r="N11" s="72">
+        <f>D11*G8*365</f>
         <v>255500</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="72">
         <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="72">
         <f>-C36</f>
         <v>-15000</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="72">
         <f t="shared" si="2"/>
         <v>-2577</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="72">
         <f t="shared" si="0"/>
         <v>73789.647461563945</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="E12" s="76"/>
-    </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="E13" s="76"/>
-      <c r="Q13" t="s">
+      <c r="Q13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="25">
+      <c r="R13" s="42">
         <f>NPV(C41,R7:R11)</f>
         <v>426775.70454910013</v>
       </c>
@@ -3465,133 +3644,167 @@
       <c r="B14" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="Q14" t="s">
+      <c r="Q14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="42">
         <f>R13+R6</f>
         <v>176775.70454910013</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="28">
         <v>-300000</v>
       </c>
-      <c r="E15" s="76"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="F15" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+    </row>
+    <row r="16" spans="2:18" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="28">
         <v>-25000</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="Q16" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="33">
+      <c r="R16" s="81">
         <f>IRR(R6:R11)</f>
         <v>0.38450784697364293</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="29">
         <f>-45000*2</f>
         <v>-90000</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="29">
         <v>-150000</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="31">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="38"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="29"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="38"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="29"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="29">
         <v>-20000</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="33">
         <v>-12</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="33">
         <v>-12</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="33">
         <v>-12</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="33">
         <v>-10</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>5</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="33">
         <v>-8</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>86</v>
       </c>
@@ -3600,7 +3813,7 @@
       <c r="B33" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="28">
         <v>300000</v>
       </c>
     </row>
@@ -3608,7 +3821,7 @@
       <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="30">
         <v>0.18</v>
       </c>
     </row>
@@ -3616,7 +3829,7 @@
       <c r="B36" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="28">
         <v>15000</v>
       </c>
       <c r="D36" t="s">
@@ -3627,7 +3840,7 @@
       <c r="B37" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="30">
         <v>0</v>
       </c>
     </row>
@@ -3640,7 +3853,7 @@
       <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="39">
+      <c r="C41" s="30">
         <v>0.15</v>
       </c>
     </row>
@@ -3661,7 +3874,7 @@
       <c r="B46" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="14">
         <v>-3108</v>
       </c>
     </row>
@@ -3669,7 +3882,7 @@
       <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="14">
         <v>-4014</v>
       </c>
     </row>
@@ -3677,7 +3890,7 @@
       <c r="B48" s="2">
         <v>3</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="14">
         <v>-23041</v>
       </c>
     </row>
@@ -3685,7 +3898,7 @@
       <c r="B49" s="2">
         <v>4</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="14">
         <v>-26492</v>
       </c>
     </row>
@@ -3693,202 +3906,302 @@
       <c r="B50" s="2">
         <v>5</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="14">
         <v>-2577</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F15:I22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192610D1-0A17-4CF5-883E-744262988952}">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="B2" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="46" t="s">
+    <row r="2" spans="2:14" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="B2" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="83">
+        <v>-1100000</v>
+      </c>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="C9" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="F9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="G9" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="H9" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="I9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="J9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="19">
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+    </row>
+    <row r="10" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="16">
         <v>0</v>
       </c>
-      <c r="D5" s="47">
+      <c r="C10" s="37">
+        <f>C5</f>
         <v>-1100000</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6">
+      <c r="D10" s="38"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6">
         <v>600000</v>
       </c>
-      <c r="I5" s="49">
-        <f>SUM(D5:H5)</f>
+      <c r="H10" s="39">
+        <f>SUM(C10:G10)</f>
         <v>-500000</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="49">
-        <f>I5+J5</f>
+      <c r="I10" s="4"/>
+      <c r="J10" s="39">
+        <f>H10+I10</f>
         <v>-500000</v>
       </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="19">
+    </row>
+    <row r="11" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
         <v>1</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="6">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="6">
         <v>-60000</v>
       </c>
-      <c r="G6" s="6">
+      <c r="F11" s="6">
         <v>950000</v>
       </c>
-      <c r="H6" s="50">
-        <f>H10</f>
+      <c r="G11" s="40">
+        <f>H15</f>
         <v>-369069.76744186052</v>
       </c>
-      <c r="I6" s="49">
-        <f t="shared" ref="I6" si="0">SUM(D6:H6)</f>
+      <c r="H11" s="39">
+        <f t="shared" ref="H11" si="0">SUM(C11:G11)</f>
         <v>520930.23255813948</v>
       </c>
-      <c r="J6" s="6">
-        <f>MIN(0,J9*I6*-1)</f>
+      <c r="I11" s="6">
+        <f>MIN(0,J14*H11*-1)</f>
         <v>-130232.55813953487</v>
       </c>
-      <c r="K6" s="49">
-        <f>J6+I6</f>
+      <c r="J11" s="39">
+        <f>I11+H11</f>
         <v>390697.67441860458</v>
       </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="19">
+    </row>
+    <row r="12" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
         <v>2</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="47">
+      <c r="C12" s="38"/>
+      <c r="D12" s="37">
         <v>350000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="E12" s="6">
         <v>-80000</v>
       </c>
-      <c r="G7" s="6">
+      <c r="F12" s="6">
         <v>950000</v>
       </c>
-      <c r="H7" s="50">
-        <f>H10</f>
+      <c r="G12" s="40">
+        <f>H15</f>
         <v>-369069.76744186052</v>
       </c>
-      <c r="I7" s="49">
-        <f>SUM(D7:H7)</f>
+      <c r="H12" s="39">
+        <f>SUM(C12:G12)</f>
         <v>850930.23255813948</v>
       </c>
-      <c r="J7" s="6">
-        <f>MIN(0,J9*I7*-1)</f>
+      <c r="I12" s="6">
+        <f>MIN(0,J14*H12*-1)</f>
         <v>-212732.55813953487</v>
       </c>
-      <c r="K7" s="49">
-        <f>J7+I7</f>
+      <c r="J12" s="39">
+        <f>I12+H12</f>
         <v>638197.67441860458</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G9" s="45" t="s">
+    </row>
+    <row r="13" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="G14" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H14" s="41">
+        <f>C6</f>
         <v>0.15</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I14" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J14" s="41">
+        <f>C7</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G10" s="45" t="s">
+    <row r="15" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="53"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="55"/>
+      <c r="G15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="52">
-        <f>PMT(H9,C7,H5)</f>
+      <c r="H15" s="42">
+        <f>PMT(H14,B12,G10)</f>
         <v>-369069.76744186052</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="54"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G12" s="45" t="s">
+      <c r="I15" s="35"/>
+      <c r="J15" s="44"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="53"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="55"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="53"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="55"/>
+      <c r="G17" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="55">
-        <f>IRR(K5:K7)</f>
+      <c r="H17" s="45">
+        <f>IRR(J10:J12)</f>
         <v>0.5861222942225115</v>
       </c>
     </row>
+    <row r="18" spans="2:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="53"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="55"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="53"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="55"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="53"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="55"/>
+    </row>
+    <row r="21" spans="2:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B14:E21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3897,2115 +4210,2064 @@
   <dimension ref="B2:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:P8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:14" ht="28.2" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="25"/>
+      <c r="E4" s="10" t="s">
         <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="7">
         <v>-11999</v>
       </c>
       <c r="D5" t="s">
         <v>100</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="100" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="96">
         <v>0.5</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="101">
         <v>1</v>
       </c>
-      <c r="G6" s="25">
+      <c r="F6" s="102">
         <f>$C$5</f>
         <v>-11999</v>
       </c>
-      <c r="H6" s="25">
-        <f>-PPMT($C$10,F6,$C$12,$M$6)</f>
+      <c r="G6" s="102">
+        <f>-PPMT($C$10,E6,$C$12,$L$6)</f>
         <v>-7010.6735497285608</v>
       </c>
-      <c r="I6" s="25">
-        <f>-IPMT($C$10,F6,$C$12,$M$6)</f>
+      <c r="H6" s="102">
+        <f>-IPMT($C$10,E6,$C$12,$L$6)</f>
         <v>-4988.3264502714392</v>
       </c>
-      <c r="J6" s="25">
-        <f>H6+1.16*I6</f>
+      <c r="I6" s="102">
+        <f>G6+1.16*H6</f>
         <v>-12797.13223204343</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="M6" s="25">
-        <f>NPV(C10,G6:G77)</f>
+      <c r="L6" s="42">
+        <f>NPV(C10,F6:F77)</f>
         <v>-665850.02673256141</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="97">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="101">
         <v>2</v>
       </c>
-      <c r="G7" s="25">
-        <f t="shared" ref="G7:G70" si="0">$C$5</f>
-        <v>-11999</v>
-      </c>
-      <c r="H7" s="25">
-        <f t="shared" ref="H7:H70" si="1">-PPMT($C$10,F7,$C$12,$M$6)</f>
+      <c r="F7" s="102">
+        <f t="shared" ref="F7:F70" si="0">$C$5</f>
+        <v>-11999</v>
+      </c>
+      <c r="G7" s="102">
+        <f>-PPMT($C$10,E7,$C$12,$L$6)</f>
         <v>-7063.1951790719431</v>
       </c>
-      <c r="I7" s="25">
-        <f t="shared" ref="I7:I70" si="2">-IPMT($C$10,F7,$C$12,$M$6)</f>
+      <c r="H7" s="102">
+        <f>-IPMT($C$10,E7,$C$12,$L$6)</f>
         <v>-4935.8048209280569</v>
       </c>
-      <c r="J7" s="25">
-        <f t="shared" ref="J7:J70" si="3">H7+1.16*I7</f>
+      <c r="I7" s="102">
+        <f t="shared" ref="I7:I70" si="1">G7+1.16*H7</f>
         <v>-12788.728771348487</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="M7" s="25">
-        <f>2*M6</f>
+      <c r="L7" s="42">
+        <f>2*L6</f>
         <v>-1331700.0534651228</v>
       </c>
-      <c r="N7" t="s">
+      <c r="M7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="98">
         <v>8.9899999999999994E-2</v>
       </c>
       <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="101">
         <v>3</v>
       </c>
-      <c r="G8" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H8" s="25">
-        <f t="shared" si="1"/>
+      <c r="F8" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G8" s="102">
+        <f>-PPMT($C$10,E8,$C$12,$L$6)</f>
         <v>-7116.1102829551564</v>
       </c>
-      <c r="I8" s="25">
-        <f t="shared" si="2"/>
+      <c r="H8" s="102">
+        <f>-IPMT($C$10,E8,$C$12,$L$6)</f>
         <v>-4882.8897170448427</v>
       </c>
-      <c r="J8" s="25">
-        <f t="shared" si="3"/>
+      <c r="I8" s="102">
+        <f t="shared" si="1"/>
         <v>-12780.262354727172</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29" t="s">
+      <c r="J8" s="22"/>
+      <c r="K8" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="M8" s="25">
-        <f>SUM(I6:I77)</f>
+      <c r="L8" s="42">
+        <f>SUM(H6:H77)</f>
         <v>-198077.97326743853</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="M8" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>12</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="101">
         <v>4</v>
       </c>
-      <c r="G9" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H9" s="25">
-        <f t="shared" si="1"/>
+      <c r="F9" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G9" s="102">
+        <f>-PPMT($C$10,E9,$C$12,$L$6)</f>
         <v>-7169.4218091582961</v>
       </c>
-      <c r="I9" s="25">
-        <f t="shared" si="2"/>
+      <c r="H9" s="102">
+        <f>-IPMT($C$10,E9,$C$12,$L$6)</f>
         <v>-4829.5781908417039</v>
       </c>
-      <c r="J9" s="25">
-        <f t="shared" si="3"/>
+      <c r="I9" s="102">
+        <f t="shared" si="1"/>
         <v>-12771.732510534672</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="36"/>
-    </row>
-    <row r="10" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="97">
         <f>C8/C9</f>
         <v>7.4916666666666664E-3</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="101">
         <v>5</v>
       </c>
-      <c r="G10" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H10" s="25">
-        <f t="shared" si="1"/>
+      <c r="F10" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G10" s="102">
+        <f>-PPMT($C$10,E10,$C$12,$L$6)</f>
         <v>-7223.1327275452404</v>
       </c>
-      <c r="I10" s="25">
+      <c r="H10" s="102">
+        <f>-IPMT($C$10,E10,$C$12,$L$6)</f>
+        <v>-4775.8672724547596</v>
+      </c>
+      <c r="I10" s="102">
+        <f t="shared" si="1"/>
+        <v>-12763.13876359276</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="99">
+        <v>0.16</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="101">
+        <v>6</v>
+      </c>
+      <c r="F11" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G11" s="102">
+        <f>-PPMT($C$10,E11,$C$12,$L$6)</f>
+        <v>-7277.2460302291001</v>
+      </c>
+      <c r="H11" s="102">
+        <f>-IPMT($C$10,E11,$C$12,$L$6)</f>
+        <v>-4721.7539697708989</v>
+      </c>
+      <c r="I11" s="102">
+        <f t="shared" si="1"/>
+        <v>-12754.480635163342</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="5">
+        <v>72</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="101">
+        <v>7</v>
+      </c>
+      <c r="F12" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G12" s="102">
+        <f>-PPMT($C$10,E12,$C$12,$L$6)</f>
+        <v>-7331.764731738901</v>
+      </c>
+      <c r="H12" s="102">
+        <f>-IPMT($C$10,E12,$C$12,$L$6)</f>
+        <v>-4667.235268261099</v>
+      </c>
+      <c r="I12" s="102">
+        <f t="shared" si="1"/>
+        <v>-12745.757642921775</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="101">
+        <v>8</v>
+      </c>
+      <c r="F13" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G13" s="102">
+        <f>-PPMT($C$10,E13,$C$12,$L$6)</f>
+        <v>-7386.6918691875107</v>
+      </c>
+      <c r="H13" s="102">
+        <f>-IPMT($C$10,E13,$C$12,$L$6)</f>
+        <v>-4612.3081308124893</v>
+      </c>
+      <c r="I13" s="102">
+        <f t="shared" si="1"/>
+        <v>-12736.969300929999</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="101">
+        <v>9</v>
+      </c>
+      <c r="F14" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G14" s="102">
+        <f>-PPMT($C$10,E14,$C$12,$L$6)</f>
+        <v>-7442.0305024408399</v>
+      </c>
+      <c r="H14" s="102">
+        <f>-IPMT($C$10,E14,$C$12,$L$6)</f>
+        <v>-4556.9694975591592</v>
+      </c>
+      <c r="I14" s="102">
+        <f t="shared" si="1"/>
+        <v>-12728.115119609465</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="101">
+        <v>10</v>
+      </c>
+      <c r="F15" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G15" s="102">
+        <f>-PPMT($C$10,E15,$C$12,$L$6)</f>
+        <v>-7497.7837142882927</v>
+      </c>
+      <c r="H15" s="102">
+        <f>-IPMT($C$10,E15,$C$12,$L$6)</f>
+        <v>-4501.2162857117073</v>
+      </c>
+      <c r="I15" s="102">
+        <f t="shared" si="1"/>
+        <v>-12719.194605713874</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="101">
+        <v>11</v>
+      </c>
+      <c r="F16" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G16" s="102">
+        <f>-PPMT($C$10,E16,$C$12,$L$6)</f>
+        <v>-7553.9546106145026</v>
+      </c>
+      <c r="H16" s="102">
+        <f>-IPMT($C$10,E16,$C$12,$L$6)</f>
+        <v>-4445.0453893854965</v>
+      </c>
+      <c r="I16" s="102">
+        <f t="shared" si="1"/>
+        <v>-12710.207262301679</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+    </row>
+    <row r="17" spans="3:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="101">
+        <v>12</v>
+      </c>
+      <c r="F17" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G17" s="102">
+        <f>-PPMT($C$10,E17,$C$12,$L$6)</f>
+        <v>-7610.5463205723563</v>
+      </c>
+      <c r="H17" s="102">
+        <f>-IPMT($C$10,E17,$C$12,$L$6)</f>
+        <v>-4388.4536794276437</v>
+      </c>
+      <c r="I17" s="102">
+        <f t="shared" si="1"/>
+        <v>-12701.152588708423</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+    </row>
+    <row r="18" spans="3:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="101">
+        <v>13</v>
+      </c>
+      <c r="F18" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G18" s="102">
+        <f>-PPMT($C$10,E18,$C$12,$L$6)</f>
+        <v>-7667.5619967573102</v>
+      </c>
+      <c r="H18" s="102">
+        <f>-IPMT($C$10,E18,$C$12,$L$6)</f>
+        <v>-4331.4380032426898</v>
+      </c>
+      <c r="I18" s="102">
+        <f t="shared" si="1"/>
+        <v>-12692.030080518831</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="3:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="101">
+        <v>14</v>
+      </c>
+      <c r="F19" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G19" s="102">
+        <f>-PPMT($C$10,E19,$C$12,$L$6)</f>
+        <v>-7725.0048153830176</v>
+      </c>
+      <c r="H19" s="102">
+        <f>-IPMT($C$10,E19,$C$12,$L$6)</f>
+        <v>-4273.9951846169824</v>
+      </c>
+      <c r="I19" s="102">
+        <f t="shared" si="1"/>
+        <v>-12682.839229538717</v>
+      </c>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="3:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="101">
+        <v>15</v>
+      </c>
+      <c r="F20" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G20" s="102">
+        <f>-PPMT($C$10,E20,$C$12,$L$6)</f>
+        <v>-7782.8779764582623</v>
+      </c>
+      <c r="H20" s="102">
+        <f>-IPMT($C$10,E20,$C$12,$L$6)</f>
+        <v>-4216.1220235417368</v>
+      </c>
+      <c r="I20" s="102">
+        <f t="shared" si="1"/>
+        <v>-12673.579523766677</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="3:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="101">
+        <v>16</v>
+      </c>
+      <c r="F21" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G21" s="102">
+        <f>-PPMT($C$10,E21,$C$12,$L$6)</f>
+        <v>-7841.1847039652284</v>
+      </c>
+      <c r="H21" s="102">
+        <f>-IPMT($C$10,E21,$C$12,$L$6)</f>
+        <v>-4157.8152960347707</v>
+      </c>
+      <c r="I21" s="102">
+        <f t="shared" si="1"/>
+        <v>-12664.250447365561</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="101">
+        <v>17</v>
+      </c>
+      <c r="F22" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G22" s="102">
+        <f>-PPMT($C$10,E22,$C$12,$L$6)</f>
+        <v>-7899.9282460391014</v>
+      </c>
+      <c r="H22" s="102">
+        <f>-IPMT($C$10,E22,$C$12,$L$6)</f>
+        <v>-4099.0717539608986</v>
+      </c>
+      <c r="I22" s="102">
+        <f t="shared" si="1"/>
+        <v>-12654.851480633744</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="101">
+        <v>18</v>
+      </c>
+      <c r="F23" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G23" s="102">
+        <f>-PPMT($C$10,E23,$C$12,$L$6)</f>
+        <v>-7959.1118751490112</v>
+      </c>
+      <c r="H23" s="102">
+        <f>-IPMT($C$10,E23,$C$12,$L$6)</f>
+        <v>-4039.8881248509879</v>
+      </c>
+      <c r="I23" s="102">
+        <f t="shared" si="1"/>
+        <v>-12645.382099976156</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="101">
+        <v>19</v>
+      </c>
+      <c r="F24" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G24" s="102">
+        <f>-PPMT($C$10,E24,$C$12,$L$6)</f>
+        <v>-8018.7388882803361</v>
+      </c>
+      <c r="H24" s="102">
+        <f>-IPMT($C$10,E24,$C$12,$L$6)</f>
+        <v>-3980.2611117196639</v>
+      </c>
+      <c r="I24" s="102">
+        <f t="shared" si="1"/>
+        <v>-12635.841777875146</v>
+      </c>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="101">
+        <v>20</v>
+      </c>
+      <c r="F25" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G25" s="102">
+        <f>-PPMT($C$10,E25,$C$12,$L$6)</f>
+        <v>-8078.8126071183688</v>
+      </c>
+      <c r="H25" s="102">
+        <f>-IPMT($C$10,E25,$C$12,$L$6)</f>
+        <v>-3920.1873928816303</v>
+      </c>
+      <c r="I25" s="102">
+        <f t="shared" si="1"/>
+        <v>-12626.229982861059</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="27"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="101">
+        <v>21</v>
+      </c>
+      <c r="F26" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G26" s="102">
+        <f>-PPMT($C$10,E26,$C$12,$L$6)</f>
+        <v>-8139.3363782333636</v>
+      </c>
+      <c r="H26" s="102">
+        <f>-IPMT($C$10,E26,$C$12,$L$6)</f>
+        <v>-3859.6636217666351</v>
+      </c>
+      <c r="I26" s="102">
+        <f t="shared" si="1"/>
+        <v>-12616.546179482659</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="101">
+        <v>22</v>
+      </c>
+      <c r="F27" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G27" s="102">
+        <f>-PPMT($C$10,E27,$C$12,$L$6)</f>
+        <v>-8200.3135732669634</v>
+      </c>
+      <c r="H27" s="102">
+        <f>-IPMT($C$10,E27,$C$12,$L$6)</f>
+        <v>-3798.686426733037</v>
+      </c>
+      <c r="I27" s="102">
+        <f t="shared" si="1"/>
+        <v>-12606.789828277286</v>
+      </c>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="101">
+        <v>23</v>
+      </c>
+      <c r="F28" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G28" s="102">
+        <f>-PPMT($C$10,E28,$C$12,$L$6)</f>
+        <v>-8261.7475891200211</v>
+      </c>
+      <c r="H28" s="102">
+        <f>-IPMT($C$10,E28,$C$12,$L$6)</f>
+        <v>-3737.2524108799789</v>
+      </c>
+      <c r="I28" s="102">
+        <f t="shared" si="1"/>
+        <v>-12596.960385740796</v>
+      </c>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="27"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="101">
+        <v>24</v>
+      </c>
+      <c r="F29" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G29" s="102">
+        <f>-PPMT($C$10,E29,$C$12,$L$6)</f>
+        <v>-8323.6418481418459</v>
+      </c>
+      <c r="H29" s="102">
+        <f>-IPMT($C$10,E29,$C$12,$L$6)</f>
+        <v>-3675.358151858155</v>
+      </c>
+      <c r="I29" s="102">
+        <f t="shared" si="1"/>
+        <v>-12587.057304297305</v>
+      </c>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="27"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="101">
+        <v>25</v>
+      </c>
+      <c r="F30" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G30" s="102">
+        <f>-PPMT($C$10,E30,$C$12,$L$6)</f>
+        <v>-8385.9997983208414</v>
+      </c>
+      <c r="H30" s="102">
+        <f>-IPMT($C$10,E30,$C$12,$L$6)</f>
+        <v>-3613.0002016791586</v>
+      </c>
+      <c r="I30" s="102">
+        <f t="shared" si="1"/>
+        <v>-12577.080032268666</v>
+      </c>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="27"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="101">
+        <v>26</v>
+      </c>
+      <c r="F31" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G31" s="102">
+        <f>-PPMT($C$10,E31,$C$12,$L$6)</f>
+        <v>-8448.8249134765956</v>
+      </c>
+      <c r="H31" s="102">
+        <f>-IPMT($C$10,E31,$C$12,$L$6)</f>
+        <v>-3550.1750865234048</v>
+      </c>
+      <c r="I31" s="102">
+        <f t="shared" si="1"/>
+        <v>-12567.028013843745</v>
+      </c>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="27"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="101">
+        <v>27</v>
+      </c>
+      <c r="F32" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G32" s="102">
+        <f>-PPMT($C$10,E32,$C$12,$L$6)</f>
+        <v>-8512.1206934533893</v>
+      </c>
+      <c r="H32" s="102">
+        <f>-IPMT($C$10,E32,$C$12,$L$6)</f>
+        <v>-3486.8793065466102</v>
+      </c>
+      <c r="I32" s="102">
+        <f t="shared" si="1"/>
+        <v>-12556.900689047457</v>
+      </c>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="27"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="101">
+        <v>28</v>
+      </c>
+      <c r="F33" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G33" s="102">
+        <f>-PPMT($C$10,E33,$C$12,$L$6)</f>
+        <v>-8575.8906643151786</v>
+      </c>
+      <c r="H33" s="102">
+        <f>-IPMT($C$10,E33,$C$12,$L$6)</f>
+        <v>-3423.109335684821</v>
+      </c>
+      <c r="I33" s="102">
+        <f t="shared" si="1"/>
+        <v>-12546.697493709571</v>
+      </c>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="27"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="101">
+        <v>29</v>
+      </c>
+      <c r="F34" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G34" s="102">
+        <f>-PPMT($C$10,E34,$C$12,$L$6)</f>
+        <v>-8640.1383785420057</v>
+      </c>
+      <c r="H34" s="102">
+        <f>-IPMT($C$10,E34,$C$12,$L$6)</f>
+        <v>-3358.8616214579929</v>
+      </c>
+      <c r="I34" s="102">
+        <f t="shared" si="1"/>
+        <v>-12536.417859433277</v>
+      </c>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="27"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="101">
+        <v>30</v>
+      </c>
+      <c r="F35" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G35" s="102">
+        <f>-PPMT($C$10,E35,$C$12,$L$6)</f>
+        <v>-8704.8674152279164</v>
+      </c>
+      <c r="H35" s="102">
+        <f>-IPMT($C$10,E35,$C$12,$L$6)</f>
+        <v>-3294.1325847720832</v>
+      </c>
+      <c r="I35" s="102">
+        <f t="shared" si="1"/>
+        <v>-12526.061213563533</v>
+      </c>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="27"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="101">
+        <v>31</v>
+      </c>
+      <c r="F36" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G36" s="102">
+        <f>-PPMT($C$10,E36,$C$12,$L$6)</f>
+        <v>-8770.0813802803332</v>
+      </c>
+      <c r="H36" s="102">
+        <f>-IPMT($C$10,E36,$C$12,$L$6)</f>
+        <v>-3228.9186197196673</v>
+      </c>
+      <c r="I36" s="102">
+        <f t="shared" si="1"/>
+        <v>-12515.626979155148</v>
+      </c>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="27"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="101">
+        <v>32</v>
+      </c>
+      <c r="F37" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G37" s="102">
+        <f>-PPMT($C$10,E37,$C$12,$L$6)</f>
+        <v>-8835.7839066209326</v>
+      </c>
+      <c r="H37" s="102">
+        <f>-IPMT($C$10,E37,$C$12,$L$6)</f>
+        <v>-3163.2160933790674</v>
+      </c>
+      <c r="I37" s="102">
+        <f t="shared" si="1"/>
+        <v>-12505.11457494065</v>
+      </c>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="27"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="101">
+        <v>33</v>
+      </c>
+      <c r="F38" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G38" s="102">
+        <f>-PPMT($C$10,E38,$C$12,$L$6)</f>
+        <v>-8901.9786543880346</v>
+      </c>
+      <c r="H38" s="102">
+        <f>-IPMT($C$10,E38,$C$12,$L$6)</f>
+        <v>-3097.0213456119645</v>
+      </c>
+      <c r="I38" s="102">
+        <f t="shared" si="1"/>
+        <v>-12494.523415297914</v>
+      </c>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="27"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="101">
+        <v>34</v>
+      </c>
+      <c r="F39" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G39" s="102">
+        <f>-PPMT($C$10,E39,$C$12,$L$6)</f>
+        <v>-8968.6693111404929</v>
+      </c>
+      <c r="H39" s="102">
+        <f>-IPMT($C$10,E39,$C$12,$L$6)</f>
+        <v>-3030.330688859508</v>
+      </c>
+      <c r="I39" s="102">
+        <f t="shared" si="1"/>
+        <v>-12483.852910217522</v>
+      </c>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="27"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="101">
+        <v>35</v>
+      </c>
+      <c r="F40" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G40" s="102">
+        <f>-PPMT($C$10,E40,$C$12,$L$6)</f>
+        <v>-9035.8595920631196</v>
+      </c>
+      <c r="H40" s="102">
+        <f>-IPMT($C$10,E40,$C$12,$L$6)</f>
+        <v>-2963.1404079368799</v>
+      </c>
+      <c r="I40" s="102">
+        <f t="shared" si="1"/>
+        <v>-12473.1024652699</v>
+      </c>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="27"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="101">
+        <v>36</v>
+      </c>
+      <c r="F41" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G41" s="102">
+        <f>-PPMT($C$10,E41,$C$12,$L$6)</f>
+        <v>-9103.55324017366</v>
+      </c>
+      <c r="H41" s="102">
+        <f>-IPMT($C$10,E41,$C$12,$L$6)</f>
+        <v>-2895.4467598263409</v>
+      </c>
+      <c r="I41" s="102">
+        <f t="shared" si="1"/>
+        <v>-12462.271481572216</v>
+      </c>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="27"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="101">
+        <v>37</v>
+      </c>
+      <c r="F42" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G42" s="102">
+        <f>-PPMT($C$10,E42,$C$12,$L$6)</f>
+        <v>-9171.7540265312928</v>
+      </c>
+      <c r="H42" s="102">
+        <f>-IPMT($C$10,E42,$C$12,$L$6)</f>
+        <v>-2827.2459734687063</v>
+      </c>
+      <c r="I42" s="102">
+        <f t="shared" si="1"/>
+        <v>-12451.359355754992</v>
+      </c>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="27"/>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="101">
+        <v>38</v>
+      </c>
+      <c r="F43" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G43" s="102">
+        <f>-PPMT($C$10,E43,$C$12,$L$6)</f>
+        <v>-9240.4657504467214</v>
+      </c>
+      <c r="H43" s="102">
+        <f>-IPMT($C$10,E43,$C$12,$L$6)</f>
+        <v>-2758.5342495532768</v>
+      </c>
+      <c r="I43" s="102">
+        <f t="shared" si="1"/>
+        <v>-12440.365479928521</v>
+      </c>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="27"/>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="101">
+        <v>39</v>
+      </c>
+      <c r="F44" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G44" s="102">
+        <f>-PPMT($C$10,E44,$C$12,$L$6)</f>
+        <v>-9309.6922396938189</v>
+      </c>
+      <c r="H44" s="102">
+        <f>-IPMT($C$10,E44,$C$12,$L$6)</f>
+        <v>-2689.3077603061797</v>
+      </c>
+      <c r="I44" s="102">
+        <f t="shared" si="1"/>
+        <v>-12429.289241648987</v>
+      </c>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="27"/>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="101">
+        <v>40</v>
+      </c>
+      <c r="F45" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G45" s="102">
+        <f>-PPMT($C$10,E45,$C$12,$L$6)</f>
+        <v>-9379.4373507228593</v>
+      </c>
+      <c r="H45" s="102">
+        <f>-IPMT($C$10,E45,$C$12,$L$6)</f>
+        <v>-2619.5626492771398</v>
+      </c>
+      <c r="I45" s="102">
+        <f t="shared" si="1"/>
+        <v>-12418.130023884341</v>
+      </c>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="27"/>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="101">
+        <v>41</v>
+      </c>
+      <c r="F46" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G46" s="102">
+        <f>-PPMT($C$10,E46,$C$12,$L$6)</f>
+        <v>-9449.7049688753577</v>
+      </c>
+      <c r="H46" s="102">
+        <f>-IPMT($C$10,E46,$C$12,$L$6)</f>
+        <v>-2549.2950311246414</v>
+      </c>
+      <c r="I46" s="102">
+        <f t="shared" si="1"/>
+        <v>-12406.887204979941</v>
+      </c>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="27"/>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="101">
+        <v>42</v>
+      </c>
+      <c r="F47" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G47" s="102">
+        <f>-PPMT($C$10,E47,$C$12,$L$6)</f>
+        <v>-9520.4990086005164</v>
+      </c>
+      <c r="H47" s="102">
+        <f>-IPMT($C$10,E47,$C$12,$L$6)</f>
+        <v>-2478.5009913994836</v>
+      </c>
+      <c r="I47" s="102">
+        <f t="shared" si="1"/>
+        <v>-12395.560158623917</v>
+      </c>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="27"/>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="101">
+        <v>43</v>
+      </c>
+      <c r="F48" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G48" s="102">
+        <f>-PPMT($C$10,E48,$C$12,$L$6)</f>
+        <v>-9591.8234136732826</v>
+      </c>
+      <c r="H48" s="102">
+        <f>-IPMT($C$10,E48,$C$12,$L$6)</f>
+        <v>-2407.1765863267178</v>
+      </c>
+      <c r="I48" s="102">
+        <f t="shared" si="1"/>
+        <v>-12384.148253812275</v>
+      </c>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="27"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="101">
+        <v>44</v>
+      </c>
+      <c r="F49" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G49" s="102">
+        <f>-PPMT($C$10,E49,$C$12,$L$6)</f>
+        <v>-9663.6821574140504</v>
+      </c>
+      <c r="H49" s="102">
+        <f>-IPMT($C$10,E49,$C$12,$L$6)</f>
+        <v>-2335.3178425859492</v>
+      </c>
+      <c r="I49" s="102">
+        <f t="shared" si="1"/>
+        <v>-12372.650854813752</v>
+      </c>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="27"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="101">
+        <v>45</v>
+      </c>
+      <c r="F50" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G50" s="102">
+        <f>-PPMT($C$10,E50,$C$12,$L$6)</f>
+        <v>-9736.0792429100111</v>
+      </c>
+      <c r="H50" s="102">
+        <f>-IPMT($C$10,E50,$C$12,$L$6)</f>
+        <v>-2262.9207570899894</v>
+      </c>
+      <c r="I50" s="102">
+        <f t="shared" si="1"/>
+        <v>-12361.067321134398</v>
+      </c>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="27"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="101">
+        <v>46</v>
+      </c>
+      <c r="F51" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G51" s="102">
+        <f>-PPMT($C$10,E51,$C$12,$L$6)</f>
+        <v>-9809.0187032381455</v>
+      </c>
+      <c r="H51" s="102">
+        <f>-IPMT($C$10,E51,$C$12,$L$6)</f>
+        <v>-2189.9812967618541</v>
+      </c>
+      <c r="I51" s="102">
+        <f t="shared" si="1"/>
+        <v>-12349.397007481895</v>
+      </c>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="27"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="101">
+        <v>47</v>
+      </c>
+      <c r="F52" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G52" s="102">
+        <f>-PPMT($C$10,E52,$C$12,$L$6)</f>
+        <v>-9882.504601689905</v>
+      </c>
+      <c r="H52" s="102">
+        <f>-IPMT($C$10,E52,$C$12,$L$6)</f>
+        <v>-2116.4953983100954</v>
+      </c>
+      <c r="I52" s="102">
+        <f t="shared" si="1"/>
+        <v>-12337.639263729616</v>
+      </c>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="27"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="101">
+        <v>48</v>
+      </c>
+      <c r="F53" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G53" s="102">
+        <f>-PPMT($C$10,E53,$C$12,$L$6)</f>
+        <v>-9956.5410319975654</v>
+      </c>
+      <c r="H53" s="102">
+        <f>-IPMT($C$10,E53,$C$12,$L$6)</f>
+        <v>-2042.4589680024353</v>
+      </c>
+      <c r="I53" s="102">
+        <f t="shared" si="1"/>
+        <v>-12325.79343488039</v>
+      </c>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="27"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="101">
+        <v>49</v>
+      </c>
+      <c r="F54" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G54" s="102">
+        <f>-PPMT($C$10,E54,$C$12,$L$6)</f>
+        <v>-10031.13211856228</v>
+      </c>
+      <c r="H54" s="102">
+        <f>-IPMT($C$10,E54,$C$12,$L$6)</f>
+        <v>-1967.8678814377201</v>
+      </c>
+      <c r="I54" s="102">
+        <f t="shared" si="1"/>
+        <v>-12313.858861030036</v>
+      </c>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="27"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="101">
+        <v>50</v>
+      </c>
+      <c r="F55" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G55" s="102">
+        <f>-PPMT($C$10,E55,$C$12,$L$6)</f>
+        <v>-10106.282016683841</v>
+      </c>
+      <c r="H55" s="102">
+        <f>-IPMT($C$10,E55,$C$12,$L$6)</f>
+        <v>-1892.7179833161574</v>
+      </c>
+      <c r="I55" s="102">
+        <f t="shared" si="1"/>
+        <v>-12301.834877330584</v>
+      </c>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="27"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="101">
+        <v>51</v>
+      </c>
+      <c r="F56" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G56" s="102">
+        <f>-PPMT($C$10,E56,$C$12,$L$6)</f>
+        <v>-10181.994912792165</v>
+      </c>
+      <c r="H56" s="102">
+        <f>-IPMT($C$10,E56,$C$12,$L$6)</f>
+        <v>-1817.0050872078345</v>
+      </c>
+      <c r="I56" s="102">
+        <f t="shared" si="1"/>
+        <v>-12289.720813953252</v>
+      </c>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="27"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="101">
+        <v>52</v>
+      </c>
+      <c r="F57" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G57" s="102">
+        <f>-PPMT($C$10,E57,$C$12,$L$6)</f>
+        <v>-10258.275024680499</v>
+      </c>
+      <c r="H57" s="102">
+        <f>-IPMT($C$10,E57,$C$12,$L$6)</f>
+        <v>-1740.7249753194997</v>
+      </c>
+      <c r="I57" s="102">
+        <f t="shared" si="1"/>
+        <v>-12277.515996051119</v>
+      </c>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="27"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="101">
+        <v>53</v>
+      </c>
+      <c r="F58" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G58" s="102">
+        <f>-PPMT($C$10,E58,$C$12,$L$6)</f>
+        <v>-10335.1266017404</v>
+      </c>
+      <c r="H58" s="102">
+        <f>-IPMT($C$10,E58,$C$12,$L$6)</f>
+        <v>-1663.8733982596016</v>
+      </c>
+      <c r="I58" s="102">
+        <f t="shared" si="1"/>
+        <v>-12265.219743721536</v>
+      </c>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="27"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="101">
+        <v>54</v>
+      </c>
+      <c r="F59" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G59" s="102">
+        <f>-PPMT($C$10,E59,$C$12,$L$6)</f>
+        <v>-10412.553925198436</v>
+      </c>
+      <c r="H59" s="102">
+        <f>-IPMT($C$10,E59,$C$12,$L$6)</f>
+        <v>-1586.4460748015631</v>
+      </c>
+      <c r="I59" s="102">
+        <f t="shared" si="1"/>
+        <v>-12252.831371968248</v>
+      </c>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="27"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="101">
+        <v>55</v>
+      </c>
+      <c r="F60" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G60" s="102">
+        <f>-PPMT($C$10,E60,$C$12,$L$6)</f>
+        <v>-10490.561308354714</v>
+      </c>
+      <c r="H60" s="102">
+        <f>-IPMT($C$10,E60,$C$12,$L$6)</f>
+        <v>-1508.4386916452847</v>
+      </c>
+      <c r="I60" s="102">
+        <f t="shared" si="1"/>
+        <v>-12240.350190663245</v>
+      </c>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="27"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="101">
+        <v>56</v>
+      </c>
+      <c r="F61" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G61" s="102">
+        <f>-PPMT($C$10,E61,$C$12,$L$6)</f>
+        <v>-10569.15309682314</v>
+      </c>
+      <c r="H61" s="102">
+        <f>-IPMT($C$10,E61,$C$12,$L$6)</f>
+        <v>-1429.8469031768609</v>
+      </c>
+      <c r="I61" s="102">
+        <f t="shared" si="1"/>
+        <v>-12227.775504508299</v>
+      </c>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="27"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="101">
+        <v>57</v>
+      </c>
+      <c r="F62" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G62" s="102">
+        <f>-PPMT($C$10,E62,$C$12,$L$6)</f>
+        <v>-10648.333668773506</v>
+      </c>
+      <c r="H62" s="102">
+        <f>-IPMT($C$10,E62,$C$12,$L$6)</f>
+        <v>-1350.6663312264943</v>
+      </c>
+      <c r="I62" s="102">
+        <f t="shared" si="1"/>
+        <v>-12215.10661299624</v>
+      </c>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="27"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="101">
+        <v>58</v>
+      </c>
+      <c r="F63" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G63" s="102">
+        <f>-PPMT($C$10,E63,$C$12,$L$6)</f>
+        <v>-10728.107435175401</v>
+      </c>
+      <c r="H63" s="102">
+        <f>-IPMT($C$10,E63,$C$12,$L$6)</f>
+        <v>-1270.8925648245995</v>
+      </c>
+      <c r="I63" s="102">
+        <f t="shared" si="1"/>
+        <v>-12202.342810371936</v>
+      </c>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="27"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="101">
+        <v>59</v>
+      </c>
+      <c r="F64" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G64" s="102">
+        <f>-PPMT($C$10,E64,$C$12,$L$6)</f>
+        <v>-10808.478840043923</v>
+      </c>
+      <c r="H64" s="102">
+        <f>-IPMT($C$10,E64,$C$12,$L$6)</f>
+        <v>-1190.5211599560771</v>
+      </c>
+      <c r="I64" s="102">
+        <f t="shared" si="1"/>
+        <v>-12189.483385592972</v>
+      </c>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="27"/>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="101">
+        <v>60</v>
+      </c>
+      <c r="F65" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G65" s="102">
+        <f>-PPMT($C$10,E65,$C$12,$L$6)</f>
+        <v>-10889.452360687254</v>
+      </c>
+      <c r="H65" s="102">
+        <f>-IPMT($C$10,E65,$C$12,$L$6)</f>
+        <v>-1109.5476393127478</v>
+      </c>
+      <c r="I65" s="102">
+        <f t="shared" si="1"/>
+        <v>-12176.527622290041</v>
+      </c>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="27"/>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="101">
+        <v>61</v>
+      </c>
+      <c r="F66" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G66" s="102">
+        <f>-PPMT($C$10,E66,$C$12,$L$6)</f>
+        <v>-10971.032507956066</v>
+      </c>
+      <c r="H66" s="102">
+        <f>-IPMT($C$10,E66,$C$12,$L$6)</f>
+        <v>-1027.9674920439327</v>
+      </c>
+      <c r="I66" s="102">
+        <f t="shared" si="1"/>
+        <v>-12163.474798727028</v>
+      </c>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="27"/>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="101">
+        <v>62</v>
+      </c>
+      <c r="F67" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G67" s="102">
+        <f>-PPMT($C$10,E67,$C$12,$L$6)</f>
+        <v>-11053.223826494837</v>
+      </c>
+      <c r="H67" s="102">
+        <f>-IPMT($C$10,E67,$C$12,$L$6)</f>
+        <v>-945.77617350516175</v>
+      </c>
+      <c r="I67" s="102">
+        <f t="shared" si="1"/>
+        <v>-12150.324187760825</v>
+      </c>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="27"/>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="101">
+        <v>63</v>
+      </c>
+      <c r="F68" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G68" s="102">
+        <f>-PPMT($C$10,E68,$C$12,$L$6)</f>
+        <v>-11136.030894994996</v>
+      </c>
+      <c r="H68" s="102">
+        <f>-IPMT($C$10,E68,$C$12,$L$6)</f>
+        <v>-862.96910500500439</v>
+      </c>
+      <c r="I68" s="102">
+        <f t="shared" si="1"/>
+        <v>-12137.075056800801</v>
+      </c>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="27"/>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="101">
+        <v>64</v>
+      </c>
+      <c r="F69" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G69" s="102">
+        <f>-PPMT($C$10,E69,$C$12,$L$6)</f>
+        <v>-11219.45832645</v>
+      </c>
+      <c r="H69" s="102">
+        <f>-IPMT($C$10,E69,$C$12,$L$6)</f>
+        <v>-779.54167355000027</v>
+      </c>
+      <c r="I69" s="102">
+        <f t="shared" si="1"/>
+        <v>-12123.726667768</v>
+      </c>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="27"/>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="101">
+        <v>65</v>
+      </c>
+      <c r="F70" s="102">
+        <f t="shared" si="0"/>
+        <v>-11999</v>
+      </c>
+      <c r="G70" s="102">
+        <f>-PPMT($C$10,E70,$C$12,$L$6)</f>
+        <v>-11303.51076841232</v>
+      </c>
+      <c r="H70" s="102">
+        <f>-IPMT($C$10,E70,$C$12,$L$6)</f>
+        <v>-695.48923158767911</v>
+      </c>
+      <c r="I70" s="102">
+        <f t="shared" si="1"/>
+        <v>-12110.278277054027</v>
+      </c>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="27"/>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="101">
+        <v>66</v>
+      </c>
+      <c r="F71" s="102">
+        <f t="shared" ref="F71:F77" si="2">$C$5</f>
+        <v>-11999</v>
+      </c>
+      <c r="G71" s="102">
+        <f>-PPMT($C$10,E71,$C$12,$L$6)</f>
+        <v>-11388.192903252342</v>
+      </c>
+      <c r="H71" s="102">
+        <f>-IPMT($C$10,E71,$C$12,$L$6)</f>
+        <v>-610.80709674765683</v>
+      </c>
+      <c r="I71" s="102">
+        <f t="shared" ref="I71:I77" si="3">G71+1.16*H71</f>
+        <v>-12096.729135479623</v>
+      </c>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="27"/>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="101">
+        <v>67</v>
+      </c>
+      <c r="F72" s="102">
         <f t="shared" si="2"/>
-        <v>-4775.8672724547596</v>
-      </c>
-      <c r="J10" s="25">
+        <v>-11999</v>
+      </c>
+      <c r="G72" s="102">
+        <f>-PPMT($C$10,E72,$C$12,$L$6)</f>
+        <v>-11473.509448419209</v>
+      </c>
+      <c r="H72" s="102">
+        <f>-IPMT($C$10,E72,$C$12,$L$6)</f>
+        <v>-525.49055158079148</v>
+      </c>
+      <c r="I72" s="102">
         <f t="shared" si="3"/>
-        <v>-12763.13876359276</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="36"/>
-    </row>
-    <row r="11" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="44">
-        <v>0.16</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H11" s="25">
-        <f t="shared" si="1"/>
-        <v>-7277.2460302291001</v>
-      </c>
-      <c r="I11" s="25">
+        <v>-12083.078488252926</v>
+      </c>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="27"/>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="101">
+        <v>68</v>
+      </c>
+      <c r="F73" s="102">
         <f t="shared" si="2"/>
-        <v>-4721.7539697708989</v>
-      </c>
-      <c r="J11" s="25">
+        <v>-11999</v>
+      </c>
+      <c r="G73" s="102">
+        <f>-PPMT($C$10,E73,$C$12,$L$6)</f>
+        <v>-11559.465156703616</v>
+      </c>
+      <c r="H73" s="102">
+        <f>-IPMT($C$10,E73,$C$12,$L$6)</f>
+        <v>-439.53484329638411</v>
+      </c>
+      <c r="I73" s="102">
         <f t="shared" si="3"/>
-        <v>-12754.480635163342</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="2">
+        <v>-12069.325574927421</v>
+      </c>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="27"/>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="101">
+        <v>69</v>
+      </c>
+      <c r="F74" s="102">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G74" s="102">
+        <f>-PPMT($C$10,E74,$C$12,$L$6)</f>
+        <v>-11646.064816502587</v>
+      </c>
+      <c r="H74" s="102">
+        <f>-IPMT($C$10,E74,$C$12,$L$6)</f>
+        <v>-352.93518349741288</v>
+      </c>
+      <c r="I74" s="102">
+        <f t="shared" si="3"/>
+        <v>-12055.469629359586</v>
+      </c>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="27"/>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="101">
+        <v>70</v>
+      </c>
+      <c r="F75" s="102">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G75" s="102">
+        <f>-PPMT($C$10,E75,$C$12,$L$6)</f>
+        <v>-11733.313252086218</v>
+      </c>
+      <c r="H75" s="102">
+        <f>-IPMT($C$10,E75,$C$12,$L$6)</f>
+        <v>-265.68674791378106</v>
+      </c>
+      <c r="I75" s="102">
+        <f t="shared" si="3"/>
+        <v>-12041.509879666204</v>
+      </c>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="27"/>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="101">
+        <v>71</v>
+      </c>
+      <c r="F76" s="102">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G76" s="102">
+        <f>-PPMT($C$10,E76,$C$12,$L$6)</f>
+        <v>-11821.21532386643</v>
+      </c>
+      <c r="H76" s="102">
+        <f>-IPMT($C$10,E76,$C$12,$L$6)</f>
+        <v>-177.78467613356841</v>
+      </c>
+      <c r="I76" s="102">
+        <f t="shared" si="3"/>
+        <v>-12027.445548181369</v>
+      </c>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="27"/>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="101">
         <v>72</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="25"/>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H12" s="25">
-        <f t="shared" si="1"/>
-        <v>-7331.764731738901</v>
-      </c>
-      <c r="I12" s="25">
+      <c r="F77" s="102">
         <f t="shared" si="2"/>
-        <v>-4667.235268261099</v>
-      </c>
-      <c r="J12" s="25">
+        <v>-11999</v>
+      </c>
+      <c r="G77" s="102">
+        <f>-PPMT($C$10,E77,$C$12,$L$6)</f>
+        <v>-11909.77592866773</v>
+      </c>
+      <c r="H77" s="102">
+        <f>-IPMT($C$10,E77,$C$12,$L$6)</f>
+        <v>-89.224071332269105</v>
+      </c>
+      <c r="I77" s="102">
         <f t="shared" si="3"/>
-        <v>-12745.757642921775</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="36"/>
-    </row>
-    <row r="13" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="25"/>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H13" s="25">
-        <f t="shared" si="1"/>
-        <v>-7386.6918691875107</v>
-      </c>
-      <c r="I13" s="25">
-        <f t="shared" si="2"/>
-        <v>-4612.3081308124893</v>
-      </c>
-      <c r="J13" s="25">
-        <f t="shared" si="3"/>
-        <v>-12736.969300929999</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="36"/>
-    </row>
-    <row r="14" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="25"/>
-      <c r="F14">
-        <v>9</v>
-      </c>
-      <c r="G14" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H14" s="25">
-        <f t="shared" si="1"/>
-        <v>-7442.0305024408399</v>
-      </c>
-      <c r="I14" s="25">
-        <f t="shared" si="2"/>
-        <v>-4556.9694975591592</v>
-      </c>
-      <c r="J14" s="25">
-        <f t="shared" si="3"/>
-        <v>-12728.115119609465</v>
-      </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="36"/>
-    </row>
-    <row r="15" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="25"/>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H15" s="25">
-        <f t="shared" si="1"/>
-        <v>-7497.7837142882927</v>
-      </c>
-      <c r="I15" s="25">
-        <f t="shared" si="2"/>
-        <v>-4501.2162857117073</v>
-      </c>
-      <c r="J15" s="25">
-        <f t="shared" si="3"/>
-        <v>-12719.194605713874</v>
-      </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="36"/>
-    </row>
-    <row r="16" spans="2:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="25"/>
-      <c r="F16">
-        <v>11</v>
-      </c>
-      <c r="G16" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H16" s="25">
-        <f t="shared" si="1"/>
-        <v>-7553.9546106145026</v>
-      </c>
-      <c r="I16" s="25">
-        <f t="shared" si="2"/>
-        <v>-4445.0453893854965</v>
-      </c>
-      <c r="J16" s="25">
-        <f t="shared" si="3"/>
-        <v>-12710.207262301679</v>
-      </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="36"/>
-    </row>
-    <row r="17" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="25"/>
-      <c r="F17">
-        <v>12</v>
-      </c>
-      <c r="G17" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H17" s="25">
-        <f t="shared" si="1"/>
-        <v>-7610.5463205723563</v>
-      </c>
-      <c r="I17" s="25">
-        <f t="shared" si="2"/>
-        <v>-4388.4536794276437</v>
-      </c>
-      <c r="J17" s="25">
-        <f t="shared" si="3"/>
-        <v>-12701.152588708423</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="36"/>
-    </row>
-    <row r="18" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="25"/>
-      <c r="F18">
-        <v>13</v>
-      </c>
-      <c r="G18" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H18" s="25">
-        <f t="shared" si="1"/>
-        <v>-7667.5619967573102</v>
-      </c>
-      <c r="I18" s="25">
-        <f t="shared" si="2"/>
-        <v>-4331.4380032426898</v>
-      </c>
-      <c r="J18" s="25">
-        <f t="shared" si="3"/>
-        <v>-12692.030080518831</v>
-      </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="36"/>
-    </row>
-    <row r="19" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="25"/>
-      <c r="F19">
-        <v>14</v>
-      </c>
-      <c r="G19" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H19" s="25">
-        <f t="shared" si="1"/>
-        <v>-7725.0048153830176</v>
-      </c>
-      <c r="I19" s="25">
-        <f t="shared" si="2"/>
-        <v>-4273.9951846169824</v>
-      </c>
-      <c r="J19" s="25">
-        <f t="shared" si="3"/>
-        <v>-12682.839229538717</v>
-      </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="36"/>
-    </row>
-    <row r="20" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="25"/>
-      <c r="F20">
-        <v>15</v>
-      </c>
-      <c r="G20" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H20" s="25">
-        <f t="shared" si="1"/>
-        <v>-7782.8779764582623</v>
-      </c>
-      <c r="I20" s="25">
-        <f t="shared" si="2"/>
-        <v>-4216.1220235417368</v>
-      </c>
-      <c r="J20" s="25">
-        <f t="shared" si="3"/>
-        <v>-12673.579523766677</v>
-      </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="36"/>
-    </row>
-    <row r="21" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="25"/>
-      <c r="F21">
-        <v>16</v>
-      </c>
-      <c r="G21" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H21" s="25">
-        <f t="shared" si="1"/>
-        <v>-7841.1847039652284</v>
-      </c>
-      <c r="I21" s="25">
-        <f t="shared" si="2"/>
-        <v>-4157.8152960347707</v>
-      </c>
-      <c r="J21" s="25">
-        <f t="shared" si="3"/>
-        <v>-12664.250447365561</v>
-      </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="36"/>
-    </row>
-    <row r="22" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="25"/>
-      <c r="F22">
-        <v>17</v>
-      </c>
-      <c r="G22" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H22" s="25">
-        <f t="shared" si="1"/>
-        <v>-7899.9282460391014</v>
-      </c>
-      <c r="I22" s="25">
-        <f t="shared" si="2"/>
-        <v>-4099.0717539608986</v>
-      </c>
-      <c r="J22" s="25">
-        <f t="shared" si="3"/>
-        <v>-12654.851480633744</v>
-      </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="36"/>
-    </row>
-    <row r="23" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="25"/>
-      <c r="F23">
-        <v>18</v>
-      </c>
-      <c r="G23" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H23" s="25">
-        <f t="shared" si="1"/>
-        <v>-7959.1118751490112</v>
-      </c>
-      <c r="I23" s="25">
-        <f t="shared" si="2"/>
-        <v>-4039.8881248509879</v>
-      </c>
-      <c r="J23" s="25">
-        <f t="shared" si="3"/>
-        <v>-12645.382099976156</v>
-      </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="36"/>
-    </row>
-    <row r="24" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="25"/>
-      <c r="F24">
-        <v>19</v>
-      </c>
-      <c r="G24" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H24" s="25">
-        <f t="shared" si="1"/>
-        <v>-8018.7388882803361</v>
-      </c>
-      <c r="I24" s="25">
-        <f t="shared" si="2"/>
-        <v>-3980.2611117196639</v>
-      </c>
-      <c r="J24" s="25">
-        <f t="shared" si="3"/>
-        <v>-12635.841777875146</v>
-      </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="36"/>
-    </row>
-    <row r="25" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="25"/>
-      <c r="F25">
-        <v>20</v>
-      </c>
-      <c r="G25" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H25" s="25">
-        <f t="shared" si="1"/>
-        <v>-8078.8126071183688</v>
-      </c>
-      <c r="I25" s="25">
-        <f t="shared" si="2"/>
-        <v>-3920.1873928816303</v>
-      </c>
-      <c r="J25" s="25">
-        <f t="shared" si="3"/>
-        <v>-12626.229982861059</v>
-      </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="36"/>
-    </row>
-    <row r="26" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="25"/>
-      <c r="F26">
-        <v>21</v>
-      </c>
-      <c r="G26" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H26" s="25">
-        <f t="shared" si="1"/>
-        <v>-8139.3363782333636</v>
-      </c>
-      <c r="I26" s="25">
-        <f t="shared" si="2"/>
-        <v>-3859.6636217666351</v>
-      </c>
-      <c r="J26" s="25">
-        <f t="shared" si="3"/>
-        <v>-12616.546179482659</v>
-      </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="36"/>
-    </row>
-    <row r="27" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="25"/>
-      <c r="F27">
-        <v>22</v>
-      </c>
-      <c r="G27" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H27" s="25">
-        <f t="shared" si="1"/>
-        <v>-8200.3135732669634</v>
-      </c>
-      <c r="I27" s="25">
-        <f t="shared" si="2"/>
-        <v>-3798.686426733037</v>
-      </c>
-      <c r="J27" s="25">
-        <f t="shared" si="3"/>
-        <v>-12606.789828277286</v>
-      </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="36"/>
-    </row>
-    <row r="28" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="25"/>
-      <c r="F28">
-        <v>23</v>
-      </c>
-      <c r="G28" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H28" s="25">
-        <f t="shared" si="1"/>
-        <v>-8261.7475891200211</v>
-      </c>
-      <c r="I28" s="25">
-        <f t="shared" si="2"/>
-        <v>-3737.2524108799789</v>
-      </c>
-      <c r="J28" s="25">
-        <f t="shared" si="3"/>
-        <v>-12596.960385740796</v>
-      </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="36"/>
-    </row>
-    <row r="29" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="25"/>
-      <c r="F29">
-        <v>24</v>
-      </c>
-      <c r="G29" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H29" s="25">
-        <f t="shared" si="1"/>
-        <v>-8323.6418481418459</v>
-      </c>
-      <c r="I29" s="25">
-        <f t="shared" si="2"/>
-        <v>-3675.358151858155</v>
-      </c>
-      <c r="J29" s="25">
-        <f t="shared" si="3"/>
-        <v>-12587.057304297305</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="36"/>
-    </row>
-    <row r="30" spans="3:13" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="25"/>
-      <c r="F30">
-        <v>25</v>
-      </c>
-      <c r="G30" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H30" s="25">
-        <f t="shared" si="1"/>
-        <v>-8385.9997983208414</v>
-      </c>
-      <c r="I30" s="25">
-        <f t="shared" si="2"/>
-        <v>-3613.0002016791586</v>
-      </c>
-      <c r="J30" s="25">
-        <f t="shared" si="3"/>
-        <v>-12577.080032268666</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="36"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="25"/>
-      <c r="F31">
-        <v>26</v>
-      </c>
-      <c r="G31" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H31" s="25">
-        <f t="shared" si="1"/>
-        <v>-8448.8249134765956</v>
-      </c>
-      <c r="I31" s="25">
-        <f t="shared" si="2"/>
-        <v>-3550.1750865234048</v>
-      </c>
-      <c r="J31" s="25">
-        <f t="shared" si="3"/>
-        <v>-12567.028013843745</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="36"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="25"/>
-      <c r="F32">
-        <v>27</v>
-      </c>
-      <c r="G32" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H32" s="25">
-        <f t="shared" si="1"/>
-        <v>-8512.1206934533893</v>
-      </c>
-      <c r="I32" s="25">
-        <f t="shared" si="2"/>
-        <v>-3486.8793065466102</v>
-      </c>
-      <c r="J32" s="25">
-        <f t="shared" si="3"/>
-        <v>-12556.900689047457</v>
-      </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="36"/>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="25"/>
-      <c r="F33">
-        <v>28</v>
-      </c>
-      <c r="G33" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H33" s="25">
-        <f t="shared" si="1"/>
-        <v>-8575.8906643151786</v>
-      </c>
-      <c r="I33" s="25">
-        <f t="shared" si="2"/>
-        <v>-3423.109335684821</v>
-      </c>
-      <c r="J33" s="25">
-        <f t="shared" si="3"/>
-        <v>-12546.697493709571</v>
-      </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="36"/>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="25"/>
-      <c r="F34">
-        <v>29</v>
-      </c>
-      <c r="G34" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H34" s="25">
-        <f t="shared" si="1"/>
-        <v>-8640.1383785420057</v>
-      </c>
-      <c r="I34" s="25">
-        <f t="shared" si="2"/>
-        <v>-3358.8616214579929</v>
-      </c>
-      <c r="J34" s="25">
-        <f t="shared" si="3"/>
-        <v>-12536.417859433277</v>
-      </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="36"/>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="25"/>
-      <c r="F35">
-        <v>30</v>
-      </c>
-      <c r="G35" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H35" s="25">
-        <f t="shared" si="1"/>
-        <v>-8704.8674152279164</v>
-      </c>
-      <c r="I35" s="25">
-        <f t="shared" si="2"/>
-        <v>-3294.1325847720832</v>
-      </c>
-      <c r="J35" s="25">
-        <f t="shared" si="3"/>
-        <v>-12526.061213563533</v>
-      </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="36"/>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="25"/>
-      <c r="F36">
-        <v>31</v>
-      </c>
-      <c r="G36" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H36" s="25">
-        <f t="shared" si="1"/>
-        <v>-8770.0813802803332</v>
-      </c>
-      <c r="I36" s="25">
-        <f t="shared" si="2"/>
-        <v>-3228.9186197196673</v>
-      </c>
-      <c r="J36" s="25">
-        <f t="shared" si="3"/>
-        <v>-12515.626979155148</v>
-      </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="36"/>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="25"/>
-      <c r="F37">
-        <v>32</v>
-      </c>
-      <c r="G37" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H37" s="25">
-        <f t="shared" si="1"/>
-        <v>-8835.7839066209326</v>
-      </c>
-      <c r="I37" s="25">
-        <f t="shared" si="2"/>
-        <v>-3163.2160933790674</v>
-      </c>
-      <c r="J37" s="25">
-        <f t="shared" si="3"/>
-        <v>-12505.11457494065</v>
-      </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="36"/>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="25"/>
-      <c r="F38">
-        <v>33</v>
-      </c>
-      <c r="G38" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H38" s="25">
-        <f t="shared" si="1"/>
-        <v>-8901.9786543880346</v>
-      </c>
-      <c r="I38" s="25">
-        <f t="shared" si="2"/>
-        <v>-3097.0213456119645</v>
-      </c>
-      <c r="J38" s="25">
-        <f t="shared" si="3"/>
-        <v>-12494.523415297914</v>
-      </c>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="36"/>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="25"/>
-      <c r="F39">
-        <v>34</v>
-      </c>
-      <c r="G39" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H39" s="25">
-        <f t="shared" si="1"/>
-        <v>-8968.6693111404929</v>
-      </c>
-      <c r="I39" s="25">
-        <f t="shared" si="2"/>
-        <v>-3030.330688859508</v>
-      </c>
-      <c r="J39" s="25">
-        <f t="shared" si="3"/>
-        <v>-12483.852910217522</v>
-      </c>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="36"/>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="25"/>
-      <c r="F40">
-        <v>35</v>
-      </c>
-      <c r="G40" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H40" s="25">
-        <f t="shared" si="1"/>
-        <v>-9035.8595920631196</v>
-      </c>
-      <c r="I40" s="25">
-        <f t="shared" si="2"/>
-        <v>-2963.1404079368799</v>
-      </c>
-      <c r="J40" s="25">
-        <f t="shared" si="3"/>
-        <v>-12473.1024652699</v>
-      </c>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="36"/>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="25"/>
-      <c r="F41">
-        <v>36</v>
-      </c>
-      <c r="G41" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H41" s="25">
-        <f t="shared" si="1"/>
-        <v>-9103.55324017366</v>
-      </c>
-      <c r="I41" s="25">
-        <f t="shared" si="2"/>
-        <v>-2895.4467598263409</v>
-      </c>
-      <c r="J41" s="25">
-        <f t="shared" si="3"/>
-        <v>-12462.271481572216</v>
-      </c>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="36"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="25"/>
-      <c r="F42">
-        <v>37</v>
-      </c>
-      <c r="G42" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H42" s="25">
-        <f t="shared" si="1"/>
-        <v>-9171.7540265312928</v>
-      </c>
-      <c r="I42" s="25">
-        <f t="shared" si="2"/>
-        <v>-2827.2459734687063</v>
-      </c>
-      <c r="J42" s="25">
-        <f t="shared" si="3"/>
-        <v>-12451.359355754992</v>
-      </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="36"/>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="25"/>
-      <c r="F43">
-        <v>38</v>
-      </c>
-      <c r="G43" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H43" s="25">
-        <f t="shared" si="1"/>
-        <v>-9240.4657504467214</v>
-      </c>
-      <c r="I43" s="25">
-        <f t="shared" si="2"/>
-        <v>-2758.5342495532768</v>
-      </c>
-      <c r="J43" s="25">
-        <f t="shared" si="3"/>
-        <v>-12440.365479928521</v>
-      </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="36"/>
-    </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="25"/>
-      <c r="F44">
-        <v>39</v>
-      </c>
-      <c r="G44" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H44" s="25">
-        <f t="shared" si="1"/>
-        <v>-9309.6922396938189</v>
-      </c>
-      <c r="I44" s="25">
-        <f t="shared" si="2"/>
-        <v>-2689.3077603061797</v>
-      </c>
-      <c r="J44" s="25">
-        <f t="shared" si="3"/>
-        <v>-12429.289241648987</v>
-      </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="36"/>
-    </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="25"/>
-      <c r="F45">
-        <v>40</v>
-      </c>
-      <c r="G45" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H45" s="25">
-        <f t="shared" si="1"/>
-        <v>-9379.4373507228593</v>
-      </c>
-      <c r="I45" s="25">
-        <f t="shared" si="2"/>
-        <v>-2619.5626492771398</v>
-      </c>
-      <c r="J45" s="25">
-        <f t="shared" si="3"/>
-        <v>-12418.130023884341</v>
-      </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="36"/>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="25"/>
-      <c r="F46">
-        <v>41</v>
-      </c>
-      <c r="G46" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H46" s="25">
-        <f t="shared" si="1"/>
-        <v>-9449.7049688753577</v>
-      </c>
-      <c r="I46" s="25">
-        <f t="shared" si="2"/>
-        <v>-2549.2950311246414</v>
-      </c>
-      <c r="J46" s="25">
-        <f t="shared" si="3"/>
-        <v>-12406.887204979941</v>
-      </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="36"/>
-    </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="25"/>
-      <c r="F47">
-        <v>42</v>
-      </c>
-      <c r="G47" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H47" s="25">
-        <f t="shared" si="1"/>
-        <v>-9520.4990086005164</v>
-      </c>
-      <c r="I47" s="25">
-        <f t="shared" si="2"/>
-        <v>-2478.5009913994836</v>
-      </c>
-      <c r="J47" s="25">
-        <f t="shared" si="3"/>
-        <v>-12395.560158623917</v>
-      </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="36"/>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="25"/>
-      <c r="F48">
-        <v>43</v>
-      </c>
-      <c r="G48" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H48" s="25">
-        <f t="shared" si="1"/>
-        <v>-9591.8234136732826</v>
-      </c>
-      <c r="I48" s="25">
-        <f t="shared" si="2"/>
-        <v>-2407.1765863267178</v>
-      </c>
-      <c r="J48" s="25">
-        <f t="shared" si="3"/>
-        <v>-12384.148253812275</v>
-      </c>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="36"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="25"/>
-      <c r="F49">
-        <v>44</v>
-      </c>
-      <c r="G49" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H49" s="25">
-        <f t="shared" si="1"/>
-        <v>-9663.6821574140504</v>
-      </c>
-      <c r="I49" s="25">
-        <f t="shared" si="2"/>
-        <v>-2335.3178425859492</v>
-      </c>
-      <c r="J49" s="25">
-        <f t="shared" si="3"/>
-        <v>-12372.650854813752</v>
-      </c>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="36"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="25"/>
-      <c r="F50">
-        <v>45</v>
-      </c>
-      <c r="G50" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H50" s="25">
-        <f t="shared" si="1"/>
-        <v>-9736.0792429100111</v>
-      </c>
-      <c r="I50" s="25">
-        <f t="shared" si="2"/>
-        <v>-2262.9207570899894</v>
-      </c>
-      <c r="J50" s="25">
-        <f t="shared" si="3"/>
-        <v>-12361.067321134398</v>
-      </c>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="36"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="25"/>
-      <c r="F51">
-        <v>46</v>
-      </c>
-      <c r="G51" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H51" s="25">
-        <f t="shared" si="1"/>
-        <v>-9809.0187032381455</v>
-      </c>
-      <c r="I51" s="25">
-        <f t="shared" si="2"/>
-        <v>-2189.9812967618541</v>
-      </c>
-      <c r="J51" s="25">
-        <f t="shared" si="3"/>
-        <v>-12349.397007481895</v>
-      </c>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="36"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="25"/>
-      <c r="F52">
-        <v>47</v>
-      </c>
-      <c r="G52" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H52" s="25">
-        <f t="shared" si="1"/>
-        <v>-9882.504601689905</v>
-      </c>
-      <c r="I52" s="25">
-        <f t="shared" si="2"/>
-        <v>-2116.4953983100954</v>
-      </c>
-      <c r="J52" s="25">
-        <f t="shared" si="3"/>
-        <v>-12337.639263729616</v>
-      </c>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="25"/>
-      <c r="F53">
-        <v>48</v>
-      </c>
-      <c r="G53" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H53" s="25">
-        <f t="shared" si="1"/>
-        <v>-9956.5410319975654</v>
-      </c>
-      <c r="I53" s="25">
-        <f t="shared" si="2"/>
-        <v>-2042.4589680024353</v>
-      </c>
-      <c r="J53" s="25">
-        <f t="shared" si="3"/>
-        <v>-12325.79343488039</v>
-      </c>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="36"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="25"/>
-      <c r="F54">
-        <v>49</v>
-      </c>
-      <c r="G54" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H54" s="25">
-        <f t="shared" si="1"/>
-        <v>-10031.13211856228</v>
-      </c>
-      <c r="I54" s="25">
-        <f t="shared" si="2"/>
-        <v>-1967.8678814377201</v>
-      </c>
-      <c r="J54" s="25">
-        <f t="shared" si="3"/>
-        <v>-12313.858861030036</v>
-      </c>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="36"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="25"/>
-      <c r="F55">
-        <v>50</v>
-      </c>
-      <c r="G55" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H55" s="25">
-        <f t="shared" si="1"/>
-        <v>-10106.282016683841</v>
-      </c>
-      <c r="I55" s="25">
-        <f t="shared" si="2"/>
-        <v>-1892.7179833161574</v>
-      </c>
-      <c r="J55" s="25">
-        <f t="shared" si="3"/>
-        <v>-12301.834877330584</v>
-      </c>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="36"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="25"/>
-      <c r="F56">
-        <v>51</v>
-      </c>
-      <c r="G56" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H56" s="25">
-        <f t="shared" si="1"/>
-        <v>-10181.994912792165</v>
-      </c>
-      <c r="I56" s="25">
-        <f t="shared" si="2"/>
-        <v>-1817.0050872078345</v>
-      </c>
-      <c r="J56" s="25">
-        <f t="shared" si="3"/>
-        <v>-12289.720813953252</v>
-      </c>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="36"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="25"/>
-      <c r="F57">
-        <v>52</v>
-      </c>
-      <c r="G57" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H57" s="25">
-        <f t="shared" si="1"/>
-        <v>-10258.275024680499</v>
-      </c>
-      <c r="I57" s="25">
-        <f t="shared" si="2"/>
-        <v>-1740.7249753194997</v>
-      </c>
-      <c r="J57" s="25">
-        <f t="shared" si="3"/>
-        <v>-12277.515996051119</v>
-      </c>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="36"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="25"/>
-      <c r="F58">
-        <v>53</v>
-      </c>
-      <c r="G58" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H58" s="25">
-        <f t="shared" si="1"/>
-        <v>-10335.1266017404</v>
-      </c>
-      <c r="I58" s="25">
-        <f t="shared" si="2"/>
-        <v>-1663.8733982596016</v>
-      </c>
-      <c r="J58" s="25">
-        <f t="shared" si="3"/>
-        <v>-12265.219743721536</v>
-      </c>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="36"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="25"/>
-      <c r="F59">
-        <v>54</v>
-      </c>
-      <c r="G59" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H59" s="25">
-        <f t="shared" si="1"/>
-        <v>-10412.553925198436</v>
-      </c>
-      <c r="I59" s="25">
-        <f t="shared" si="2"/>
-        <v>-1586.4460748015631</v>
-      </c>
-      <c r="J59" s="25">
-        <f t="shared" si="3"/>
-        <v>-12252.831371968248</v>
-      </c>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="36"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="25"/>
-      <c r="F60">
-        <v>55</v>
-      </c>
-      <c r="G60" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H60" s="25">
-        <f t="shared" si="1"/>
-        <v>-10490.561308354714</v>
-      </c>
-      <c r="I60" s="25">
-        <f t="shared" si="2"/>
-        <v>-1508.4386916452847</v>
-      </c>
-      <c r="J60" s="25">
-        <f t="shared" si="3"/>
-        <v>-12240.350190663245</v>
-      </c>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="36"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="25"/>
-      <c r="F61">
-        <v>56</v>
-      </c>
-      <c r="G61" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H61" s="25">
-        <f t="shared" si="1"/>
-        <v>-10569.15309682314</v>
-      </c>
-      <c r="I61" s="25">
-        <f t="shared" si="2"/>
-        <v>-1429.8469031768609</v>
-      </c>
-      <c r="J61" s="25">
-        <f t="shared" si="3"/>
-        <v>-12227.775504508299</v>
-      </c>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="36"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="25"/>
-      <c r="F62">
-        <v>57</v>
-      </c>
-      <c r="G62" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H62" s="25">
-        <f t="shared" si="1"/>
-        <v>-10648.333668773506</v>
-      </c>
-      <c r="I62" s="25">
-        <f t="shared" si="2"/>
-        <v>-1350.6663312264943</v>
-      </c>
-      <c r="J62" s="25">
-        <f t="shared" si="3"/>
-        <v>-12215.10661299624</v>
-      </c>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="36"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="25"/>
-      <c r="F63">
-        <v>58</v>
-      </c>
-      <c r="G63" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H63" s="25">
-        <f t="shared" si="1"/>
-        <v>-10728.107435175401</v>
-      </c>
-      <c r="I63" s="25">
-        <f t="shared" si="2"/>
-        <v>-1270.8925648245995</v>
-      </c>
-      <c r="J63" s="25">
-        <f t="shared" si="3"/>
-        <v>-12202.342810371936</v>
-      </c>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="36"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="25"/>
-      <c r="F64">
-        <v>59</v>
-      </c>
-      <c r="G64" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H64" s="25">
-        <f t="shared" si="1"/>
-        <v>-10808.478840043923</v>
-      </c>
-      <c r="I64" s="25">
-        <f t="shared" si="2"/>
-        <v>-1190.5211599560771</v>
-      </c>
-      <c r="J64" s="25">
-        <f t="shared" si="3"/>
-        <v>-12189.483385592972</v>
-      </c>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="36"/>
-    </row>
-    <row r="65" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="25"/>
-      <c r="F65">
-        <v>60</v>
-      </c>
-      <c r="G65" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H65" s="25">
-        <f t="shared" si="1"/>
-        <v>-10889.452360687254</v>
-      </c>
-      <c r="I65" s="25">
-        <f t="shared" si="2"/>
-        <v>-1109.5476393127478</v>
-      </c>
-      <c r="J65" s="25">
-        <f t="shared" si="3"/>
-        <v>-12176.527622290041</v>
-      </c>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="36"/>
-    </row>
-    <row r="66" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="25"/>
-      <c r="F66">
-        <v>61</v>
-      </c>
-      <c r="G66" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H66" s="25">
-        <f t="shared" si="1"/>
-        <v>-10971.032507956066</v>
-      </c>
-      <c r="I66" s="25">
-        <f t="shared" si="2"/>
-        <v>-1027.9674920439327</v>
-      </c>
-      <c r="J66" s="25">
-        <f t="shared" si="3"/>
-        <v>-12163.474798727028</v>
-      </c>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="36"/>
-    </row>
-    <row r="67" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="25"/>
-      <c r="F67">
-        <v>62</v>
-      </c>
-      <c r="G67" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H67" s="25">
-        <f t="shared" si="1"/>
-        <v>-11053.223826494837</v>
-      </c>
-      <c r="I67" s="25">
-        <f t="shared" si="2"/>
-        <v>-945.77617350516175</v>
-      </c>
-      <c r="J67" s="25">
-        <f t="shared" si="3"/>
-        <v>-12150.324187760825</v>
-      </c>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="36"/>
-    </row>
-    <row r="68" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="25"/>
-      <c r="F68">
-        <v>63</v>
-      </c>
-      <c r="G68" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H68" s="25">
-        <f t="shared" si="1"/>
-        <v>-11136.030894994996</v>
-      </c>
-      <c r="I68" s="25">
-        <f t="shared" si="2"/>
-        <v>-862.96910500500439</v>
-      </c>
-      <c r="J68" s="25">
-        <f t="shared" si="3"/>
-        <v>-12137.075056800801</v>
-      </c>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="36"/>
-    </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="25"/>
-      <c r="F69">
-        <v>64</v>
-      </c>
-      <c r="G69" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H69" s="25">
-        <f t="shared" si="1"/>
-        <v>-11219.45832645</v>
-      </c>
-      <c r="I69" s="25">
-        <f t="shared" si="2"/>
-        <v>-779.54167355000027</v>
-      </c>
-      <c r="J69" s="25">
-        <f t="shared" si="3"/>
-        <v>-12123.726667768</v>
-      </c>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="36"/>
-    </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="25"/>
-      <c r="F70">
-        <v>65</v>
-      </c>
-      <c r="G70" s="25">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="H70" s="25">
-        <f t="shared" si="1"/>
-        <v>-11303.51076841232</v>
-      </c>
-      <c r="I70" s="25">
-        <f t="shared" si="2"/>
-        <v>-695.48923158767911</v>
-      </c>
-      <c r="J70" s="25">
-        <f t="shared" si="3"/>
-        <v>-12110.278277054027</v>
-      </c>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="36"/>
-    </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="25"/>
-      <c r="F71">
-        <v>66</v>
-      </c>
-      <c r="G71" s="25">
-        <f t="shared" ref="G71:G77" si="4">$C$5</f>
-        <v>-11999</v>
-      </c>
-      <c r="H71" s="25">
-        <f t="shared" ref="H71:H77" si="5">-PPMT($C$10,F71,$C$12,$M$6)</f>
-        <v>-11388.192903252342</v>
-      </c>
-      <c r="I71" s="25">
-        <f t="shared" ref="I71:I77" si="6">-IPMT($C$10,F71,$C$12,$M$6)</f>
-        <v>-610.80709674765683</v>
-      </c>
-      <c r="J71" s="25">
-        <f t="shared" ref="J71:J77" si="7">H71+1.16*I71</f>
-        <v>-12096.729135479623</v>
-      </c>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="36"/>
-    </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="25"/>
-      <c r="F72">
-        <v>67</v>
-      </c>
-      <c r="G72" s="25">
-        <f t="shared" si="4"/>
-        <v>-11999</v>
-      </c>
-      <c r="H72" s="25">
-        <f t="shared" si="5"/>
-        <v>-11473.509448419209</v>
-      </c>
-      <c r="I72" s="25">
-        <f t="shared" si="6"/>
-        <v>-525.49055158079148</v>
-      </c>
-      <c r="J72" s="25">
-        <f t="shared" si="7"/>
-        <v>-12083.078488252926</v>
-      </c>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="36"/>
-    </row>
-    <row r="73" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="25"/>
-      <c r="F73">
-        <v>68</v>
-      </c>
-      <c r="G73" s="25">
-        <f t="shared" si="4"/>
-        <v>-11999</v>
-      </c>
-      <c r="H73" s="25">
-        <f t="shared" si="5"/>
-        <v>-11559.465156703616</v>
-      </c>
-      <c r="I73" s="25">
-        <f t="shared" si="6"/>
-        <v>-439.53484329638411</v>
-      </c>
-      <c r="J73" s="25">
-        <f t="shared" si="7"/>
-        <v>-12069.325574927421</v>
-      </c>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="36"/>
-    </row>
-    <row r="74" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="25"/>
-      <c r="F74">
-        <v>69</v>
-      </c>
-      <c r="G74" s="25">
-        <f t="shared" si="4"/>
-        <v>-11999</v>
-      </c>
-      <c r="H74" s="25">
-        <f t="shared" si="5"/>
-        <v>-11646.064816502587</v>
-      </c>
-      <c r="I74" s="25">
-        <f t="shared" si="6"/>
-        <v>-352.93518349741288</v>
-      </c>
-      <c r="J74" s="25">
-        <f t="shared" si="7"/>
-        <v>-12055.469629359586</v>
-      </c>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="36"/>
-    </row>
-    <row r="75" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="25"/>
-      <c r="F75">
-        <v>70</v>
-      </c>
-      <c r="G75" s="25">
-        <f t="shared" si="4"/>
-        <v>-11999</v>
-      </c>
-      <c r="H75" s="25">
-        <f t="shared" si="5"/>
-        <v>-11733.313252086218</v>
-      </c>
-      <c r="I75" s="25">
-        <f t="shared" si="6"/>
-        <v>-265.68674791378106</v>
-      </c>
-      <c r="J75" s="25">
-        <f t="shared" si="7"/>
-        <v>-12041.509879666204</v>
-      </c>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="36"/>
-    </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="25"/>
-      <c r="F76">
-        <v>71</v>
-      </c>
-      <c r="G76" s="25">
-        <f t="shared" si="4"/>
-        <v>-11999</v>
-      </c>
-      <c r="H76" s="25">
-        <f t="shared" si="5"/>
-        <v>-11821.21532386643</v>
-      </c>
-      <c r="I76" s="25">
-        <f t="shared" si="6"/>
-        <v>-177.78467613356841</v>
-      </c>
-      <c r="J76" s="25">
-        <f t="shared" si="7"/>
-        <v>-12027.445548181369</v>
-      </c>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="36"/>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="25"/>
-      <c r="F77">
-        <v>72</v>
-      </c>
-      <c r="G77" s="25">
-        <f t="shared" si="4"/>
-        <v>-11999</v>
-      </c>
-      <c r="H77" s="25">
-        <f t="shared" si="5"/>
-        <v>-11909.77592866773</v>
-      </c>
-      <c r="I77" s="25">
-        <f t="shared" si="6"/>
-        <v>-89.224071332269105</v>
-      </c>
-      <c r="J77" s="25">
-        <f t="shared" si="7"/>
         <v>-12013.275851413162</v>
       </c>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="36"/>
-    </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="25"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="36"/>
-    </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="36"/>
-    </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="36"/>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="27"/>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="27"/>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="20"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="27"/>
+    </row>
+    <row r="80" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="20"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="27"/>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="20"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="20"/>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K10:N17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Semestres/Other/Proyectos de Inversión/Casos Finales/Casos.xlsx
+++ b/Semestres/Other/Proyectos de Inversión/Casos Finales/Casos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scago\Documents\GitHub\IA_School\Semestres\Other\Proyectos de Inversión\Casos Finales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scago\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAB281F-3E06-45DA-9D62-FF45A5224897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0240F2E5-9458-4971-909C-E91178433B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" activeTab="5" xr2:uid="{DF7EAB89-8D33-4DCA-878B-1977CA593F3E}"/>
   </bookViews>
@@ -72,43 +72,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sara Carolina Gómez Delgado</author>
-  </authors>
-  <commentList>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{D4D2A116-A551-438F-B111-240064D576AD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sara Carolina Gómez Delgado:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Debería continuar con el negocio.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
   <si>
     <t xml:space="preserve">Reemplazo vieja maquinaria fresadora </t>
   </si>
@@ -149,9 +114,6 @@
     <t>(+/-)</t>
   </si>
   <si>
-    <t>año</t>
-  </si>
-  <si>
     <t>Unidades vendidas</t>
   </si>
   <si>
@@ -275,12 +237,6 @@
     <t>Préstamo</t>
   </si>
   <si>
-    <t>interés</t>
-  </si>
-  <si>
-    <t>impuesto</t>
-  </si>
-  <si>
     <t>TIR</t>
   </si>
   <si>
@@ -290,12 +246,6 @@
     <t>Pago intereses</t>
   </si>
   <si>
-    <t>Respuesta 2:</t>
-  </si>
-  <si>
-    <t>Te vas por el gas, dependiendo de si te conviene</t>
-  </si>
-  <si>
     <t>Opción nueva</t>
   </si>
   <si>
@@ -449,8 +399,291 @@
     <t>Valor total de los intereses</t>
   </si>
   <si>
+    <t>Compañía "TVEO"</t>
+  </si>
+  <si>
+    <t>Cementera</t>
+  </si>
+  <si>
+    <t>Camión de Volteo</t>
+  </si>
+  <si>
+    <t>Inv. Inicial</t>
+  </si>
+  <si>
+    <t>Interés</t>
+  </si>
+  <si>
     <r>
-      <t>La vieja máquina fresadora, actualmente deja una ganancia de $246,978.85 anualmente, lo cual suena bien. Sin embargo, al comparar con la nueva máquina fresadora, observamos cómo la ganancia asciende significativamente a $262,048.48 anualmente. Por lo mencionado anteriormente, podemos deducir que a la empresa maderera</t>
+      <t xml:space="preserve">Basado en el VNA Total, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se puede apreciar que utilizar máquinas pequeñas genera un ingreso mayor.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">La diferencia en tasa de rendimiento es significativamente mayor, incluso compensa el trabajo de añadir y comprar nuevas máquinas eventualmente. Cabe mencionar que irse por las máquinas pequeñas, representa un riesgo, debido a que se presume que habrá fondos suficientes para comprar máquinas extras dentro de 3 años. Sin embargo, el rendimiento esperado soporta el riesgo, ya que la diferencia en ganancia es decisiva para este análisis. De esta manera, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">la recomendación es comprar las máquinas pequeñas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ya que de esta manera se optimiza la producción y las ganancias.</t>
+    </r>
+  </si>
+  <si>
+    <t>Gasto combustible</t>
+  </si>
+  <si>
+    <r>
+      <t>Al analizar los gastos de las instalaciones por medio del costo anual es posible ver que</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> el periodo donde se optimiza la inversion es de 11 a 15 años</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, y debido a que el costo es el mismo, se recomienda sacar el máximo provecho de tal periodo, y esto se logra al mantener las instalaciones durante 15 años. Ahora bien, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>si deséaramos cambiar el combustible a gas, nos tiene que ofrecer un gasto de $20,000 anuales al igual que el carbón para que nos sea indiferente.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pero también se recomienda considerar que si representa un costo menor, sin duda conviene decantarse por esa alternativa. Por otro lado, si representa un gasto mayor, no debería rechazarse la alternativa de forma inmediata, ya que vale la pena considerar que se podría certificar el proyecto como uno eco-friendly y podría buscarse algún subsidio gubernamental que pueda mejorar la propuesta, además de que se convertirían en empresa socialmente responsable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En primer instancia, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>las ganancias del proyecto son significativamente mayores a las ofrecidas por CODELCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, y la tasa de rendimiento es mayor que la TREMA de Ian Silk, así que el primer pensamiento podría ser que de quedarse la mina, tendría los más grandes beneficios. Sin embargo es muy importante considerar toda la carga que conlleva administrar un proyecto de tales dimensiones, sin duda es muy demandante y representa quedarse atado a mantener el proyecto a flote por 5 años. Así que al pensar en eso, podría decirse que CODELCO no necesita igualar las ganancias de la mina, pero quizá nos sea redituable (considerando la ganancia del tiempo y esfuerzo) si mejora su oferta. Así que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vale la pena negociar de ser posible.</t>
+    </r>
+  </si>
+  <si>
+    <t>Impuesto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El análisis de este caso arroja que de quedarse con el negocio del camión de volteo, obtendría una tasa de rendimiento del 58.61% lo cuál es extraordinariamente bueno, igualar algo así resulta muy difícil y una negociación de su alternativa no iría del 20% a algo similar. Así que la recomendación es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sin duda continuar con el negocio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En base a la tabla de amortización y un análisis financiero, se puede calcular que el valor del </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tesla Model 3 según Santander es de $1,331,700 pesos mexicanos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y a lo largo de los 72 meses de pago, el banco obtendría una suma de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$198,078 pesos mexicanos en mero interés.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nuestra recomendación sería que es una tasa no tan disparatada, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>se puede considerar sacar el carro</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pero antes de aceptar, creemos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sería conveniente ver qué opciones de financiamiento ofrece Tesla</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ya que tener un intermediario siempre representa un costo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>La vieja máquina fresadora, ofrece un ganancia de $246,978.85 anualmente, lo cual suena bien. Sin embargo, al comparar con la nueva máquina fresadora, observamos cómo la ganancia asciende significativamente a $262,048.48 anualmente. Por lo mencionado anteriormente, podemos deducir que a la empresa maderera</t>
     </r>
     <r>
       <rPr>
@@ -461,7 +694,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> le conviene adquirir una máquina nueva y distinta</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>le conviene adquirir una máquina nueva y distinta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -471,55 +725,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> a la antigua a pesar de que se tenga que cambiar cada 4 años, que comprar el mismo modelo que ya se tenía anteriormente.</t>
+      <t xml:space="preserve">a la antigua, a pesar de que se tenga que cambiar cada 4 años, que comprar el mismo modelo que ya se tenía anteriormente. Considerar también que al adquirir la máquina nueva, se tiene cubierto el gasto de un terreno que a futuro va a tener seguramente un valor de retorno incluso mayor al gasto inicial. </t>
     </r>
-  </si>
-  <si>
-    <t>Compañía "TVEO"</t>
-  </si>
-  <si>
-    <t>Cementera</t>
-  </si>
-  <si>
-    <t>Mina</t>
-  </si>
-  <si>
-    <t>Camión de Volteo</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Basado en el VNA Total, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>se puede apreciar que utilizar máquinas pequeñas genera un ingreso mayor.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> La diferencia en tasa de rendimiento es significativamente mayor, incluso compensa el trabajo de añadir y comprar nuevas máquinas eventualmente. Cabe mencionar que irse por las máquinas pequeñas, representa un riesgo, debido a que se presume que habrá fondos suficientes para comprar máquinas extras dentro de 3 años. Sin embargo, el rendiemiento esperado soporta el riesgo.</t>
-    </r>
-  </si>
-  <si>
-    <t>some text</t>
-  </si>
-  <si>
-    <t>Inv. Inicial</t>
-  </si>
-  <si>
-    <t>Interés</t>
   </si>
 </sst>
 </file>
@@ -534,7 +741,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.0_-;\-&quot;$&quot;* #,##0.0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,21 +801,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
-      <color theme="7" tint="-0.249977111117893"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -678,18 +921,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFA3F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAD2F6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +1065,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -879,10 +1110,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -897,49 +1125,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -972,12 +1160,6 @@
     <xf numFmtId="6" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -997,7 +1179,7 @@
     <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,22 +1187,68 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1050,10 +1278,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1355,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F780256-FAFA-45AD-BD21-220A3A64CB91}">
   <dimension ref="B2:R19"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1368,7 +1592,8 @@
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -1381,17 +1606,17 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="8">
         <v>0.1</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
@@ -1626,7 +1851,7 @@
         <f t="shared" si="0"/>
         <v>258000</v>
       </c>
-      <c r="P12" s="35" t="s">
+      <c r="P12" s="32" t="s">
         <v>9</v>
       </c>
       <c r="Q12" s="9">
@@ -1635,7 +1860,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="P13" s="35" t="s">
+      <c r="P13" s="32" t="s">
         <v>10</v>
       </c>
       <c r="Q13" s="9">
@@ -1644,14 +1869,14 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="32" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="9">
         <f>NPV(C4,K7:K12)</f>
         <v>1123657.260461254</v>
       </c>
-      <c r="P14" s="35" t="s">
+      <c r="P14" s="32" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="9">
@@ -1663,7 +1888,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="32" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="9">
@@ -1672,7 +1897,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="32" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="9">
@@ -1683,14 +1908,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="155.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
+    <row r="17" spans="3:10" ht="222.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="J18" s="20"/>
@@ -1711,7 +1936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5ECF15-6822-4EE2-B3BE-6B316A49C0F5}">
   <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C30" sqref="C30:F35"/>
     </sheetView>
   </sheetViews>
@@ -1720,167 +1945,167 @@
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="5.5546875" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.21875" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="28.2" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" s="1" customFormat="1" ht="12.55" customHeight="1" x14ac:dyDescent="0.5"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" s="1" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="82" t="s">
+      <c r="G4" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="82" t="s">
+    </row>
+    <row r="5" spans="2:13" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="68">
+        <v>1</v>
+      </c>
+      <c r="C5" s="70">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="62">
+        <v>-2000000</v>
+      </c>
+      <c r="G5" s="63">
+        <v>-1200000</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="65">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="68">
+        <v>2</v>
+      </c>
+      <c r="C6" s="70">
+        <v>30000</v>
+      </c>
+      <c r="E6" s="61" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="89">
+      <c r="F6" s="62">
+        <v>-30</v>
+      </c>
+      <c r="G6" s="63">
+        <v>-31</v>
+      </c>
+      <c r="I6" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="66">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="68">
+        <v>3</v>
+      </c>
+      <c r="C7" s="70">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="62">
+        <v>40000</v>
+      </c>
+      <c r="G7" s="63">
+        <v>0</v>
+      </c>
+      <c r="I7" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="68">
+        <v>4</v>
+      </c>
+      <c r="C8" s="70">
+        <v>80000</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="91">
-        <v>20000</v>
-      </c>
-      <c r="E5" s="82" t="s">
+      <c r="J8" s="66">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="68">
         <v>5</v>
       </c>
-      <c r="F5" s="83">
-        <v>-2000000</v>
-      </c>
-      <c r="G5" s="84">
+      <c r="C9" s="70">
+        <v>80000</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="62">
+        <v>-2500000</v>
+      </c>
+      <c r="G9" s="63">
         <v>-1200000</v>
       </c>
-      <c r="I5" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="86">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="89">
-        <v>2</v>
-      </c>
-      <c r="C6" s="91">
-        <v>30000</v>
-      </c>
-      <c r="E6" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="83">
-        <v>-30</v>
-      </c>
-      <c r="G6" s="84">
-        <v>-31</v>
-      </c>
-      <c r="I6" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="87">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="89">
-        <v>3</v>
-      </c>
-      <c r="C7" s="91">
-        <v>50000</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="83">
-        <v>40000</v>
-      </c>
-      <c r="G7" s="84">
-        <v>0</v>
-      </c>
-      <c r="I7" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="64" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="89">
-        <v>4</v>
-      </c>
-      <c r="C8" s="91">
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="68">
+        <v>6</v>
+      </c>
+      <c r="C10" s="70">
         <v>80000</v>
       </c>
-      <c r="E8" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="85" t="s">
+      <c r="E10" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="87">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89">
-        <v>5</v>
-      </c>
-      <c r="C9" s="91">
-        <v>80000</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="83">
-        <v>-2500000</v>
-      </c>
-      <c r="G9" s="84">
-        <v>-1200000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="89">
-        <v>6</v>
-      </c>
-      <c r="C10" s="91">
-        <v>80000</v>
-      </c>
-      <c r="E10" s="82" t="s">
+      <c r="F10" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="G10" s="64" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" s="85" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="19"/>
     </row>
@@ -1890,33 +2115,33 @@
         <v>5</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="17" t="s">
+      <c r="H12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="I12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="17" t="s">
+      <c r="K12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="37">
         <f>NPV(J8,K14:K19)</f>
         <v>3541362.2682061666</v>
       </c>
@@ -1925,28 +2150,28 @@
       <c r="B13" s="16">
         <v>0</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74">
+      <c r="C13" s="54"/>
+      <c r="D13" s="55">
         <f>F9</f>
         <v>-2500000</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="75">
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="56">
         <f>SUM(C13:G13)</f>
         <v>-2500000</v>
       </c>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75">
+      <c r="J13" s="56"/>
+      <c r="K13" s="56">
         <f>I13+J13</f>
         <v>-2500000</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="L13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="37">
         <f>M12+K13</f>
         <v>1041362.2682061666</v>
       </c>
@@ -1955,40 +2180,40 @@
       <c r="B14" s="16">
         <v>1</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="55">
         <f>$F$5</f>
         <v>-2000000</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74">
+      <c r="D14" s="54"/>
+      <c r="E14" s="55">
         <f>$F$6*H14</f>
         <v>-600000</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="76">
+      <c r="F14" s="54"/>
+      <c r="G14" s="57">
         <f>H14*$J$5</f>
         <v>1800000</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="58">
         <f t="shared" ref="H14:H19" si="0">C5</f>
         <v>20000</v>
       </c>
-      <c r="I14" s="75">
+      <c r="I14" s="56">
         <f>SUM(C14:G14)</f>
         <v>-800000</v>
       </c>
-      <c r="J14" s="75">
+      <c r="J14" s="56">
         <f>MIN(0,I14*$J$6*-1)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="75">
+      <c r="K14" s="56">
         <f>I14+J14</f>
         <v>-800000</v>
       </c>
-      <c r="L14" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="81">
+      <c r="L14" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="60">
         <f>IRR(K13:K19)</f>
         <v>0.19140574831816526</v>
       </c>
@@ -1997,33 +2222,33 @@
       <c r="B15" s="16">
         <v>2</v>
       </c>
-      <c r="C15" s="74">
+      <c r="C15" s="55">
         <f t="shared" ref="C15:C19" si="1">$F$5</f>
         <v>-2000000</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74">
+      <c r="D15" s="54"/>
+      <c r="E15" s="55">
         <f>$F$6*H15</f>
         <v>-900000</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="76">
+      <c r="F15" s="54"/>
+      <c r="G15" s="57">
         <f t="shared" ref="G15:G18" si="2">H15*$J$5</f>
         <v>2700000</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="58">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="I15" s="75">
+      <c r="I15" s="56">
         <f t="shared" ref="I15:I19" si="3">SUM(C15:G15)</f>
         <v>-200000</v>
       </c>
-      <c r="J15" s="75">
+      <c r="J15" s="56">
         <f t="shared" ref="J15:J18" si="4">MIN(0,I15*$J$6*-1)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="75">
+      <c r="K15" s="56">
         <f t="shared" ref="K15:K17" si="5">I15+J15</f>
         <v>-200000</v>
       </c>
@@ -2032,33 +2257,33 @@
       <c r="B16" s="16">
         <v>3</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="55">
         <f t="shared" si="1"/>
         <v>-2000000</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74">
+      <c r="D16" s="54"/>
+      <c r="E16" s="55">
         <f>$F$6*H16</f>
         <v>-1500000</v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="76">
+      <c r="F16" s="54"/>
+      <c r="G16" s="57">
         <f t="shared" si="2"/>
         <v>4500000</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="58">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="I16" s="75">
+      <c r="I16" s="56">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
-      <c r="J16" s="75">
+      <c r="J16" s="56">
         <f t="shared" si="4"/>
         <v>-200000</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="56">
         <f t="shared" si="5"/>
         <v>800000</v>
       </c>
@@ -2067,33 +2292,33 @@
       <c r="B17" s="16">
         <v>4</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="55">
         <f t="shared" si="1"/>
         <v>-2000000</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74">
+      <c r="D17" s="54"/>
+      <c r="E17" s="55">
         <f>$F$6*H17</f>
         <v>-2400000</v>
       </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="76">
+      <c r="F17" s="54"/>
+      <c r="G17" s="57">
         <f t="shared" si="2"/>
         <v>7200000</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="58">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="I17" s="75">
+      <c r="I17" s="56">
         <f t="shared" si="3"/>
         <v>2800000</v>
       </c>
-      <c r="J17" s="75">
+      <c r="J17" s="56">
         <f t="shared" si="4"/>
         <v>-560000</v>
       </c>
-      <c r="K17" s="75">
+      <c r="K17" s="56">
         <f t="shared" si="5"/>
         <v>2240000</v>
       </c>
@@ -2102,33 +2327,33 @@
       <c r="B18" s="16">
         <v>5</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C18" s="55">
         <f t="shared" si="1"/>
         <v>-2000000</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74">
+      <c r="D18" s="54"/>
+      <c r="E18" s="55">
         <f t="shared" ref="E18" si="6">$F$6*H18</f>
         <v>-2400000</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="76">
+      <c r="F18" s="54"/>
+      <c r="G18" s="57">
         <f t="shared" si="2"/>
         <v>7200000</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="58">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="I18" s="75">
+      <c r="I18" s="56">
         <f t="shared" si="3"/>
         <v>2800000</v>
       </c>
-      <c r="J18" s="75">
+      <c r="J18" s="56">
         <f t="shared" si="4"/>
         <v>-560000</v>
       </c>
-      <c r="K18" s="75">
+      <c r="K18" s="56">
         <f>I18+J18</f>
         <v>2240000</v>
       </c>
@@ -2137,43 +2362,43 @@
       <c r="B19" s="16">
         <v>6</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="55">
         <f t="shared" si="1"/>
         <v>-2000000</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74">
+      <c r="D19" s="54"/>
+      <c r="E19" s="55">
         <f>$F$6*H19</f>
         <v>-2400000</v>
       </c>
-      <c r="F19" s="74">
+      <c r="F19" s="55">
         <f>F7</f>
         <v>40000</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="57">
         <f>H19*$J$5</f>
         <v>7200000</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="58">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="I19" s="75">
+      <c r="I19" s="56">
         <f t="shared" si="3"/>
         <v>2840000</v>
       </c>
-      <c r="J19" s="75">
+      <c r="J19" s="56">
         <f>MIN(0,I19*$J$6*-1)</f>
         <v>-568000</v>
       </c>
-      <c r="K19" s="75">
+      <c r="K19" s="56">
         <f>I19+J19</f>
         <v>2272000</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -2182,33 +2407,33 @@
         <v>5</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="H21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="I21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="17" t="s">
+      <c r="K21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="35" t="s">
+      <c r="L21" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M21" s="42">
+      <c r="M21" s="37">
         <f>NPV(J8,K23:K28)</f>
         <v>3055979.2628655988</v>
       </c>
@@ -2217,28 +2442,28 @@
       <c r="B22" s="16">
         <v>0</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74">
+      <c r="C22" s="54"/>
+      <c r="D22" s="55">
         <f>$G$9</f>
         <v>-1200000</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="75">
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="56">
         <f>SUM(C22:G22)</f>
         <v>-1200000</v>
       </c>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75">
+      <c r="J22" s="56"/>
+      <c r="K22" s="56">
         <f>I22</f>
         <v>-1200000</v>
       </c>
-      <c r="L22" s="35" t="s">
+      <c r="L22" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="37">
         <f>M21+K22</f>
         <v>1855979.2628655988</v>
       </c>
@@ -2247,43 +2472,43 @@
       <c r="B23" s="16">
         <v>1</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="55">
         <f>$G$5</f>
         <v>-1200000</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74">
+      <c r="D23" s="54"/>
+      <c r="E23" s="55">
         <f>$G$6*H23</f>
         <v>-620000</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="55">
         <f>$G$7</f>
         <v>0</v>
       </c>
-      <c r="G23" s="76">
+      <c r="G23" s="57">
         <f>H23*$J$5</f>
         <v>1800000</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="58">
         <f t="shared" ref="H23:H28" si="7">C5</f>
         <v>20000</v>
       </c>
-      <c r="I23" s="75">
+      <c r="I23" s="56">
         <f t="shared" ref="I23:I28" si="8">SUM(C23:G23)</f>
         <v>-20000</v>
       </c>
-      <c r="J23" s="75">
+      <c r="J23" s="56">
         <f>MIN(0,I23*$J$6*-1)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="75">
+      <c r="K23" s="56">
         <f>J23+I23</f>
         <v>-20000</v>
       </c>
-      <c r="L23" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="81">
+      <c r="L23" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="60">
         <f>IRR(K22:K28)</f>
         <v>0.36199008491108953</v>
       </c>
@@ -2292,36 +2517,36 @@
       <c r="B24" s="16">
         <v>2</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C24" s="55">
         <f t="shared" ref="C24:C25" si="9">$G$5</f>
         <v>-1200000</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74">
+      <c r="D24" s="54"/>
+      <c r="E24" s="55">
         <f t="shared" ref="E24:E25" si="10">$G$6*H24</f>
         <v>-930000</v>
       </c>
-      <c r="F24" s="74">
+      <c r="F24" s="55">
         <f t="shared" ref="F24:F28" si="11">$G$7</f>
         <v>0</v>
       </c>
-      <c r="G24" s="76">
+      <c r="G24" s="57">
         <f t="shared" ref="G24:G27" si="12">H24*$J$5</f>
         <v>2700000</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="58">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="I24" s="75">
+      <c r="I24" s="56">
         <f t="shared" si="8"/>
         <v>570000</v>
       </c>
-      <c r="J24" s="75">
+      <c r="J24" s="56">
         <f>MIN(0,I24*$J$6*-1)</f>
         <v>-114000</v>
       </c>
-      <c r="K24" s="75">
+      <c r="K24" s="56">
         <f>J24+I24</f>
         <v>456000</v>
       </c>
@@ -2330,39 +2555,39 @@
       <c r="B25" s="16">
         <v>3</v>
       </c>
-      <c r="C25" s="74">
+      <c r="C25" s="55">
         <f t="shared" si="9"/>
         <v>-1200000</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="55">
         <f>$G$9*2</f>
         <v>-2400000</v>
       </c>
-      <c r="E25" s="74">
+      <c r="E25" s="55">
         <f t="shared" si="10"/>
         <v>-1550000</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="55">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G25" s="76">
+      <c r="G25" s="57">
         <f t="shared" si="12"/>
         <v>4500000</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="58">
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="I25" s="75">
+      <c r="I25" s="56">
         <f t="shared" si="8"/>
         <v>-650000</v>
       </c>
-      <c r="J25" s="75">
+      <c r="J25" s="56">
         <f>MIN(0,I25*$J$6*-1)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="75">
+      <c r="K25" s="56">
         <f t="shared" ref="K25:K28" si="13">J25+I25</f>
         <v>-650000</v>
       </c>
@@ -2371,36 +2596,36 @@
       <c r="B26" s="16">
         <v>4</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C26" s="55">
         <f>$G$5*2</f>
         <v>-2400000</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="74">
+      <c r="D26" s="59"/>
+      <c r="E26" s="55">
         <f>$G$6*H26</f>
         <v>-2480000</v>
       </c>
-      <c r="F26" s="74">
+      <c r="F26" s="55">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G26" s="57">
         <f t="shared" si="12"/>
         <v>7200000</v>
       </c>
-      <c r="H26" s="77">
+      <c r="H26" s="58">
         <f t="shared" si="7"/>
         <v>80000</v>
       </c>
-      <c r="I26" s="75">
+      <c r="I26" s="56">
         <f t="shared" si="8"/>
         <v>2320000</v>
       </c>
-      <c r="J26" s="75">
+      <c r="J26" s="56">
         <f t="shared" ref="J26:J28" si="14">MIN(0,I26*$J$6*-1)</f>
         <v>-464000</v>
       </c>
-      <c r="K26" s="75">
+      <c r="K26" s="56">
         <f t="shared" si="13"/>
         <v>1856000</v>
       </c>
@@ -2409,36 +2634,36 @@
       <c r="B27" s="16">
         <v>5</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="55">
         <f t="shared" ref="C27:C28" si="15">$G$5*2</f>
         <v>-2400000</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74">
+      <c r="D27" s="54"/>
+      <c r="E27" s="55">
         <f>$G$6*H27</f>
         <v>-2480000</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="55">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G27" s="76">
+      <c r="G27" s="57">
         <f t="shared" si="12"/>
         <v>7200000</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="58">
         <f t="shared" si="7"/>
         <v>80000</v>
       </c>
-      <c r="I27" s="75">
+      <c r="I27" s="56">
         <f t="shared" si="8"/>
         <v>2320000</v>
       </c>
-      <c r="J27" s="75">
+      <c r="J27" s="56">
         <f t="shared" si="14"/>
         <v>-464000</v>
       </c>
-      <c r="K27" s="75">
+      <c r="K27" s="56">
         <f t="shared" si="13"/>
         <v>1856000</v>
       </c>
@@ -2447,78 +2672,78 @@
       <c r="B28" s="16">
         <v>6</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="55">
         <f t="shared" si="15"/>
         <v>-2400000</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74">
+      <c r="D28" s="54"/>
+      <c r="E28" s="55">
         <f>$G$6*H28</f>
         <v>-2480000</v>
       </c>
-      <c r="F28" s="74">
+      <c r="F28" s="55">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G28" s="76">
+      <c r="G28" s="57">
         <f>H28*$J$5</f>
         <v>7200000</v>
       </c>
-      <c r="H28" s="77">
+      <c r="H28" s="58">
         <f t="shared" si="7"/>
         <v>80000</v>
       </c>
-      <c r="I28" s="75">
+      <c r="I28" s="56">
         <f t="shared" si="8"/>
         <v>2320000</v>
       </c>
-      <c r="J28" s="75">
+      <c r="J28" s="56">
         <f t="shared" si="14"/>
         <v>-464000</v>
       </c>
-      <c r="K28" s="75">
+      <c r="K28" s="56">
         <f t="shared" si="13"/>
         <v>1856000</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="8.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C30" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
+      <c r="C30" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="55"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="91"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="91"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="53"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="55"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="91"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="55"/>
-    </row>
-    <row r="35" spans="3:6" ht="61.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="91"/>
+    </row>
+    <row r="35" spans="3:6" ht="113.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="92"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2531,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB1DD7-39B3-4B02-8727-4912941BB3F7}">
-  <dimension ref="B2:P33"/>
+  <dimension ref="B2:P38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:P11"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -2548,411 +2773,435 @@
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.21875" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.21875" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="28.2" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="95" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M4" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
     </row>
     <row r="5" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="42">
+        <v>-12000</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+    </row>
+    <row r="6" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="43">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="49">
+        <v>-550</v>
+      </c>
+      <c r="F6" s="45">
+        <v>0</v>
+      </c>
+      <c r="G6" s="45">
+        <v>5</v>
+      </c>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+    </row>
+    <row r="7" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="61">
-        <v>-12000</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="60" t="s">
+      <c r="C7" s="42">
+        <v>-20000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="49">
+        <v>-800</v>
+      </c>
+      <c r="F7" s="45">
+        <v>6</v>
+      </c>
+      <c r="G7" s="45">
+        <v>10</v>
+      </c>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+    </row>
+    <row r="8" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="42">
+        <v>-450</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="49">
+        <v>-1500</v>
+      </c>
+      <c r="F8" s="45">
+        <v>11</v>
+      </c>
+      <c r="G8" s="45">
+        <v>15</v>
+      </c>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+    </row>
+    <row r="9" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-    </row>
-    <row r="6" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="59" t="s">
+      <c r="E9" s="49">
+        <v>-2500</v>
+      </c>
+      <c r="F9" s="45">
+        <v>16</v>
+      </c>
+      <c r="G9" s="45">
         <v>20</v>
       </c>
-      <c r="C6" s="62">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="68">
-        <v>-550</v>
-      </c>
-      <c r="F6" s="64">
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+    </row>
+    <row r="10" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+    </row>
+    <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+    </row>
+    <row r="13" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="40">
         <v>0</v>
       </c>
-      <c r="G6" s="64">
-        <v>5</v>
-      </c>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-    </row>
-    <row r="7" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="61">
-        <v>-20000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="68">
-        <v>-800</v>
-      </c>
-      <c r="F7" s="64">
-        <v>6</v>
-      </c>
-      <c r="G7" s="64">
-        <v>10</v>
-      </c>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-    </row>
-    <row r="8" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="61">
-        <v>-450</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="68">
-        <v>-1500</v>
-      </c>
-      <c r="F8" s="64">
-        <v>11</v>
-      </c>
-      <c r="G8" s="64">
-        <v>15</v>
-      </c>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-    </row>
-    <row r="9" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="63">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="68">
-        <v>-2500</v>
-      </c>
-      <c r="F9" s="64">
-        <v>16</v>
-      </c>
-      <c r="G9" s="64">
-        <v>20</v>
-      </c>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
-      <c r="C12" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="59">
-        <v>0</v>
-      </c>
-      <c r="C13" s="65">
+      <c r="C13" s="46">
         <f>C5</f>
         <v>-12000</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="65">
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="46">
         <f>SUM(C13:F13)</f>
         <v>-12000</v>
       </c>
-      <c r="I13" s="70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="59">
+      <c r="I13" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+    </row>
+    <row r="14" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="40">
         <v>1</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="65">
+      <c r="C14" s="48"/>
+      <c r="D14" s="46">
         <f>$C$7</f>
         <v>-20000</v>
       </c>
-      <c r="E14" s="65">
+      <c r="E14" s="46">
         <f>$C$8</f>
         <v>-450</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="46">
         <f>$E$6</f>
         <v>-550</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="46">
         <f t="shared" ref="G14:G33" si="0">SUM(C14:F14)</f>
         <v>-21000</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="50">
         <f>NPV(C9,G14:G18)</f>
         <v>-86104.146154899456</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="59">
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+    </row>
+    <row r="15" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="40">
         <v>2</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="65">
+      <c r="C15" s="48"/>
+      <c r="D15" s="46">
         <f t="shared" ref="D15:D33" si="1">$C$7</f>
         <v>-20000</v>
       </c>
-      <c r="E15" s="65">
+      <c r="E15" s="46">
         <f t="shared" ref="E15:E33" si="2">$C$8</f>
         <v>-450</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="46">
         <f t="shared" ref="F15:F18" si="3">$E$6</f>
         <v>-550</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="46">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="69">
+      <c r="J15" s="50">
         <f>J14+G13</f>
         <v>-98104.146154899456</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="59">
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+    </row>
+    <row r="16" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="40">
         <v>3</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="65">
+      <c r="C16" s="48"/>
+      <c r="D16" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="46">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="46">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="50">
         <f>-PMT(C9,B18,J15)</f>
         <v>-23926.68833329649</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="59">
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+    </row>
+    <row r="17" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="40">
         <v>4</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="65">
+      <c r="C17" s="48"/>
+      <c r="D17" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="46">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="46">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="59">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="40">
         <v>5</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="65">
+      <c r="C18" s="48"/>
+      <c r="D18" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="46">
         <f t="shared" si="3"/>
         <v>-550</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="46">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
-      <c r="I18" s="71" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="59">
+      <c r="I18" s="52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="40">
         <v>6</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="65">
+      <c r="C19" s="48"/>
+      <c r="D19" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E19" s="65">
+      <c r="E19" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="46">
         <f>$E$7</f>
         <v>-800</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="46">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="69">
+      <c r="J19" s="50">
         <f>NPV(C9,G14:G23)</f>
         <v>-148226.05838583087</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="59">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="40">
         <v>7</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="65">
+      <c r="C20" s="48"/>
+      <c r="D20" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="46">
         <f t="shared" ref="F20:F23" si="4">$E$7</f>
         <v>-800</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="46">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="50">
         <f>J19+G13</f>
         <v>-160226.05838583087</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="59">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="40">
         <v>8</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="65">
+      <c r="C21" s="48"/>
+      <c r="D21" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="46">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="46">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="69">
+      <c r="J21" s="50">
         <f>-PMT(C9,B23,J20)</f>
         <v>-22812.586064823532</v>
       </c>
@@ -2960,142 +3209,136 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="59">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="40">
         <v>9</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="65">
+      <c r="C22" s="48"/>
+      <c r="D22" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="46">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="46">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
-      <c r="M22" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="59">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="40">
         <v>10</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="65">
+      <c r="C23" s="48"/>
+      <c r="D23" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="46">
         <f t="shared" si="4"/>
         <v>-800</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="46">
         <f t="shared" si="0"/>
         <v>-21250</v>
       </c>
-      <c r="I23" s="71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="59">
+      <c r="I23" s="52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="40">
         <v>11</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="65">
+      <c r="C24" s="48"/>
+      <c r="D24" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E24" s="65">
+      <c r="E24" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="46">
         <f>$E$8</f>
         <v>-1500</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="46">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="69">
+      <c r="J24" s="50">
         <f>NPV(C9,G14:G28)</f>
         <v>-193977.15597450593</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="59">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="40">
         <v>12</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="65">
+      <c r="C25" s="48"/>
+      <c r="D25" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E25" s="65">
+      <c r="E25" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="46">
         <f t="shared" ref="F25:F28" si="5">$E$8</f>
         <v>-1500</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="46">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="69">
+      <c r="J25" s="50">
         <f>J24+G13</f>
         <v>-205977.15597450593</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="59">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="40">
         <v>13</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="65">
+      <c r="C26" s="48"/>
+      <c r="D26" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F26" s="65">
+      <c r="F26" s="46">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="46">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
-      <c r="I26" s="59" t="s">
+      <c r="I26" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="69">
+      <c r="J26" s="50">
         <f>-PMT(C9,B28,J25)</f>
         <v>-22615.184537201567</v>
       </c>
@@ -3103,136 +3346,136 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="59">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="40">
         <v>14</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="65">
+      <c r="C27" s="48"/>
+      <c r="D27" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F27" s="65">
+      <c r="F27" s="46">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G27" s="65">
+      <c r="G27" s="46">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="59">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="40">
         <v>15</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="65">
+      <c r="C28" s="48"/>
+      <c r="D28" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E28" s="65">
+      <c r="E28" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F28" s="65">
+      <c r="F28" s="46">
         <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="46">
         <f t="shared" si="0"/>
         <v>-21950</v>
       </c>
-      <c r="I28" s="71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="59">
+      <c r="I28" s="52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="40">
         <v>16</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="65">
+      <c r="C29" s="48"/>
+      <c r="D29" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="46">
         <f>$E$9</f>
         <v>-2500</v>
       </c>
-      <c r="G29" s="65">
+      <c r="G29" s="46">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="69">
+      <c r="J29" s="50">
         <f>NPV(C9,G14:G33)</f>
         <v>-228083.15649184689</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="59">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="40">
         <v>17</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="65">
+      <c r="C30" s="48"/>
+      <c r="D30" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E30" s="65">
+      <c r="E30" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F30" s="65">
+      <c r="F30" s="46">
         <f t="shared" ref="F30:F33" si="6">$E$9</f>
         <v>-2500</v>
       </c>
-      <c r="G30" s="65">
+      <c r="G30" s="46">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
-      <c r="I30" s="59" t="s">
+      <c r="I30" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="69">
+      <c r="J30" s="50">
         <f>J29+G13</f>
         <v>-240083.15649184689</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="59">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="40">
         <v>18</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="65">
+      <c r="C31" s="48"/>
+      <c r="D31" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="46">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G31" s="65">
+      <c r="G31" s="46">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
-      <c r="I31" s="59" t="s">
+      <c r="I31" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="69">
+      <c r="J31" s="50">
         <f>-PMT(C9,B33,J30)</f>
         <v>-22662.151562941341</v>
       </c>
@@ -3240,53 +3483,87 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="59">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="40">
         <v>19</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="65">
+      <c r="C32" s="48"/>
+      <c r="D32" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="46">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G32" s="65">
+      <c r="G32" s="46">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="59">
+      <c r="B33" s="40">
         <v>20</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="65">
+      <c r="C33" s="48"/>
+      <c r="D33" s="46">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="46">
         <f t="shared" si="2"/>
         <v>-450</v>
       </c>
-      <c r="F33" s="65">
+      <c r="F33" s="46">
         <f t="shared" si="6"/>
         <v>-2500</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="46">
         <f t="shared" si="0"/>
         <v>-22950</v>
       </c>
     </row>
+    <row r="35" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C35" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="97"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="50">
+        <f>NPV(C9,D14:D33)</f>
+        <v>-211880.28491032313</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="50">
+        <f>D36+D13</f>
+        <v>-211880.28491032313</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="50">
+        <f>-PMT(C9,B33,D37)</f>
+        <v>-19999.999999999993</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="M4:P11"/>
+  <mergeCells count="2">
+    <mergeCell ref="M4:P16"/>
+    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3298,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3719ECC-99D3-421D-96A2-DB3C0A57A488}">
   <dimension ref="B2:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -3307,7 +3584,7 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
@@ -3324,41 +3601,33 @@
   <sheetData>
     <row r="2" spans="2:18" ht="28.2" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="28">
+      <c r="B5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="14">
         <v>125000</v>
       </c>
-      <c r="F5" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="92" t="s">
-        <v>73</v>
-      </c>
       <c r="I5" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>4</v>
@@ -3367,89 +3636,77 @@
         <v>5</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="F6" s="93">
-        <v>2</v>
-      </c>
-      <c r="G6" s="94">
-        <v>30</v>
-      </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="53">
         <f>SUM(C15:C18)</f>
         <v>-565000</v>
       </c>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72">
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53">
         <v>300000</v>
       </c>
-      <c r="P6" s="72">
+      <c r="P6" s="53">
         <f>C36</f>
         <v>15000</v>
       </c>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72">
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53">
         <f>SUM(J6:Q6)</f>
         <v>-250000</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="93">
-        <v>2</v>
-      </c>
-      <c r="G7" s="94">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72">
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53">
         <f>D9*C25*365</f>
         <v>-131400</v>
       </c>
-      <c r="M7" s="72">
+      <c r="M7" s="53">
         <f>$C$23</f>
         <v>-20000</v>
       </c>
-      <c r="N7" s="72">
-        <f>D9*G6*365</f>
+      <c r="N7" s="53">
+        <f>D9*F9*365</f>
         <v>328500</v>
       </c>
-      <c r="O7" s="72">
+      <c r="O7" s="53">
         <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72">
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53">
         <f>C46</f>
         <v>-3108</v>
       </c>
-      <c r="R7" s="72">
+      <c r="R7" s="53">
         <f t="shared" ref="R7:R11" si="0">SUM(J7:Q7)</f>
         <v>78058.647461563945</v>
       </c>
@@ -3457,424 +3714,484 @@
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="93">
-        <v>1</v>
-      </c>
-      <c r="G8" s="94">
-        <v>20</v>
       </c>
       <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72">
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53">
         <f>D9*C26*365</f>
         <v>-131400</v>
       </c>
-      <c r="M8" s="72">
+      <c r="M8" s="53">
         <f t="shared" ref="M8:M11" si="1">$C$23</f>
         <v>-20000</v>
       </c>
-      <c r="N8" s="72">
-        <f>G6*D9*365</f>
+      <c r="N8" s="53">
+        <f>F9*D9*365</f>
         <v>328500</v>
       </c>
-      <c r="O8" s="72">
+      <c r="O8" s="53">
         <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72">
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53">
         <f t="shared" ref="Q8:Q11" si="2">C47</f>
         <v>-4014</v>
       </c>
-      <c r="R8" s="72">
+      <c r="R8" s="53">
         <f t="shared" si="0"/>
         <v>77152.647461563945</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="32">
+        <v>64</v>
+      </c>
+      <c r="C9" s="29">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="39">
         <v>30</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="39">
+        <v>2</v>
+      </c>
+      <c r="F9" s="14">
+        <v>30</v>
+      </c>
       <c r="I9" s="4">
         <v>3</v>
       </c>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72">
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53">
         <f>D10*C27*365</f>
         <v>-109500</v>
       </c>
-      <c r="M9" s="72">
+      <c r="M9" s="53">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="N9" s="72">
-        <f>D10*G7*365</f>
+      <c r="N9" s="53">
+        <f>D10*F10*365</f>
         <v>456250</v>
       </c>
-      <c r="O9" s="72">
+      <c r="O9" s="53">
         <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72">
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53">
         <f t="shared" si="2"/>
         <v>-23041</v>
       </c>
-      <c r="R9" s="72">
+      <c r="R9" s="53">
         <f t="shared" si="0"/>
         <v>207775.64746156393</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="32">
+        <v>65</v>
+      </c>
+      <c r="C10" s="29">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="39">
         <v>25</v>
       </c>
-      <c r="E10" s="48"/>
+      <c r="E10" s="39">
+        <v>2</v>
+      </c>
+      <c r="F10" s="14">
+        <v>50</v>
+      </c>
       <c r="I10" s="4">
         <v>4</v>
       </c>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72">
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53">
         <f>D10*C28*365</f>
         <v>-91250</v>
       </c>
-      <c r="M10" s="72">
+      <c r="M10" s="53">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="N10" s="72">
-        <f>D10*G7*365</f>
+      <c r="N10" s="53">
+        <f>D10*F10*365</f>
         <v>456250</v>
       </c>
-      <c r="O10" s="72">
+      <c r="O10" s="53">
         <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72">
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53">
         <f t="shared" si="2"/>
         <v>-26492</v>
       </c>
-      <c r="R10" s="72">
+      <c r="R10" s="53">
         <f t="shared" si="0"/>
         <v>222574.64746156393</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="32">
+        <v>66</v>
+      </c>
+      <c r="C11" s="29">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="39">
         <v>35</v>
       </c>
-      <c r="E11" s="48"/>
+      <c r="E11" s="39">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>20</v>
+      </c>
       <c r="I11" s="4">
         <v>5</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72">
+      <c r="J11" s="53"/>
+      <c r="K11" s="53">
         <f>-0.1*(C15+C17+C18)</f>
         <v>54000</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="53">
         <f>D11*C29*365</f>
         <v>-102200</v>
       </c>
-      <c r="M11" s="72">
+      <c r="M11" s="53">
         <f t="shared" si="1"/>
         <v>-20000</v>
       </c>
-      <c r="N11" s="72">
-        <f>D11*G8*365</f>
+      <c r="N11" s="53">
+        <f>D11*F11*365</f>
         <v>255500</v>
       </c>
-      <c r="O11" s="72">
+      <c r="O11" s="53">
         <f>PMT($C$34,$I$11,$O$6)</f>
         <v>-95933.352538436055</v>
       </c>
-      <c r="P11" s="72">
+      <c r="P11" s="53">
         <f>-C36</f>
         <v>-15000</v>
       </c>
-      <c r="Q11" s="72">
+      <c r="Q11" s="53">
         <f t="shared" si="2"/>
         <v>-2577</v>
       </c>
-      <c r="R11" s="72">
+      <c r="R11" s="53">
         <f t="shared" si="0"/>
         <v>73789.647461563945</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="Q13" s="35" t="s">
+      <c r="Q13" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="42">
+      <c r="R13" s="37">
         <f>NPV(C41,R7:R11)</f>
         <v>426775.70454910013</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="37">
         <f>R13+R6</f>
         <v>176775.70454910013</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="28">
+      <c r="B15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="9">
         <v>-300000</v>
       </c>
-      <c r="F15" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
+      <c r="F15" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
     </row>
     <row r="16" spans="2:18" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="28">
+      <c r="B16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="9">
         <v>-25000</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="Q16" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="R16" s="81">
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="Q16" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="R16" s="60">
         <f>IRR(R6:R11)</f>
         <v>0.38450784697364293</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="29">
+    <row r="17" spans="2:12" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="9">
         <f>-45000*2</f>
         <v>-90000</v>
       </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="29">
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="9">
         <v>-150000</v>
       </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="31">
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="80">
         <v>0.1</v>
       </c>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-    </row>
-    <row r="21" spans="2:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="29"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+    </row>
+    <row r="20" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="28"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="29">
+        <v>74</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="30">
         <v>-20000</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+    </row>
+    <row r="24" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="9">
         <v>-12</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+    </row>
+    <row r="26" spans="2:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="9">
         <v>-12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="9">
         <v>-12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="9">
         <v>-10</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>5</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="9">
         <v>-8</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="28">
+      <c r="B33" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="14">
         <v>300000</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="B34" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="30">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="28">
+      <c r="C36" s="14">
         <v>15000</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="30">
+      <c r="B37" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+      <c r="B41" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>33</v>
+      <c r="B45" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="9">
         <v>-3108</v>
       </c>
     </row>
@@ -3882,7 +4199,7 @@
       <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="9">
         <v>-4014</v>
       </c>
     </row>
@@ -3890,7 +4207,7 @@
       <c r="B48" s="2">
         <v>3</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="9">
         <v>-23041</v>
       </c>
     </row>
@@ -3898,7 +4215,7 @@
       <c r="B49" s="2">
         <v>4</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="9">
         <v>-26492</v>
       </c>
     </row>
@@ -3906,24 +4223,24 @@
       <c r="B50" s="2">
         <v>5</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="9">
         <v>-2577</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F15:I22"/>
+    <mergeCell ref="F15:L25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192610D1-0A17-4CF5-883E-744262988952}">
-  <dimension ref="B2:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192610D1-0A17-4CF5-883E-744262988952}">
+  <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -3943,274 +4260,261 @@
     <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="B2" s="104" t="s">
+    <row r="2" spans="2:10" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="B2" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+    </row>
+    <row r="4" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="62">
+        <v>-1100000</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="62">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="83">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="83">
-        <v>-1100000</v>
-      </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="63">
-        <v>0.15</v>
-      </c>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="105" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="63">
+      <c r="C7" s="44">
         <v>0.25</v>
       </c>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-    </row>
-    <row r="9" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="36" t="s">
+      <c r="E7" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="62">
+        <f>PMT(F6,B13,F5)</f>
+        <v>-369069.76744186052</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="17" t="s">
+      <c r="I10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-    </row>
-    <row r="10" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16">
+    </row>
+    <row r="11" spans="2:10" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
         <v>0</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C11" s="34">
         <f>C5</f>
         <v>-1100000</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6">
+      <c r="D11" s="35"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6">
         <v>600000</v>
       </c>
-      <c r="H10" s="39">
-        <f>SUM(C10:G10)</f>
+      <c r="H11" s="36">
+        <f>SUM(C11:G11)</f>
         <v>-500000</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="39">
-        <f>H10+I10</f>
+      <c r="I11" s="4"/>
+      <c r="J11" s="36">
+        <f>H11+I11</f>
         <v>-500000</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16">
+    <row r="12" spans="2:10" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
         <v>1</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="6">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="6">
         <v>-60000</v>
-      </c>
-      <c r="F11" s="6">
-        <v>950000</v>
-      </c>
-      <c r="G11" s="40">
-        <f>H15</f>
-        <v>-369069.76744186052</v>
-      </c>
-      <c r="H11" s="39">
-        <f t="shared" ref="H11" si="0">SUM(C11:G11)</f>
-        <v>520930.23255813948</v>
-      </c>
-      <c r="I11" s="6">
-        <f>MIN(0,J14*H11*-1)</f>
-        <v>-130232.55813953487</v>
-      </c>
-      <c r="J11" s="39">
-        <f>I11+H11</f>
-        <v>390697.67441860458</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16">
-        <v>2</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="37">
-        <v>350000</v>
-      </c>
-      <c r="E12" s="6">
-        <v>-80000</v>
       </c>
       <c r="F12" s="6">
         <v>950000</v>
       </c>
-      <c r="G12" s="40">
-        <f>H15</f>
+      <c r="G12" s="6">
+        <f>$F$7</f>
         <v>-369069.76744186052</v>
       </c>
-      <c r="H12" s="39">
-        <f>SUM(C12:G12)</f>
+      <c r="H12" s="36">
+        <f t="shared" ref="H12" si="0">SUM(C12:G12)</f>
+        <v>520930.23255813948</v>
+      </c>
+      <c r="I12" s="6">
+        <f>MIN(0,H12*C7*-1)</f>
+        <v>-130232.55813953487</v>
+      </c>
+      <c r="J12" s="36">
+        <f>I12+H12</f>
+        <v>390697.67441860458</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
+        <v>2</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="34">
+        <v>350000</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-80000</v>
+      </c>
+      <c r="F13" s="6">
+        <v>950000</v>
+      </c>
+      <c r="G13" s="6">
+        <f>$F$7</f>
+        <v>-369069.76744186052</v>
+      </c>
+      <c r="H13" s="36">
+        <f>SUM(C13:G13)</f>
         <v>850930.23255813948</v>
       </c>
-      <c r="I12" s="6">
-        <f>MIN(0,J14*H12*-1)</f>
+      <c r="I13" s="6">
+        <f>MIN(0,H13*C7*-1)</f>
         <v>-212732.55813953487</v>
       </c>
-      <c r="J12" s="39">
-        <f>I12+H12</f>
+      <c r="J13" s="36">
+        <f>I13+H13</f>
         <v>638197.67441860458</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="G14" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="41">
-        <f>C6</f>
-        <v>0.15</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="41">
-        <f>C7</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="53"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="55"/>
-      <c r="G15" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="42">
-        <f>PMT(H14,B12,G10)</f>
-        <v>-369069.76744186052</v>
-      </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="44"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="53"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="55"/>
-    </row>
-    <row r="17" spans="2:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="53"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="55"/>
-      <c r="G17" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="45">
-        <f>IRR(J10:J12)</f>
+    <row r="14" spans="2:10" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="84">
+        <f>IRR(J11:J13)</f>
         <v>0.5861222942225115</v>
       </c>
     </row>
+    <row r="16" spans="2:10" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+    </row>
     <row r="18" spans="2:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="53"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="55"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="H18" s="82"/>
     </row>
     <row r="19" spans="2:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="53"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="55"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
     </row>
     <row r="20" spans="2:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="53"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="55"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
     </row>
     <row r="21" spans="2:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B14:E21"/>
+    <mergeCell ref="B15:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33222DB8-DDDF-4338-8B69-318A6255ED1A}">
-  <dimension ref="B2:N83"/>
+  <dimension ref="B2:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -4227,19 +4531,19 @@
     <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:16" ht="28.2" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4" s="25"/>
       <c r="E4" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -4248,805 +4552,829 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="90" t="s">
-        <v>96</v>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="69" t="s">
+        <v>91</v>
       </c>
       <c r="C5" s="7">
         <v>-11999</v>
       </c>
       <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="100" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="96">
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="71">
         <v>0.5</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="76">
         <v>1</v>
       </c>
-      <c r="F6" s="102">
+      <c r="F6" s="77">
         <f>$C$5</f>
         <v>-11999</v>
       </c>
-      <c r="G6" s="102">
-        <f>-PPMT($C$10,E6,$C$12,$L$6)</f>
+      <c r="G6" s="77">
+        <f t="shared" ref="G6:G37" si="0">-PPMT($C$10,E6,$C$12,$L$6)</f>
         <v>-7010.6735497285608</v>
       </c>
-      <c r="H6" s="102">
-        <f>-IPMT($C$10,E6,$C$12,$L$6)</f>
+      <c r="H6" s="77">
+        <f t="shared" ref="H6:H37" si="1">-IPMT($C$10,E6,$C$12,$L$6)</f>
         <v>-4988.3264502714392</v>
       </c>
-      <c r="I6" s="102">
+      <c r="I6" s="77">
         <f>G6+1.16*H6</f>
         <v>-12797.13223204343</v>
       </c>
-      <c r="K6" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" s="42">
+      <c r="K6" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="37">
         <f>NPV(C10,F6:F77)</f>
         <v>-665850.02673256141</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="97">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="72">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="101">
+        <v>43</v>
+      </c>
+      <c r="E7" s="76">
         <v>2</v>
       </c>
-      <c r="F7" s="102">
-        <f t="shared" ref="F7:F70" si="0">$C$5</f>
-        <v>-11999</v>
-      </c>
-      <c r="G7" s="102">
-        <f>-PPMT($C$10,E7,$C$12,$L$6)</f>
+      <c r="F7" s="77">
+        <f t="shared" ref="F7:F70" si="2">$C$5</f>
+        <v>-11999</v>
+      </c>
+      <c r="G7" s="77">
+        <f t="shared" si="0"/>
         <v>-7063.1951790719431</v>
       </c>
-      <c r="H7" s="102">
-        <f>-IPMT($C$10,E7,$C$12,$L$6)</f>
+      <c r="H7" s="77">
+        <f t="shared" si="1"/>
         <v>-4935.8048209280569</v>
       </c>
-      <c r="I7" s="102">
-        <f t="shared" ref="I7:I70" si="1">G7+1.16*H7</f>
+      <c r="I7" s="77">
+        <f t="shared" ref="I7:I70" si="3">G7+1.16*H7</f>
         <v>-12788.728771348487</v>
       </c>
-      <c r="K7" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="42">
+      <c r="K7" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="37">
         <f>2*L6</f>
         <v>-1331700.0534651228</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="98">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="73">
         <v>8.9899999999999994E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="101">
+        <v>43</v>
+      </c>
+      <c r="E8" s="76">
         <v>3</v>
       </c>
-      <c r="F8" s="102">
+      <c r="F8" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G8" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G8" s="102">
-        <f>-PPMT($C$10,E8,$C$12,$L$6)</f>
         <v>-7116.1102829551564</v>
       </c>
-      <c r="H8" s="102">
-        <f>-IPMT($C$10,E8,$C$12,$L$6)</f>
+      <c r="H8" s="77">
+        <f t="shared" si="1"/>
         <v>-4882.8897170448427</v>
       </c>
-      <c r="I8" s="102">
-        <f t="shared" si="1"/>
+      <c r="I8" s="77">
+        <f t="shared" si="3"/>
         <v>-12780.262354727172</v>
       </c>
       <c r="J8" s="22"/>
-      <c r="K8" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" s="42">
+      <c r="K8" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="37">
         <f>SUM(H6:H77)</f>
         <v>-198077.97326743853</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="90" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="69" t="s">
+        <v>96</v>
       </c>
       <c r="C9" s="5">
         <v>12</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="76">
         <v>4</v>
       </c>
-      <c r="F9" s="102">
+      <c r="F9" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G9" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G9" s="102">
-        <f>-PPMT($C$10,E9,$C$12,$L$6)</f>
         <v>-7169.4218091582961</v>
       </c>
-      <c r="H9" s="102">
-        <f>-IPMT($C$10,E9,$C$12,$L$6)</f>
+      <c r="H9" s="77">
+        <f t="shared" si="1"/>
         <v>-4829.5781908417039</v>
       </c>
-      <c r="I9" s="102">
-        <f t="shared" si="1"/>
+      <c r="I9" s="77">
+        <f t="shared" si="3"/>
         <v>-12771.732510534672</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="27"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="97">
+    <row r="10" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="72">
         <f>C8/C9</f>
         <v>7.4916666666666664E-3</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="76">
         <v>5</v>
       </c>
-      <c r="F10" s="102">
+      <c r="F10" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G10" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G10" s="102">
-        <f>-PPMT($C$10,E10,$C$12,$L$6)</f>
         <v>-7223.1327275452404</v>
       </c>
-      <c r="H10" s="102">
-        <f>-IPMT($C$10,E10,$C$12,$L$6)</f>
+      <c r="H10" s="77">
+        <f t="shared" si="1"/>
         <v>-4775.8672724547596</v>
       </c>
-      <c r="I10" s="102">
+      <c r="I10" s="77">
+        <f t="shared" si="3"/>
+        <v>-12763.13876359276</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+    </row>
+    <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="74">
+        <v>0.16</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="76">
+        <v>6</v>
+      </c>
+      <c r="F11" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G11" s="77">
+        <f t="shared" si="0"/>
+        <v>-7277.2460302291001</v>
+      </c>
+      <c r="H11" s="77">
         <f t="shared" si="1"/>
-        <v>-12763.13876359276</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="99">
-        <v>0.16</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="101">
-        <v>6</v>
-      </c>
-      <c r="F11" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G11" s="102">
-        <f>-PPMT($C$10,E11,$C$12,$L$6)</f>
-        <v>-7277.2460302291001</v>
-      </c>
-      <c r="H11" s="102">
-        <f>-IPMT($C$10,E11,$C$12,$L$6)</f>
         <v>-4721.7539697708989</v>
       </c>
-      <c r="I11" s="102">
-        <f t="shared" si="1"/>
+      <c r="I11" s="77">
+        <f t="shared" si="3"/>
         <v>-12754.480635163342</v>
       </c>
       <c r="J11" s="23"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="90" t="s">
-        <v>106</v>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+    </row>
+    <row r="12" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="69" t="s">
+        <v>101</v>
       </c>
       <c r="C12" s="5">
         <v>72</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="101">
+      <c r="D12" s="31"/>
+      <c r="E12" s="76">
         <v>7</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G12" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G12" s="102">
-        <f>-PPMT($C$10,E12,$C$12,$L$6)</f>
         <v>-7331.764731738901</v>
       </c>
-      <c r="H12" s="102">
-        <f>-IPMT($C$10,E12,$C$12,$L$6)</f>
+      <c r="H12" s="77">
+        <f t="shared" si="1"/>
         <v>-4667.235268261099</v>
       </c>
-      <c r="I12" s="102">
+      <c r="I12" s="77">
+        <f t="shared" si="3"/>
+        <v>-12745.757642921775</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+    </row>
+    <row r="13" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="76">
+        <v>8</v>
+      </c>
+      <c r="F13" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G13" s="77">
+        <f t="shared" si="0"/>
+        <v>-7386.6918691875107</v>
+      </c>
+      <c r="H13" s="77">
         <f t="shared" si="1"/>
-        <v>-12745.757642921775</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="101">
-        <v>8</v>
-      </c>
-      <c r="F13" s="102">
+        <v>-4612.3081308124893</v>
+      </c>
+      <c r="I13" s="77">
+        <f t="shared" si="3"/>
+        <v>-12736.969300929999</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+    </row>
+    <row r="14" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="76">
+        <v>9</v>
+      </c>
+      <c r="F14" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G14" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G13" s="102">
-        <f>-PPMT($C$10,E13,$C$12,$L$6)</f>
-        <v>-7386.6918691875107</v>
-      </c>
-      <c r="H13" s="102">
-        <f>-IPMT($C$10,E13,$C$12,$L$6)</f>
-        <v>-4612.3081308124893</v>
-      </c>
-      <c r="I13" s="102">
+        <v>-7442.0305024408399</v>
+      </c>
+      <c r="H14" s="77">
         <f t="shared" si="1"/>
-        <v>-12736.969300929999</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="101">
-        <v>9</v>
-      </c>
-      <c r="F14" s="102">
+        <v>-4556.9694975591592</v>
+      </c>
+      <c r="I14" s="77">
+        <f t="shared" si="3"/>
+        <v>-12728.115119609465</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+    </row>
+    <row r="15" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="76">
+        <v>10</v>
+      </c>
+      <c r="F15" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G15" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G14" s="102">
-        <f>-PPMT($C$10,E14,$C$12,$L$6)</f>
-        <v>-7442.0305024408399</v>
-      </c>
-      <c r="H14" s="102">
-        <f>-IPMT($C$10,E14,$C$12,$L$6)</f>
-        <v>-4556.9694975591592</v>
-      </c>
-      <c r="I14" s="102">
+        <v>-7497.7837142882927</v>
+      </c>
+      <c r="H15" s="77">
         <f t="shared" si="1"/>
-        <v>-12728.115119609465</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-    </row>
-    <row r="15" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="101">
-        <v>10</v>
-      </c>
-      <c r="F15" s="102">
+        <v>-4501.2162857117073</v>
+      </c>
+      <c r="I15" s="77">
+        <f t="shared" si="3"/>
+        <v>-12719.194605713874</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+    </row>
+    <row r="16" spans="2:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="76">
+        <v>11</v>
+      </c>
+      <c r="F16" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G16" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G15" s="102">
-        <f>-PPMT($C$10,E15,$C$12,$L$6)</f>
-        <v>-7497.7837142882927</v>
-      </c>
-      <c r="H15" s="102">
-        <f>-IPMT($C$10,E15,$C$12,$L$6)</f>
-        <v>-4501.2162857117073</v>
-      </c>
-      <c r="I15" s="102">
+        <v>-7553.9546106145026</v>
+      </c>
+      <c r="H16" s="77">
         <f t="shared" si="1"/>
-        <v>-12719.194605713874</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="101">
-        <v>11</v>
-      </c>
-      <c r="F16" s="102">
+        <v>-4445.0453893854965</v>
+      </c>
+      <c r="I16" s="77">
+        <f t="shared" si="3"/>
+        <v>-12710.207262301679</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+    </row>
+    <row r="17" spans="3:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="76">
+        <v>12</v>
+      </c>
+      <c r="F17" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G17" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G16" s="102">
-        <f>-PPMT($C$10,E16,$C$12,$L$6)</f>
-        <v>-7553.9546106145026</v>
-      </c>
-      <c r="H16" s="102">
-        <f>-IPMT($C$10,E16,$C$12,$L$6)</f>
-        <v>-4445.0453893854965</v>
-      </c>
-      <c r="I16" s="102">
+        <v>-7610.5463205723563</v>
+      </c>
+      <c r="H17" s="77">
         <f t="shared" si="1"/>
-        <v>-12710.207262301679</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-    </row>
-    <row r="17" spans="3:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="101">
-        <v>12</v>
-      </c>
-      <c r="F17" s="102">
+        <v>-4388.4536794276437</v>
+      </c>
+      <c r="I17" s="77">
+        <f t="shared" si="3"/>
+        <v>-12701.152588708423</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+    </row>
+    <row r="18" spans="3:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="76">
+        <v>13</v>
+      </c>
+      <c r="F18" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G18" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G17" s="102">
-        <f>-PPMT($C$10,E17,$C$12,$L$6)</f>
-        <v>-7610.5463205723563</v>
-      </c>
-      <c r="H17" s="102">
-        <f>-IPMT($C$10,E17,$C$12,$L$6)</f>
-        <v>-4388.4536794276437</v>
-      </c>
-      <c r="I17" s="102">
+        <v>-7667.5619967573102</v>
+      </c>
+      <c r="H18" s="77">
         <f t="shared" si="1"/>
-        <v>-12701.152588708423</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-    </row>
-    <row r="18" spans="3:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="101">
-        <v>13</v>
-      </c>
-      <c r="F18" s="102">
+        <v>-4331.4380032426898</v>
+      </c>
+      <c r="I18" s="77">
+        <f t="shared" si="3"/>
+        <v>-12692.030080518831</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+    </row>
+    <row r="19" spans="3:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="76">
+        <v>14</v>
+      </c>
+      <c r="F19" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G19" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G18" s="102">
-        <f>-PPMT($C$10,E18,$C$12,$L$6)</f>
-        <v>-7667.5619967573102</v>
-      </c>
-      <c r="H18" s="102">
-        <f>-IPMT($C$10,E18,$C$12,$L$6)</f>
-        <v>-4331.4380032426898</v>
-      </c>
-      <c r="I18" s="102">
+        <v>-7725.0048153830176</v>
+      </c>
+      <c r="H19" s="77">
         <f t="shared" si="1"/>
-        <v>-12692.030080518831</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="3:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="101">
-        <v>14</v>
-      </c>
-      <c r="F19" s="102">
+        <v>-4273.9951846169824</v>
+      </c>
+      <c r="I19" s="77">
+        <f t="shared" si="3"/>
+        <v>-12682.839229538717</v>
+      </c>
+      <c r="J19" s="22"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+    </row>
+    <row r="20" spans="3:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="76">
+        <v>15</v>
+      </c>
+      <c r="F20" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G20" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G19" s="102">
-        <f>-PPMT($C$10,E19,$C$12,$L$6)</f>
-        <v>-7725.0048153830176</v>
-      </c>
-      <c r="H19" s="102">
-        <f>-IPMT($C$10,E19,$C$12,$L$6)</f>
-        <v>-4273.9951846169824</v>
-      </c>
-      <c r="I19" s="102">
+        <v>-7782.8779764582623</v>
+      </c>
+      <c r="H20" s="77">
         <f t="shared" si="1"/>
-        <v>-12682.839229538717</v>
-      </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="3:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="101">
-        <v>15</v>
-      </c>
-      <c r="F20" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G20" s="102">
-        <f>-PPMT($C$10,E20,$C$12,$L$6)</f>
-        <v>-7782.8779764582623</v>
-      </c>
-      <c r="H20" s="102">
-        <f>-IPMT($C$10,E20,$C$12,$L$6)</f>
         <v>-4216.1220235417368</v>
       </c>
-      <c r="I20" s="102">
-        <f t="shared" si="1"/>
+      <c r="I20" s="77">
+        <f t="shared" si="3"/>
         <v>-12673.579523766677</v>
       </c>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="27"/>
     </row>
-    <row r="21" spans="3:14" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="101">
+    <row r="21" spans="3:16" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="76">
         <v>16</v>
       </c>
-      <c r="F21" s="102">
+      <c r="F21" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G21" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G21" s="102">
-        <f>-PPMT($C$10,E21,$C$12,$L$6)</f>
         <v>-7841.1847039652284</v>
       </c>
-      <c r="H21" s="102">
-        <f>-IPMT($C$10,E21,$C$12,$L$6)</f>
+      <c r="H21" s="77">
+        <f t="shared" si="1"/>
         <v>-4157.8152960347707</v>
       </c>
-      <c r="I21" s="102">
-        <f t="shared" si="1"/>
+      <c r="I21" s="77">
+        <f t="shared" si="3"/>
         <v>-12664.250447365561</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="101">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="76">
         <v>17</v>
       </c>
-      <c r="F22" s="102">
+      <c r="F22" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G22" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G22" s="102">
-        <f>-PPMT($C$10,E22,$C$12,$L$6)</f>
         <v>-7899.9282460391014</v>
       </c>
-      <c r="H22" s="102">
-        <f>-IPMT($C$10,E22,$C$12,$L$6)</f>
+      <c r="H22" s="77">
+        <f t="shared" si="1"/>
         <v>-4099.0717539608986</v>
       </c>
-      <c r="I22" s="102">
-        <f t="shared" si="1"/>
+      <c r="I22" s="77">
+        <f t="shared" si="3"/>
         <v>-12654.851480633744</v>
       </c>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="27"/>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="101">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="76">
         <v>18</v>
       </c>
-      <c r="F23" s="102">
+      <c r="F23" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G23" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G23" s="102">
-        <f>-PPMT($C$10,E23,$C$12,$L$6)</f>
         <v>-7959.1118751490112</v>
       </c>
-      <c r="H23" s="102">
-        <f>-IPMT($C$10,E23,$C$12,$L$6)</f>
+      <c r="H23" s="77">
+        <f t="shared" si="1"/>
         <v>-4039.8881248509879</v>
       </c>
-      <c r="I23" s="102">
-        <f t="shared" si="1"/>
+      <c r="I23" s="77">
+        <f t="shared" si="3"/>
         <v>-12645.382099976156</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="L23" s="27"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="101">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="76">
         <v>19</v>
       </c>
-      <c r="F24" s="102">
+      <c r="F24" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G24" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G24" s="102">
-        <f>-PPMT($C$10,E24,$C$12,$L$6)</f>
         <v>-8018.7388882803361</v>
       </c>
-      <c r="H24" s="102">
-        <f>-IPMT($C$10,E24,$C$12,$L$6)</f>
+      <c r="H24" s="77">
+        <f t="shared" si="1"/>
         <v>-3980.2611117196639</v>
       </c>
-      <c r="I24" s="102">
-        <f t="shared" si="1"/>
+      <c r="I24" s="77">
+        <f t="shared" si="3"/>
         <v>-12635.841777875146</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="27"/>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="101">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="76">
         <v>20</v>
       </c>
-      <c r="F25" s="102">
+      <c r="F25" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G25" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G25" s="102">
-        <f>-PPMT($C$10,E25,$C$12,$L$6)</f>
         <v>-8078.8126071183688</v>
       </c>
-      <c r="H25" s="102">
-        <f>-IPMT($C$10,E25,$C$12,$L$6)</f>
+      <c r="H25" s="77">
+        <f t="shared" si="1"/>
         <v>-3920.1873928816303</v>
       </c>
-      <c r="I25" s="102">
-        <f t="shared" si="1"/>
+      <c r="I25" s="77">
+        <f t="shared" si="3"/>
         <v>-12626.229982861059</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="27"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="101">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="76">
         <v>21</v>
       </c>
-      <c r="F26" s="102">
+      <c r="F26" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G26" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G26" s="102">
-        <f>-PPMT($C$10,E26,$C$12,$L$6)</f>
         <v>-8139.3363782333636</v>
       </c>
-      <c r="H26" s="102">
-        <f>-IPMT($C$10,E26,$C$12,$L$6)</f>
+      <c r="H26" s="77">
+        <f t="shared" si="1"/>
         <v>-3859.6636217666351</v>
       </c>
-      <c r="I26" s="102">
-        <f t="shared" si="1"/>
+      <c r="I26" s="77">
+        <f t="shared" si="3"/>
         <v>-12616.546179482659</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="27"/>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="101">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="76">
         <v>22</v>
       </c>
-      <c r="F27" s="102">
+      <c r="F27" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G27" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G27" s="102">
-        <f>-PPMT($C$10,E27,$C$12,$L$6)</f>
         <v>-8200.3135732669634</v>
       </c>
-      <c r="H27" s="102">
-        <f>-IPMT($C$10,E27,$C$12,$L$6)</f>
+      <c r="H27" s="77">
+        <f t="shared" si="1"/>
         <v>-3798.686426733037</v>
       </c>
-      <c r="I27" s="102">
-        <f t="shared" si="1"/>
+      <c r="I27" s="77">
+        <f t="shared" si="3"/>
         <v>-12606.789828277286</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="27"/>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="101">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="76">
         <v>23</v>
       </c>
-      <c r="F28" s="102">
+      <c r="F28" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G28" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G28" s="102">
-        <f>-PPMT($C$10,E28,$C$12,$L$6)</f>
         <v>-8261.7475891200211</v>
       </c>
-      <c r="H28" s="102">
-        <f>-IPMT($C$10,E28,$C$12,$L$6)</f>
+      <c r="H28" s="77">
+        <f t="shared" si="1"/>
         <v>-3737.2524108799789</v>
       </c>
-      <c r="I28" s="102">
-        <f t="shared" si="1"/>
+      <c r="I28" s="77">
+        <f t="shared" si="3"/>
         <v>-12596.960385740796</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
       <c r="L28" s="27"/>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="101">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="76">
         <v>24</v>
       </c>
-      <c r="F29" s="102">
+      <c r="F29" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G29" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G29" s="102">
-        <f>-PPMT($C$10,E29,$C$12,$L$6)</f>
         <v>-8323.6418481418459</v>
       </c>
-      <c r="H29" s="102">
-        <f>-IPMT($C$10,E29,$C$12,$L$6)</f>
+      <c r="H29" s="77">
+        <f t="shared" si="1"/>
         <v>-3675.358151858155</v>
       </c>
-      <c r="I29" s="102">
-        <f t="shared" si="1"/>
+      <c r="I29" s="77">
+        <f t="shared" si="3"/>
         <v>-12587.057304297305</v>
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
       <c r="L29" s="27"/>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="101">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="76">
         <v>25</v>
       </c>
-      <c r="F30" s="102">
+      <c r="F30" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G30" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G30" s="102">
-        <f>-PPMT($C$10,E30,$C$12,$L$6)</f>
         <v>-8385.9997983208414</v>
       </c>
-      <c r="H30" s="102">
-        <f>-IPMT($C$10,E30,$C$12,$L$6)</f>
+      <c r="H30" s="77">
+        <f t="shared" si="1"/>
         <v>-3613.0002016791586</v>
       </c>
-      <c r="I30" s="102">
-        <f t="shared" si="1"/>
+      <c r="I30" s="77">
+        <f t="shared" si="3"/>
         <v>-12577.080032268666</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="27"/>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="101">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="76">
         <v>26</v>
       </c>
-      <c r="F31" s="102">
+      <c r="F31" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G31" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G31" s="102">
-        <f>-PPMT($C$10,E31,$C$12,$L$6)</f>
         <v>-8448.8249134765956</v>
       </c>
-      <c r="H31" s="102">
-        <f>-IPMT($C$10,E31,$C$12,$L$6)</f>
+      <c r="H31" s="77">
+        <f t="shared" si="1"/>
         <v>-3550.1750865234048</v>
       </c>
-      <c r="I31" s="102">
-        <f t="shared" si="1"/>
+      <c r="I31" s="77">
+        <f t="shared" si="3"/>
         <v>-12567.028013843745</v>
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="27"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="101">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="76">
         <v>27</v>
       </c>
-      <c r="F32" s="102">
+      <c r="F32" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G32" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G32" s="102">
-        <f>-PPMT($C$10,E32,$C$12,$L$6)</f>
         <v>-8512.1206934533893</v>
       </c>
-      <c r="H32" s="102">
-        <f>-IPMT($C$10,E32,$C$12,$L$6)</f>
+      <c r="H32" s="77">
+        <f t="shared" si="1"/>
         <v>-3486.8793065466102</v>
       </c>
-      <c r="I32" s="102">
-        <f t="shared" si="1"/>
+      <c r="I32" s="77">
+        <f t="shared" si="3"/>
         <v>-12556.900689047457</v>
       </c>
       <c r="J32" s="22"/>
@@ -5054,25 +5382,25 @@
       <c r="L32" s="27"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="101">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="76">
         <v>28</v>
       </c>
-      <c r="F33" s="102">
+      <c r="F33" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G33" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G33" s="102">
-        <f>-PPMT($C$10,E33,$C$12,$L$6)</f>
         <v>-8575.8906643151786</v>
       </c>
-      <c r="H33" s="102">
-        <f>-IPMT($C$10,E33,$C$12,$L$6)</f>
+      <c r="H33" s="77">
+        <f t="shared" si="1"/>
         <v>-3423.109335684821</v>
       </c>
-      <c r="I33" s="102">
-        <f t="shared" si="1"/>
+      <c r="I33" s="77">
+        <f t="shared" si="3"/>
         <v>-12546.697493709571</v>
       </c>
       <c r="J33" s="22"/>
@@ -5080,25 +5408,25 @@
       <c r="L33" s="27"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="101">
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="76">
         <v>29</v>
       </c>
-      <c r="F34" s="102">
+      <c r="F34" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G34" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G34" s="102">
-        <f>-PPMT($C$10,E34,$C$12,$L$6)</f>
         <v>-8640.1383785420057</v>
       </c>
-      <c r="H34" s="102">
-        <f>-IPMT($C$10,E34,$C$12,$L$6)</f>
+      <c r="H34" s="77">
+        <f t="shared" si="1"/>
         <v>-3358.8616214579929</v>
       </c>
-      <c r="I34" s="102">
-        <f t="shared" si="1"/>
+      <c r="I34" s="77">
+        <f t="shared" si="3"/>
         <v>-12536.417859433277</v>
       </c>
       <c r="J34" s="22"/>
@@ -5106,25 +5434,25 @@
       <c r="L34" s="27"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="101">
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="76">
         <v>30</v>
       </c>
-      <c r="F35" s="102">
+      <c r="F35" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G35" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G35" s="102">
-        <f>-PPMT($C$10,E35,$C$12,$L$6)</f>
         <v>-8704.8674152279164</v>
       </c>
-      <c r="H35" s="102">
-        <f>-IPMT($C$10,E35,$C$12,$L$6)</f>
+      <c r="H35" s="77">
+        <f t="shared" si="1"/>
         <v>-3294.1325847720832</v>
       </c>
-      <c r="I35" s="102">
-        <f t="shared" si="1"/>
+      <c r="I35" s="77">
+        <f t="shared" si="3"/>
         <v>-12526.061213563533</v>
       </c>
       <c r="J35" s="22"/>
@@ -5132,25 +5460,25 @@
       <c r="L35" s="27"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="101">
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="76">
         <v>31</v>
       </c>
-      <c r="F36" s="102">
+      <c r="F36" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G36" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G36" s="102">
-        <f>-PPMT($C$10,E36,$C$12,$L$6)</f>
         <v>-8770.0813802803332</v>
       </c>
-      <c r="H36" s="102">
-        <f>-IPMT($C$10,E36,$C$12,$L$6)</f>
+      <c r="H36" s="77">
+        <f t="shared" si="1"/>
         <v>-3228.9186197196673</v>
       </c>
-      <c r="I36" s="102">
-        <f t="shared" si="1"/>
+      <c r="I36" s="77">
+        <f t="shared" si="3"/>
         <v>-12515.626979155148</v>
       </c>
       <c r="J36" s="22"/>
@@ -5158,25 +5486,25 @@
       <c r="L36" s="27"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="101">
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="76">
         <v>32</v>
       </c>
-      <c r="F37" s="102">
+      <c r="F37" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G37" s="77">
         <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G37" s="102">
-        <f>-PPMT($C$10,E37,$C$12,$L$6)</f>
         <v>-8835.7839066209326</v>
       </c>
-      <c r="H37" s="102">
-        <f>-IPMT($C$10,E37,$C$12,$L$6)</f>
+      <c r="H37" s="77">
+        <f t="shared" si="1"/>
         <v>-3163.2160933790674</v>
       </c>
-      <c r="I37" s="102">
-        <f t="shared" si="1"/>
+      <c r="I37" s="77">
+        <f t="shared" si="3"/>
         <v>-12505.11457494065</v>
       </c>
       <c r="J37" s="22"/>
@@ -5184,25 +5512,25 @@
       <c r="L37" s="27"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="101">
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="76">
         <v>33</v>
       </c>
-      <c r="F38" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G38" s="102">
-        <f>-PPMT($C$10,E38,$C$12,$L$6)</f>
+      <c r="F38" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G38" s="77">
+        <f t="shared" ref="G38:G69" si="4">-PPMT($C$10,E38,$C$12,$L$6)</f>
         <v>-8901.9786543880346</v>
       </c>
-      <c r="H38" s="102">
-        <f>-IPMT($C$10,E38,$C$12,$L$6)</f>
+      <c r="H38" s="77">
+        <f t="shared" ref="H38:H69" si="5">-IPMT($C$10,E38,$C$12,$L$6)</f>
         <v>-3097.0213456119645</v>
       </c>
-      <c r="I38" s="102">
-        <f t="shared" si="1"/>
+      <c r="I38" s="77">
+        <f t="shared" si="3"/>
         <v>-12494.523415297914</v>
       </c>
       <c r="J38" s="22"/>
@@ -5210,25 +5538,25 @@
       <c r="L38" s="27"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="101">
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="76">
         <v>34</v>
       </c>
-      <c r="F39" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G39" s="102">
-        <f>-PPMT($C$10,E39,$C$12,$L$6)</f>
+      <c r="F39" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G39" s="77">
+        <f t="shared" si="4"/>
         <v>-8968.6693111404929</v>
       </c>
-      <c r="H39" s="102">
-        <f>-IPMT($C$10,E39,$C$12,$L$6)</f>
+      <c r="H39" s="77">
+        <f t="shared" si="5"/>
         <v>-3030.330688859508</v>
       </c>
-      <c r="I39" s="102">
-        <f t="shared" si="1"/>
+      <c r="I39" s="77">
+        <f t="shared" si="3"/>
         <v>-12483.852910217522</v>
       </c>
       <c r="J39" s="22"/>
@@ -5236,25 +5564,25 @@
       <c r="L39" s="27"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="101">
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="76">
         <v>35</v>
       </c>
-      <c r="F40" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G40" s="102">
-        <f>-PPMT($C$10,E40,$C$12,$L$6)</f>
+      <c r="F40" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G40" s="77">
+        <f t="shared" si="4"/>
         <v>-9035.8595920631196</v>
       </c>
-      <c r="H40" s="102">
-        <f>-IPMT($C$10,E40,$C$12,$L$6)</f>
+      <c r="H40" s="77">
+        <f t="shared" si="5"/>
         <v>-2963.1404079368799</v>
       </c>
-      <c r="I40" s="102">
-        <f t="shared" si="1"/>
+      <c r="I40" s="77">
+        <f t="shared" si="3"/>
         <v>-12473.1024652699</v>
       </c>
       <c r="J40" s="22"/>
@@ -5262,25 +5590,25 @@
       <c r="L40" s="27"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="101">
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="76">
         <v>36</v>
       </c>
-      <c r="F41" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G41" s="102">
-        <f>-PPMT($C$10,E41,$C$12,$L$6)</f>
+      <c r="F41" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G41" s="77">
+        <f t="shared" si="4"/>
         <v>-9103.55324017366</v>
       </c>
-      <c r="H41" s="102">
-        <f>-IPMT($C$10,E41,$C$12,$L$6)</f>
+      <c r="H41" s="77">
+        <f t="shared" si="5"/>
         <v>-2895.4467598263409</v>
       </c>
-      <c r="I41" s="102">
-        <f t="shared" si="1"/>
+      <c r="I41" s="77">
+        <f t="shared" si="3"/>
         <v>-12462.271481572216</v>
       </c>
       <c r="J41" s="22"/>
@@ -5288,25 +5616,25 @@
       <c r="L41" s="27"/>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="101">
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="76">
         <v>37</v>
       </c>
-      <c r="F42" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G42" s="102">
-        <f>-PPMT($C$10,E42,$C$12,$L$6)</f>
+      <c r="F42" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G42" s="77">
+        <f t="shared" si="4"/>
         <v>-9171.7540265312928</v>
       </c>
-      <c r="H42" s="102">
-        <f>-IPMT($C$10,E42,$C$12,$L$6)</f>
+      <c r="H42" s="77">
+        <f t="shared" si="5"/>
         <v>-2827.2459734687063</v>
       </c>
-      <c r="I42" s="102">
-        <f t="shared" si="1"/>
+      <c r="I42" s="77">
+        <f t="shared" si="3"/>
         <v>-12451.359355754992</v>
       </c>
       <c r="J42" s="22"/>
@@ -5314,25 +5642,25 @@
       <c r="L42" s="27"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="101">
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="76">
         <v>38</v>
       </c>
-      <c r="F43" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G43" s="102">
-        <f>-PPMT($C$10,E43,$C$12,$L$6)</f>
+      <c r="F43" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G43" s="77">
+        <f t="shared" si="4"/>
         <v>-9240.4657504467214</v>
       </c>
-      <c r="H43" s="102">
-        <f>-IPMT($C$10,E43,$C$12,$L$6)</f>
+      <c r="H43" s="77">
+        <f t="shared" si="5"/>
         <v>-2758.5342495532768</v>
       </c>
-      <c r="I43" s="102">
-        <f t="shared" si="1"/>
+      <c r="I43" s="77">
+        <f t="shared" si="3"/>
         <v>-12440.365479928521</v>
       </c>
       <c r="J43" s="22"/>
@@ -5340,25 +5668,25 @@
       <c r="L43" s="27"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="101">
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="76">
         <v>39</v>
       </c>
-      <c r="F44" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G44" s="102">
-        <f>-PPMT($C$10,E44,$C$12,$L$6)</f>
+      <c r="F44" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G44" s="77">
+        <f t="shared" si="4"/>
         <v>-9309.6922396938189</v>
       </c>
-      <c r="H44" s="102">
-        <f>-IPMT($C$10,E44,$C$12,$L$6)</f>
+      <c r="H44" s="77">
+        <f t="shared" si="5"/>
         <v>-2689.3077603061797</v>
       </c>
-      <c r="I44" s="102">
-        <f t="shared" si="1"/>
+      <c r="I44" s="77">
+        <f t="shared" si="3"/>
         <v>-12429.289241648987</v>
       </c>
       <c r="J44" s="22"/>
@@ -5366,25 +5694,25 @@
       <c r="L44" s="27"/>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="101">
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="76">
         <v>40</v>
       </c>
-      <c r="F45" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G45" s="102">
-        <f>-PPMT($C$10,E45,$C$12,$L$6)</f>
+      <c r="F45" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G45" s="77">
+        <f t="shared" si="4"/>
         <v>-9379.4373507228593</v>
       </c>
-      <c r="H45" s="102">
-        <f>-IPMT($C$10,E45,$C$12,$L$6)</f>
+      <c r="H45" s="77">
+        <f t="shared" si="5"/>
         <v>-2619.5626492771398</v>
       </c>
-      <c r="I45" s="102">
-        <f t="shared" si="1"/>
+      <c r="I45" s="77">
+        <f t="shared" si="3"/>
         <v>-12418.130023884341</v>
       </c>
       <c r="J45" s="22"/>
@@ -5392,25 +5720,25 @@
       <c r="L45" s="27"/>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="101">
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="76">
         <v>41</v>
       </c>
-      <c r="F46" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G46" s="102">
-        <f>-PPMT($C$10,E46,$C$12,$L$6)</f>
+      <c r="F46" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G46" s="77">
+        <f t="shared" si="4"/>
         <v>-9449.7049688753577</v>
       </c>
-      <c r="H46" s="102">
-        <f>-IPMT($C$10,E46,$C$12,$L$6)</f>
+      <c r="H46" s="77">
+        <f t="shared" si="5"/>
         <v>-2549.2950311246414</v>
       </c>
-      <c r="I46" s="102">
-        <f t="shared" si="1"/>
+      <c r="I46" s="77">
+        <f t="shared" si="3"/>
         <v>-12406.887204979941</v>
       </c>
       <c r="J46" s="22"/>
@@ -5418,25 +5746,25 @@
       <c r="L46" s="27"/>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="101">
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="76">
         <v>42</v>
       </c>
-      <c r="F47" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G47" s="102">
-        <f>-PPMT($C$10,E47,$C$12,$L$6)</f>
+      <c r="F47" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G47" s="77">
+        <f t="shared" si="4"/>
         <v>-9520.4990086005164</v>
       </c>
-      <c r="H47" s="102">
-        <f>-IPMT($C$10,E47,$C$12,$L$6)</f>
+      <c r="H47" s="77">
+        <f t="shared" si="5"/>
         <v>-2478.5009913994836</v>
       </c>
-      <c r="I47" s="102">
-        <f t="shared" si="1"/>
+      <c r="I47" s="77">
+        <f t="shared" si="3"/>
         <v>-12395.560158623917</v>
       </c>
       <c r="J47" s="22"/>
@@ -5444,25 +5772,25 @@
       <c r="L47" s="27"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="101">
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="76">
         <v>43</v>
       </c>
-      <c r="F48" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G48" s="102">
-        <f>-PPMT($C$10,E48,$C$12,$L$6)</f>
+      <c r="F48" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G48" s="77">
+        <f t="shared" si="4"/>
         <v>-9591.8234136732826</v>
       </c>
-      <c r="H48" s="102">
-        <f>-IPMT($C$10,E48,$C$12,$L$6)</f>
+      <c r="H48" s="77">
+        <f t="shared" si="5"/>
         <v>-2407.1765863267178</v>
       </c>
-      <c r="I48" s="102">
-        <f t="shared" si="1"/>
+      <c r="I48" s="77">
+        <f t="shared" si="3"/>
         <v>-12384.148253812275</v>
       </c>
       <c r="J48" s="22"/>
@@ -5470,25 +5798,25 @@
       <c r="L48" s="27"/>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="101">
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="76">
         <v>44</v>
       </c>
-      <c r="F49" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G49" s="102">
-        <f>-PPMT($C$10,E49,$C$12,$L$6)</f>
+      <c r="F49" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G49" s="77">
+        <f t="shared" si="4"/>
         <v>-9663.6821574140504</v>
       </c>
-      <c r="H49" s="102">
-        <f>-IPMT($C$10,E49,$C$12,$L$6)</f>
+      <c r="H49" s="77">
+        <f t="shared" si="5"/>
         <v>-2335.3178425859492</v>
       </c>
-      <c r="I49" s="102">
-        <f t="shared" si="1"/>
+      <c r="I49" s="77">
+        <f t="shared" si="3"/>
         <v>-12372.650854813752</v>
       </c>
       <c r="J49" s="22"/>
@@ -5496,25 +5824,25 @@
       <c r="L49" s="27"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="101">
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="76">
         <v>45</v>
       </c>
-      <c r="F50" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G50" s="102">
-        <f>-PPMT($C$10,E50,$C$12,$L$6)</f>
+      <c r="F50" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G50" s="77">
+        <f t="shared" si="4"/>
         <v>-9736.0792429100111</v>
       </c>
-      <c r="H50" s="102">
-        <f>-IPMT($C$10,E50,$C$12,$L$6)</f>
+      <c r="H50" s="77">
+        <f t="shared" si="5"/>
         <v>-2262.9207570899894</v>
       </c>
-      <c r="I50" s="102">
-        <f t="shared" si="1"/>
+      <c r="I50" s="77">
+        <f t="shared" si="3"/>
         <v>-12361.067321134398</v>
       </c>
       <c r="J50" s="22"/>
@@ -5522,25 +5850,25 @@
       <c r="L50" s="27"/>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="101">
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="76">
         <v>46</v>
       </c>
-      <c r="F51" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G51" s="102">
-        <f>-PPMT($C$10,E51,$C$12,$L$6)</f>
+      <c r="F51" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G51" s="77">
+        <f t="shared" si="4"/>
         <v>-9809.0187032381455</v>
       </c>
-      <c r="H51" s="102">
-        <f>-IPMT($C$10,E51,$C$12,$L$6)</f>
+      <c r="H51" s="77">
+        <f t="shared" si="5"/>
         <v>-2189.9812967618541</v>
       </c>
-      <c r="I51" s="102">
-        <f t="shared" si="1"/>
+      <c r="I51" s="77">
+        <f t="shared" si="3"/>
         <v>-12349.397007481895</v>
       </c>
       <c r="J51" s="22"/>
@@ -5548,25 +5876,25 @@
       <c r="L51" s="27"/>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="101">
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="76">
         <v>47</v>
       </c>
-      <c r="F52" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G52" s="102">
-        <f>-PPMT($C$10,E52,$C$12,$L$6)</f>
+      <c r="F52" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G52" s="77">
+        <f t="shared" si="4"/>
         <v>-9882.504601689905</v>
       </c>
-      <c r="H52" s="102">
-        <f>-IPMT($C$10,E52,$C$12,$L$6)</f>
+      <c r="H52" s="77">
+        <f t="shared" si="5"/>
         <v>-2116.4953983100954</v>
       </c>
-      <c r="I52" s="102">
-        <f t="shared" si="1"/>
+      <c r="I52" s="77">
+        <f t="shared" si="3"/>
         <v>-12337.639263729616</v>
       </c>
       <c r="J52" s="22"/>
@@ -5574,25 +5902,25 @@
       <c r="L52" s="27"/>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="101">
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="76">
         <v>48</v>
       </c>
-      <c r="F53" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G53" s="102">
-        <f>-PPMT($C$10,E53,$C$12,$L$6)</f>
+      <c r="F53" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G53" s="77">
+        <f t="shared" si="4"/>
         <v>-9956.5410319975654</v>
       </c>
-      <c r="H53" s="102">
-        <f>-IPMT($C$10,E53,$C$12,$L$6)</f>
+      <c r="H53" s="77">
+        <f t="shared" si="5"/>
         <v>-2042.4589680024353</v>
       </c>
-      <c r="I53" s="102">
-        <f t="shared" si="1"/>
+      <c r="I53" s="77">
+        <f t="shared" si="3"/>
         <v>-12325.79343488039</v>
       </c>
       <c r="J53" s="22"/>
@@ -5600,25 +5928,25 @@
       <c r="L53" s="27"/>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="101">
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="76">
         <v>49</v>
       </c>
-      <c r="F54" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G54" s="102">
-        <f>-PPMT($C$10,E54,$C$12,$L$6)</f>
+      <c r="F54" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G54" s="77">
+        <f t="shared" si="4"/>
         <v>-10031.13211856228</v>
       </c>
-      <c r="H54" s="102">
-        <f>-IPMT($C$10,E54,$C$12,$L$6)</f>
+      <c r="H54" s="77">
+        <f t="shared" si="5"/>
         <v>-1967.8678814377201</v>
       </c>
-      <c r="I54" s="102">
-        <f t="shared" si="1"/>
+      <c r="I54" s="77">
+        <f t="shared" si="3"/>
         <v>-12313.858861030036</v>
       </c>
       <c r="J54" s="22"/>
@@ -5626,25 +5954,25 @@
       <c r="L54" s="27"/>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="101">
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="76">
         <v>50</v>
       </c>
-      <c r="F55" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G55" s="102">
-        <f>-PPMT($C$10,E55,$C$12,$L$6)</f>
+      <c r="F55" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G55" s="77">
+        <f t="shared" si="4"/>
         <v>-10106.282016683841</v>
       </c>
-      <c r="H55" s="102">
-        <f>-IPMT($C$10,E55,$C$12,$L$6)</f>
+      <c r="H55" s="77">
+        <f t="shared" si="5"/>
         <v>-1892.7179833161574</v>
       </c>
-      <c r="I55" s="102">
-        <f t="shared" si="1"/>
+      <c r="I55" s="77">
+        <f t="shared" si="3"/>
         <v>-12301.834877330584</v>
       </c>
       <c r="J55" s="22"/>
@@ -5652,25 +5980,25 @@
       <c r="L55" s="27"/>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="101">
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="76">
         <v>51</v>
       </c>
-      <c r="F56" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G56" s="102">
-        <f>-PPMT($C$10,E56,$C$12,$L$6)</f>
+      <c r="F56" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G56" s="77">
+        <f t="shared" si="4"/>
         <v>-10181.994912792165</v>
       </c>
-      <c r="H56" s="102">
-        <f>-IPMT($C$10,E56,$C$12,$L$6)</f>
+      <c r="H56" s="77">
+        <f t="shared" si="5"/>
         <v>-1817.0050872078345</v>
       </c>
-      <c r="I56" s="102">
-        <f t="shared" si="1"/>
+      <c r="I56" s="77">
+        <f t="shared" si="3"/>
         <v>-12289.720813953252</v>
       </c>
       <c r="J56" s="22"/>
@@ -5678,25 +6006,25 @@
       <c r="L56" s="27"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="101">
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="76">
         <v>52</v>
       </c>
-      <c r="F57" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G57" s="102">
-        <f>-PPMT($C$10,E57,$C$12,$L$6)</f>
+      <c r="F57" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G57" s="77">
+        <f t="shared" si="4"/>
         <v>-10258.275024680499</v>
       </c>
-      <c r="H57" s="102">
-        <f>-IPMT($C$10,E57,$C$12,$L$6)</f>
+      <c r="H57" s="77">
+        <f t="shared" si="5"/>
         <v>-1740.7249753194997</v>
       </c>
-      <c r="I57" s="102">
-        <f t="shared" si="1"/>
+      <c r="I57" s="77">
+        <f t="shared" si="3"/>
         <v>-12277.515996051119</v>
       </c>
       <c r="J57" s="22"/>
@@ -5704,25 +6032,25 @@
       <c r="L57" s="27"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="101">
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="76">
         <v>53</v>
       </c>
-      <c r="F58" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G58" s="102">
-        <f>-PPMT($C$10,E58,$C$12,$L$6)</f>
+      <c r="F58" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G58" s="77">
+        <f t="shared" si="4"/>
         <v>-10335.1266017404</v>
       </c>
-      <c r="H58" s="102">
-        <f>-IPMT($C$10,E58,$C$12,$L$6)</f>
+      <c r="H58" s="77">
+        <f t="shared" si="5"/>
         <v>-1663.8733982596016</v>
       </c>
-      <c r="I58" s="102">
-        <f t="shared" si="1"/>
+      <c r="I58" s="77">
+        <f t="shared" si="3"/>
         <v>-12265.219743721536</v>
       </c>
       <c r="J58" s="22"/>
@@ -5730,25 +6058,25 @@
       <c r="L58" s="27"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="101">
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="76">
         <v>54</v>
       </c>
-      <c r="F59" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G59" s="102">
-        <f>-PPMT($C$10,E59,$C$12,$L$6)</f>
+      <c r="F59" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G59" s="77">
+        <f t="shared" si="4"/>
         <v>-10412.553925198436</v>
       </c>
-      <c r="H59" s="102">
-        <f>-IPMT($C$10,E59,$C$12,$L$6)</f>
+      <c r="H59" s="77">
+        <f t="shared" si="5"/>
         <v>-1586.4460748015631</v>
       </c>
-      <c r="I59" s="102">
-        <f t="shared" si="1"/>
+      <c r="I59" s="77">
+        <f t="shared" si="3"/>
         <v>-12252.831371968248</v>
       </c>
       <c r="J59" s="22"/>
@@ -5756,25 +6084,25 @@
       <c r="L59" s="27"/>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="101">
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="76">
         <v>55</v>
       </c>
-      <c r="F60" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G60" s="102">
-        <f>-PPMT($C$10,E60,$C$12,$L$6)</f>
+      <c r="F60" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G60" s="77">
+        <f t="shared" si="4"/>
         <v>-10490.561308354714</v>
       </c>
-      <c r="H60" s="102">
-        <f>-IPMT($C$10,E60,$C$12,$L$6)</f>
+      <c r="H60" s="77">
+        <f t="shared" si="5"/>
         <v>-1508.4386916452847</v>
       </c>
-      <c r="I60" s="102">
-        <f t="shared" si="1"/>
+      <c r="I60" s="77">
+        <f t="shared" si="3"/>
         <v>-12240.350190663245</v>
       </c>
       <c r="J60" s="22"/>
@@ -5782,25 +6110,25 @@
       <c r="L60" s="27"/>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="101">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="76">
         <v>56</v>
       </c>
-      <c r="F61" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G61" s="102">
-        <f>-PPMT($C$10,E61,$C$12,$L$6)</f>
+      <c r="F61" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G61" s="77">
+        <f t="shared" si="4"/>
         <v>-10569.15309682314</v>
       </c>
-      <c r="H61" s="102">
-        <f>-IPMT($C$10,E61,$C$12,$L$6)</f>
+      <c r="H61" s="77">
+        <f t="shared" si="5"/>
         <v>-1429.8469031768609</v>
       </c>
-      <c r="I61" s="102">
-        <f t="shared" si="1"/>
+      <c r="I61" s="77">
+        <f t="shared" si="3"/>
         <v>-12227.775504508299</v>
       </c>
       <c r="J61" s="22"/>
@@ -5808,25 +6136,25 @@
       <c r="L61" s="27"/>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="101">
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="76">
         <v>57</v>
       </c>
-      <c r="F62" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G62" s="102">
-        <f>-PPMT($C$10,E62,$C$12,$L$6)</f>
+      <c r="F62" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G62" s="77">
+        <f t="shared" si="4"/>
         <v>-10648.333668773506</v>
       </c>
-      <c r="H62" s="102">
-        <f>-IPMT($C$10,E62,$C$12,$L$6)</f>
+      <c r="H62" s="77">
+        <f t="shared" si="5"/>
         <v>-1350.6663312264943</v>
       </c>
-      <c r="I62" s="102">
-        <f t="shared" si="1"/>
+      <c r="I62" s="77">
+        <f t="shared" si="3"/>
         <v>-12215.10661299624</v>
       </c>
       <c r="J62" s="22"/>
@@ -5834,25 +6162,25 @@
       <c r="L62" s="27"/>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="101">
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="76">
         <v>58</v>
       </c>
-      <c r="F63" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G63" s="102">
-        <f>-PPMT($C$10,E63,$C$12,$L$6)</f>
+      <c r="F63" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G63" s="77">
+        <f t="shared" si="4"/>
         <v>-10728.107435175401</v>
       </c>
-      <c r="H63" s="102">
-        <f>-IPMT($C$10,E63,$C$12,$L$6)</f>
+      <c r="H63" s="77">
+        <f t="shared" si="5"/>
         <v>-1270.8925648245995</v>
       </c>
-      <c r="I63" s="102">
-        <f t="shared" si="1"/>
+      <c r="I63" s="77">
+        <f t="shared" si="3"/>
         <v>-12202.342810371936</v>
       </c>
       <c r="J63" s="22"/>
@@ -5860,25 +6188,25 @@
       <c r="L63" s="27"/>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="101">
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="76">
         <v>59</v>
       </c>
-      <c r="F64" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G64" s="102">
-        <f>-PPMT($C$10,E64,$C$12,$L$6)</f>
+      <c r="F64" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G64" s="77">
+        <f t="shared" si="4"/>
         <v>-10808.478840043923</v>
       </c>
-      <c r="H64" s="102">
-        <f>-IPMT($C$10,E64,$C$12,$L$6)</f>
+      <c r="H64" s="77">
+        <f t="shared" si="5"/>
         <v>-1190.5211599560771</v>
       </c>
-      <c r="I64" s="102">
-        <f t="shared" si="1"/>
+      <c r="I64" s="77">
+        <f t="shared" si="3"/>
         <v>-12189.483385592972</v>
       </c>
       <c r="J64" s="22"/>
@@ -5886,25 +6214,25 @@
       <c r="L64" s="27"/>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="101">
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="76">
         <v>60</v>
       </c>
-      <c r="F65" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G65" s="102">
-        <f>-PPMT($C$10,E65,$C$12,$L$6)</f>
+      <c r="F65" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G65" s="77">
+        <f t="shared" si="4"/>
         <v>-10889.452360687254</v>
       </c>
-      <c r="H65" s="102">
-        <f>-IPMT($C$10,E65,$C$12,$L$6)</f>
+      <c r="H65" s="77">
+        <f t="shared" si="5"/>
         <v>-1109.5476393127478</v>
       </c>
-      <c r="I65" s="102">
-        <f t="shared" si="1"/>
+      <c r="I65" s="77">
+        <f t="shared" si="3"/>
         <v>-12176.527622290041</v>
       </c>
       <c r="J65" s="22"/>
@@ -5912,25 +6240,25 @@
       <c r="L65" s="27"/>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="101">
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="76">
         <v>61</v>
       </c>
-      <c r="F66" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G66" s="102">
-        <f>-PPMT($C$10,E66,$C$12,$L$6)</f>
+      <c r="F66" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G66" s="77">
+        <f t="shared" si="4"/>
         <v>-10971.032507956066</v>
       </c>
-      <c r="H66" s="102">
-        <f>-IPMT($C$10,E66,$C$12,$L$6)</f>
+      <c r="H66" s="77">
+        <f t="shared" si="5"/>
         <v>-1027.9674920439327</v>
       </c>
-      <c r="I66" s="102">
-        <f t="shared" si="1"/>
+      <c r="I66" s="77">
+        <f t="shared" si="3"/>
         <v>-12163.474798727028</v>
       </c>
       <c r="J66" s="22"/>
@@ -5938,25 +6266,25 @@
       <c r="L66" s="27"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="101">
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="76">
         <v>62</v>
       </c>
-      <c r="F67" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G67" s="102">
-        <f>-PPMT($C$10,E67,$C$12,$L$6)</f>
+      <c r="F67" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G67" s="77">
+        <f t="shared" si="4"/>
         <v>-11053.223826494837</v>
       </c>
-      <c r="H67" s="102">
-        <f>-IPMT($C$10,E67,$C$12,$L$6)</f>
+      <c r="H67" s="77">
+        <f t="shared" si="5"/>
         <v>-945.77617350516175</v>
       </c>
-      <c r="I67" s="102">
-        <f t="shared" si="1"/>
+      <c r="I67" s="77">
+        <f t="shared" si="3"/>
         <v>-12150.324187760825</v>
       </c>
       <c r="J67" s="22"/>
@@ -5964,25 +6292,25 @@
       <c r="L67" s="27"/>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="101">
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="76">
         <v>63</v>
       </c>
-      <c r="F68" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G68" s="102">
-        <f>-PPMT($C$10,E68,$C$12,$L$6)</f>
+      <c r="F68" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G68" s="77">
+        <f t="shared" si="4"/>
         <v>-11136.030894994996</v>
       </c>
-      <c r="H68" s="102">
-        <f>-IPMT($C$10,E68,$C$12,$L$6)</f>
+      <c r="H68" s="77">
+        <f t="shared" si="5"/>
         <v>-862.96910500500439</v>
       </c>
-      <c r="I68" s="102">
-        <f t="shared" si="1"/>
+      <c r="I68" s="77">
+        <f t="shared" si="3"/>
         <v>-12137.075056800801</v>
       </c>
       <c r="J68" s="22"/>
@@ -5990,25 +6318,25 @@
       <c r="L68" s="27"/>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="101">
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="76">
         <v>64</v>
       </c>
-      <c r="F69" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G69" s="102">
-        <f>-PPMT($C$10,E69,$C$12,$L$6)</f>
+      <c r="F69" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G69" s="77">
+        <f t="shared" si="4"/>
         <v>-11219.45832645</v>
       </c>
-      <c r="H69" s="102">
-        <f>-IPMT($C$10,E69,$C$12,$L$6)</f>
+      <c r="H69" s="77">
+        <f t="shared" si="5"/>
         <v>-779.54167355000027</v>
       </c>
-      <c r="I69" s="102">
-        <f t="shared" si="1"/>
+      <c r="I69" s="77">
+        <f t="shared" si="3"/>
         <v>-12123.726667768</v>
       </c>
       <c r="J69" s="22"/>
@@ -6016,25 +6344,25 @@
       <c r="L69" s="27"/>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="101">
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="76">
         <v>65</v>
       </c>
-      <c r="F70" s="102">
-        <f t="shared" si="0"/>
-        <v>-11999</v>
-      </c>
-      <c r="G70" s="102">
-        <f>-PPMT($C$10,E70,$C$12,$L$6)</f>
+      <c r="F70" s="77">
+        <f t="shared" si="2"/>
+        <v>-11999</v>
+      </c>
+      <c r="G70" s="77">
+        <f t="shared" ref="G70:G77" si="6">-PPMT($C$10,E70,$C$12,$L$6)</f>
         <v>-11303.51076841232</v>
       </c>
-      <c r="H70" s="102">
-        <f>-IPMT($C$10,E70,$C$12,$L$6)</f>
+      <c r="H70" s="77">
+        <f t="shared" ref="H70:H77" si="7">-IPMT($C$10,E70,$C$12,$L$6)</f>
         <v>-695.48923158767911</v>
       </c>
-      <c r="I70" s="102">
-        <f t="shared" si="1"/>
+      <c r="I70" s="77">
+        <f t="shared" si="3"/>
         <v>-12110.278277054027</v>
       </c>
       <c r="J70" s="22"/>
@@ -6042,25 +6370,25 @@
       <c r="L70" s="27"/>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="101">
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="76">
         <v>66</v>
       </c>
-      <c r="F71" s="102">
-        <f t="shared" ref="F71:F77" si="2">$C$5</f>
-        <v>-11999</v>
-      </c>
-      <c r="G71" s="102">
-        <f>-PPMT($C$10,E71,$C$12,$L$6)</f>
+      <c r="F71" s="77">
+        <f t="shared" ref="F71:F77" si="8">$C$5</f>
+        <v>-11999</v>
+      </c>
+      <c r="G71" s="77">
+        <f t="shared" si="6"/>
         <v>-11388.192903252342</v>
       </c>
-      <c r="H71" s="102">
-        <f>-IPMT($C$10,E71,$C$12,$L$6)</f>
+      <c r="H71" s="77">
+        <f t="shared" si="7"/>
         <v>-610.80709674765683</v>
       </c>
-      <c r="I71" s="102">
-        <f t="shared" ref="I71:I77" si="3">G71+1.16*H71</f>
+      <c r="I71" s="77">
+        <f t="shared" ref="I71:I77" si="9">G71+1.16*H71</f>
         <v>-12096.729135479623</v>
       </c>
       <c r="J71" s="22"/>
@@ -6068,25 +6396,25 @@
       <c r="L71" s="27"/>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="101">
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="76">
         <v>67</v>
       </c>
-      <c r="F72" s="102">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-      <c r="G72" s="102">
-        <f>-PPMT($C$10,E72,$C$12,$L$6)</f>
+      <c r="F72" s="77">
+        <f t="shared" si="8"/>
+        <v>-11999</v>
+      </c>
+      <c r="G72" s="77">
+        <f t="shared" si="6"/>
         <v>-11473.509448419209</v>
       </c>
-      <c r="H72" s="102">
-        <f>-IPMT($C$10,E72,$C$12,$L$6)</f>
+      <c r="H72" s="77">
+        <f t="shared" si="7"/>
         <v>-525.49055158079148</v>
       </c>
-      <c r="I72" s="102">
-        <f t="shared" si="3"/>
+      <c r="I72" s="77">
+        <f t="shared" si="9"/>
         <v>-12083.078488252926</v>
       </c>
       <c r="J72" s="22"/>
@@ -6094,25 +6422,25 @@
       <c r="L72" s="27"/>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="101">
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="76">
         <v>68</v>
       </c>
-      <c r="F73" s="102">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-      <c r="G73" s="102">
-        <f>-PPMT($C$10,E73,$C$12,$L$6)</f>
+      <c r="F73" s="77">
+        <f t="shared" si="8"/>
+        <v>-11999</v>
+      </c>
+      <c r="G73" s="77">
+        <f t="shared" si="6"/>
         <v>-11559.465156703616</v>
       </c>
-      <c r="H73" s="102">
-        <f>-IPMT($C$10,E73,$C$12,$L$6)</f>
+      <c r="H73" s="77">
+        <f t="shared" si="7"/>
         <v>-439.53484329638411</v>
       </c>
-      <c r="I73" s="102">
-        <f t="shared" si="3"/>
+      <c r="I73" s="77">
+        <f t="shared" si="9"/>
         <v>-12069.325574927421</v>
       </c>
       <c r="J73" s="22"/>
@@ -6120,25 +6448,25 @@
       <c r="L73" s="27"/>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="101">
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="76">
         <v>69</v>
       </c>
-      <c r="F74" s="102">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-      <c r="G74" s="102">
-        <f>-PPMT($C$10,E74,$C$12,$L$6)</f>
+      <c r="F74" s="77">
+        <f t="shared" si="8"/>
+        <v>-11999</v>
+      </c>
+      <c r="G74" s="77">
+        <f t="shared" si="6"/>
         <v>-11646.064816502587</v>
       </c>
-      <c r="H74" s="102">
-        <f>-IPMT($C$10,E74,$C$12,$L$6)</f>
+      <c r="H74" s="77">
+        <f t="shared" si="7"/>
         <v>-352.93518349741288</v>
       </c>
-      <c r="I74" s="102">
-        <f t="shared" si="3"/>
+      <c r="I74" s="77">
+        <f t="shared" si="9"/>
         <v>-12055.469629359586</v>
       </c>
       <c r="J74" s="22"/>
@@ -6146,25 +6474,25 @@
       <c r="L74" s="27"/>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="101">
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="76">
         <v>70</v>
       </c>
-      <c r="F75" s="102">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-      <c r="G75" s="102">
-        <f>-PPMT($C$10,E75,$C$12,$L$6)</f>
+      <c r="F75" s="77">
+        <f t="shared" si="8"/>
+        <v>-11999</v>
+      </c>
+      <c r="G75" s="77">
+        <f t="shared" si="6"/>
         <v>-11733.313252086218</v>
       </c>
-      <c r="H75" s="102">
-        <f>-IPMT($C$10,E75,$C$12,$L$6)</f>
+      <c r="H75" s="77">
+        <f t="shared" si="7"/>
         <v>-265.68674791378106</v>
       </c>
-      <c r="I75" s="102">
-        <f t="shared" si="3"/>
+      <c r="I75" s="77">
+        <f t="shared" si="9"/>
         <v>-12041.509879666204</v>
       </c>
       <c r="J75" s="22"/>
@@ -6172,25 +6500,25 @@
       <c r="L75" s="27"/>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="101">
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="76">
         <v>71</v>
       </c>
-      <c r="F76" s="102">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-      <c r="G76" s="102">
-        <f>-PPMT($C$10,E76,$C$12,$L$6)</f>
+      <c r="F76" s="77">
+        <f t="shared" si="8"/>
+        <v>-11999</v>
+      </c>
+      <c r="G76" s="77">
+        <f t="shared" si="6"/>
         <v>-11821.21532386643</v>
       </c>
-      <c r="H76" s="102">
-        <f>-IPMT($C$10,E76,$C$12,$L$6)</f>
+      <c r="H76" s="77">
+        <f t="shared" si="7"/>
         <v>-177.78467613356841</v>
       </c>
-      <c r="I76" s="102">
-        <f t="shared" si="3"/>
+      <c r="I76" s="77">
+        <f t="shared" si="9"/>
         <v>-12027.445548181369</v>
       </c>
       <c r="J76" s="22"/>
@@ -6198,25 +6526,25 @@
       <c r="L76" s="27"/>
     </row>
     <row r="77" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="101">
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="76">
         <v>72</v>
       </c>
-      <c r="F77" s="102">
-        <f t="shared" si="2"/>
-        <v>-11999</v>
-      </c>
-      <c r="G77" s="102">
-        <f>-PPMT($C$10,E77,$C$12,$L$6)</f>
+      <c r="F77" s="77">
+        <f t="shared" si="8"/>
+        <v>-11999</v>
+      </c>
+      <c r="G77" s="77">
+        <f t="shared" si="6"/>
         <v>-11909.77592866773</v>
       </c>
-      <c r="H77" s="102">
-        <f>-IPMT($C$10,E77,$C$12,$L$6)</f>
+      <c r="H77" s="77">
+        <f t="shared" si="7"/>
         <v>-89.224071332269105</v>
       </c>
-      <c r="I77" s="102">
-        <f t="shared" si="3"/>
+      <c r="I77" s="77">
+        <f t="shared" si="9"/>
         <v>-12013.275851413162</v>
       </c>
       <c r="J77" s="22"/>
@@ -6224,16 +6552,16 @@
       <c r="L77" s="27"/>
     </row>
     <row r="78" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
       <c r="I78" s="26"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22"/>
       <c r="L78" s="27"/>
     </row>
     <row r="79" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
       <c r="E79" s="20"/>
       <c r="I79" s="26"/>
       <c r="J79" s="22"/>
@@ -6241,8 +6569,8 @@
       <c r="L79" s="27"/>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
       <c r="E80" s="20"/>
       <c r="I80" s="26"/>
       <c r="J80" s="22"/>
@@ -6250,23 +6578,23 @@
       <c r="L80" s="27"/>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
       <c r="E81" s="20"/>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
       <c r="E82" s="20"/>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
       <c r="E83" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K10:N17"/>
+    <mergeCell ref="K10:P19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
